--- a/00框架文件/03MR.xlsx
+++ b/00框架文件/03MR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A1134D-96F7-4032-A83E-592CE5964585}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D24E74B-F245-468C-96A0-100AA0B8C13F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,6 +14,9 @@
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">科目!$A$1:$G$90</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="144">
   <si>
     <t>报表科目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,9 +287,6 @@
     <t>递延收益-非流动</t>
   </si>
   <si>
-    <t>未分配利润</t>
-  </si>
-  <si>
     <t>减：库存股</t>
   </si>
   <si>
@@ -309,9 +309,6 @@
   </si>
   <si>
     <t>减：所得税</t>
-  </si>
-  <si>
-    <t>研发支出</t>
   </si>
   <si>
     <t>A3科目名称</t>
@@ -454,6 +451,45 @@
   </si>
   <si>
     <t>RMB历史折算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他权益工具投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       加：其他收益</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   资产处置收益（损失以“－”号填列）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半成品</t>
+  </si>
+  <si>
+    <t>长期投资减值准备</t>
+  </si>
+  <si>
+    <t>研发费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>年初未分配利润（调整后）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款坏账准备</t>
+  </si>
+  <si>
+    <t>其他应付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他应收款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,10 +548,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -555,6 +592,9 @@
           </cell>
         </row>
         <row r="2">
+          <cell r="A2" t="str">
+            <v>上海昊海生物科技股份有限公司-基准账簿</v>
+          </cell>
           <cell r="B2" t="str">
             <v>01 生科</v>
           </cell>
@@ -563,6 +603,9 @@
           </cell>
         </row>
         <row r="3">
+          <cell r="A3" t="str">
+            <v>上海其胜生物制剂有限公司-基准账簿</v>
+          </cell>
           <cell r="B3" t="str">
             <v>02 其胜</v>
           </cell>
@@ -571,6 +614,9 @@
           </cell>
         </row>
         <row r="4">
+          <cell r="A4" t="str">
+            <v>上海建华精细生物制品有限公司-基准账簿</v>
+          </cell>
           <cell r="B4" t="str">
             <v>03 建华</v>
           </cell>
@@ -579,6 +625,9 @@
           </cell>
         </row>
         <row r="5">
+          <cell r="A5" t="str">
+            <v>上海利康瑞生物工程有限公司-基准账簿</v>
+          </cell>
           <cell r="B5" t="str">
             <v>04 利康瑞</v>
           </cell>
@@ -598,6 +647,9 @@
           </cell>
         </row>
         <row r="7">
+          <cell r="A7" t="str">
+            <v>上海昊海医药科技发展有限公司-基准账簿</v>
+          </cell>
           <cell r="B7" t="str">
             <v>06 发展</v>
           </cell>
@@ -622,6 +674,9 @@
           </cell>
         </row>
         <row r="10">
+          <cell r="A10" t="str">
+            <v>深圳市新产业眼科新技术有限公司-基准账簿</v>
+          </cell>
           <cell r="B10" t="str">
             <v>10 新产业</v>
           </cell>
@@ -630,6 +685,9 @@
           </cell>
         </row>
         <row r="11">
+          <cell r="A11" t="str">
+            <v>河南宇宙人工晶状体研制有限公司-基准账簿</v>
+          </cell>
           <cell r="B11" t="str">
             <v>11 河南宇宙</v>
           </cell>
@@ -686,6 +744,9 @@
           </cell>
         </row>
         <row r="18">
+          <cell r="A18" t="str">
+            <v>河南赛美视生物科技有限公司-基准账簿</v>
+          </cell>
           <cell r="B18" t="str">
             <v>18 河南赛美视</v>
           </cell>
@@ -694,6 +755,9 @@
           </cell>
         </row>
         <row r="19">
+          <cell r="A19" t="str">
+            <v>杭州爱晶伦科技有限公司-基准账簿</v>
+          </cell>
           <cell r="B19" t="str">
             <v>19 爱晶伦</v>
           </cell>
@@ -710,6 +774,9 @@
           </cell>
         </row>
         <row r="21">
+          <cell r="A21" t="str">
+            <v>河北鑫视康隐形眼镜有限公司-基准账簿</v>
+          </cell>
           <cell r="B21" t="str">
             <v>21 河北鑫视康</v>
           </cell>
@@ -718,6 +785,9 @@
           </cell>
         </row>
         <row r="22">
+          <cell r="A22" t="str">
+            <v>上海亨泰视觉科技有限公司-基准账簿</v>
+          </cell>
           <cell r="B22" t="str">
             <v>22 亨泰视觉</v>
           </cell>
@@ -735,6 +805,14 @@
             <v>适用汇率</v>
           </cell>
         </row>
+        <row r="2">
+          <cell r="F2" t="str">
+            <v>RMB/BS</v>
+          </cell>
+          <cell r="G2">
+            <v>1</v>
+          </cell>
+        </row>
         <row r="3">
           <cell r="F3" t="str">
             <v>USD/BS</v>
@@ -759,6 +837,14 @@
             <v>8.9410000000000007</v>
           </cell>
         </row>
+        <row r="9">
+          <cell r="F9" t="str">
+            <v>RMB/PL</v>
+          </cell>
+          <cell r="G9">
+            <v>1</v>
+          </cell>
+        </row>
         <row r="10">
           <cell r="F10" t="str">
             <v>USD/PL</v>
@@ -781,6 +867,14 @@
           </cell>
           <cell r="G12">
             <v>8.9156499999999994</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="F14" t="str">
+            <v>RMB/PV</v>
+          </cell>
+          <cell r="G14">
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
@@ -841,205 +935,657 @@
         </row>
         <row r="2">
           <cell r="B2" t="str">
-            <v>123102</v>
+            <v>123101/借</v>
           </cell>
           <cell r="C2" t="str">
-            <v>其他应收款坏账准备</v>
+            <v>应收账款坏账准备</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3" t="str">
-            <v>600100</v>
+            <v>123101/贷</v>
           </cell>
           <cell r="C3" t="str">
-            <v>本年利润抵消明细</v>
+            <v>应收账款坏账准备</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4" t="str">
-            <v>611100</v>
+            <v>123102/借</v>
           </cell>
           <cell r="C4" t="str">
-            <v>本年利润抵消明细</v>
+            <v>其他应收款坏账准备</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>640100</v>
+            <v>123102/贷</v>
           </cell>
           <cell r="C5" t="str">
-            <v>本年利润抵消明细</v>
+            <v>其他应收款坏账准备</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>640300</v>
+            <v>112202/贷</v>
           </cell>
           <cell r="C6" t="str">
-            <v>本年利润抵消明细</v>
+            <v>预收账款</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7" t="str">
-            <v>660100</v>
+            <v>122106/贷</v>
           </cell>
           <cell r="C7" t="str">
-            <v>本年利润抵消明细</v>
+            <v>其他应付款</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>660200</v>
+            <v>220202/借</v>
           </cell>
           <cell r="C8" t="str">
-            <v>本年利润抵消明细</v>
+            <v>预付账款</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
-            <v>660300</v>
+            <v>220299/借</v>
           </cell>
           <cell r="C9" t="str">
+            <v>预付账款</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>53010200/借</v>
+          </cell>
+          <cell r="C10" t="str">
             <v>本年利润抵消明细</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>9999</v>
+            <v>53010200/贷</v>
           </cell>
           <cell r="C11" t="str">
-            <v>外币报表折算差额</v>
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>600100/借</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>本年利润抵消明细</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>122101</v>
+            <v>600100/贷</v>
           </cell>
           <cell r="C13" t="str">
-            <v>重复明细</v>
+            <v>本年利润抵消明细</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14" t="str">
-            <v>122102</v>
+            <v>605100/借</v>
           </cell>
           <cell r="C14" t="str">
-            <v>重复明细</v>
+            <v>本年利润抵消明细</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>224101</v>
+            <v>605100/贷</v>
           </cell>
           <cell r="C15" t="str">
-            <v>重复明细</v>
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>611100/借</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>本年利润抵消明细</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>12210301</v>
+            <v>611100/贷</v>
           </cell>
           <cell r="C17" t="str">
-            <v>重复明细</v>
+            <v>本年利润抵消明细</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>12210401</v>
+            <v>605100/借</v>
           </cell>
           <cell r="C18" t="str">
-            <v>重复明细</v>
+            <v>本年利润抵消明细</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19" t="str">
-            <v>12210402</v>
+            <v>605100/贷</v>
           </cell>
           <cell r="C19" t="str">
-            <v>重复明细</v>
+            <v>本年利润抵消明细</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20" t="str">
-            <v>122105</v>
+            <v>630100/借</v>
           </cell>
           <cell r="C20" t="str">
-            <v>重复明细</v>
+            <v>本年利润抵消明细</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>122108</v>
+            <v>630100/贷</v>
           </cell>
           <cell r="C21" t="str">
-            <v>重复明细</v>
+            <v>本年利润抵消明细</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22" t="str">
-            <v>122125</v>
+            <v>630102/借</v>
           </cell>
           <cell r="C22" t="str">
-            <v>重复明细</v>
+            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
-            <v>224102</v>
+            <v>630102/贷</v>
           </cell>
           <cell r="C23" t="str">
-            <v>重复明细</v>
+            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24" t="str">
-            <v>224103</v>
+            <v>63019801/借</v>
           </cell>
           <cell r="C24" t="str">
-            <v>重复明细</v>
+            <v xml:space="preserve">       加：其他收益</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25" t="str">
-            <v>224104</v>
+            <v>63019801/贷</v>
           </cell>
           <cell r="C25" t="str">
-            <v>重复明细</v>
+            <v xml:space="preserve">       加：其他收益</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
-            <v>224111</v>
+            <v>640100/借</v>
           </cell>
           <cell r="C26" t="str">
-            <v>重复明细</v>
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>640100/贷</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>本年利润抵消明细</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28" t="str">
-            <v>12210302</v>
+            <v>640200/借</v>
           </cell>
           <cell r="C28" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>640200/贷</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>640300/借</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>640300/贷</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>660100/借</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>660100/贷</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>660200/借</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>660200/贷</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>660216/借</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>660216/贷</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>660300/借</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>660300/贷</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>671100/借</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>671100/贷</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>671102/借</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>671102/贷</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>680100/借</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>680100/贷</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>本年利润抵消明细</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>9999</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>外币报表折算差额</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>112201/贷</v>
+          </cell>
+          <cell r="C49" t="str">
             <v>重复明细</v>
           </cell>
         </row>
-        <row r="30">
-          <cell r="C30" t="str">
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>112201/借</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>220201/借</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>220201/贷</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>122101/贷</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>122101/借</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>122102/贷</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>122102/借</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>12210301/贷</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60" t="str">
+            <v>12210301/借</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>12210302/贷</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62" t="str">
+            <v>12210302/借</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63" t="str">
+            <v>12210401/贷</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64" t="str">
+            <v>12210401/借</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65" t="str">
+            <v>12210402/贷</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66" t="str">
+            <v>12210402/借</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67" t="str">
+            <v>122105/贷</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68" t="str">
+            <v>122105/借</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69" t="str">
+            <v>122108/贷</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70" t="str">
+            <v>122108/借</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71" t="str">
+            <v>122125/贷</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72" t="str">
+            <v>122125/借</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73" t="str">
+            <v>224101/贷</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74" t="str">
+            <v>224101/借</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75" t="str">
+            <v>224102/贷</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76" t="str">
+            <v>224102/借</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77" t="str">
+            <v>224103/贷</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78" t="str">
+            <v>224103/借</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79" t="str">
+            <v>224104/贷</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80" t="str">
+            <v>224104/借</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81" t="str">
+            <v>224111/贷</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82" t="str">
+            <v>224111/借</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v>重复明细</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="C90" t="str">
+            <v>应收账款</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="C91" t="str">
+            <v>预收账款</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="C92" t="str">
             <v>其他应收款</v>
           </cell>
         </row>
-        <row r="31">
-          <cell r="C31" t="str">
+        <row r="93">
+          <cell r="C93" t="str">
             <v>其他应付款</v>
           </cell>
         </row>
-        <row r="32">
-          <cell r="C32" t="str">
+        <row r="94">
+          <cell r="C94" t="str">
+            <v>预付账款</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="C95" t="str">
+            <v>应付账款</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="C96" t="str">
             <v>其他应收款</v>
           </cell>
         </row>
-        <row r="33">
-          <cell r="C33" t="str">
+        <row r="97">
+          <cell r="C97" t="str">
             <v>其他应付款</v>
           </cell>
         </row>
@@ -1312,10 +1858,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR85"/>
+  <dimension ref="A1:AR90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1328,85 +1877,85 @@
   <sheetData>
     <row r="1" spans="1:44">
       <c r="A1" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="U1" t="s">
+        <v>114</v>
+      </c>
+      <c r="V1" t="s">
+        <v>115</v>
+      </c>
+      <c r="W1" t="s">
         <v>116</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z1" t="s">
         <v>117</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>118</v>
       </c>
-      <c r="X1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>119</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF1" t="s">
         <v>120</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AG1" t="s">
         <v>121</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN1" t="s">
         <v>132</v>
       </c>
-      <c r="AF1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP1" t="s">
         <v>127</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AQ1" t="s">
         <v>128</v>
       </c>
-      <c r="AN1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>129</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:44">
@@ -1414,24 +1963,24 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
         <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U2" t="e">
         <f>VLOOKUP($A2,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V2" t="str">
-        <f t="shared" ref="V2:V33" si="0">TRIM($B2)</f>
+        <f t="shared" ref="V2:V36" si="0">TRIM($B2)</f>
         <v>货币资金</v>
       </c>
       <c r="W2" t="e">
-        <f t="shared" ref="W2:W33" si="1">_xlfn.IFNA(AE2,AH2)</f>
+        <f t="shared" ref="W2:W36" si="1">_xlfn.IFNA(AE2,AH2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="X2" t="e">
@@ -1443,15 +1992,15 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z2" t="e">
-        <f t="shared" ref="Z2:Z33" si="2">U2&amp;"\"&amp;$C2</f>
+        <f t="shared" ref="Z2:Z36" si="2">U2&amp;"\"&amp;$C2</f>
         <v>#N/A</v>
       </c>
       <c r="AA2">
-        <f t="shared" ref="AA2:AA33" si="3">IF($P2="借",$R2,-$R2)</f>
+        <f t="shared" ref="AA2:AA36" si="3">IF($P2="借",$R2,-$R2)</f>
         <v>0</v>
       </c>
       <c r="AB2">
-        <f t="shared" ref="AB2:AB33" si="4">_xlfn.IFNA(IF(AE2="重复明细",0,AO2),AO2)</f>
+        <f t="shared" ref="AB2:AB36" si="4">_xlfn.IFNA(IF(AE2="重复明细",0,AO2),AO2)</f>
         <v>0</v>
       </c>
       <c r="AE2" t="e">
@@ -1459,15 +2008,15 @@
         <v>#N/A</v>
       </c>
       <c r="AF2" t="e">
-        <f t="shared" ref="AF2:AF33" si="5">FIND("\",$C2)</f>
+        <f t="shared" ref="AF2:AF36" si="5">FIND("\",$C2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AG2">
-        <f t="shared" ref="AG2:AG33" si="6">IFERROR(FIND("\",$C2,AF2+1),1000)</f>
+        <f t="shared" ref="AG2:AG36" si="6">IFERROR(FIND("\",$C2,AF2+1),1000)</f>
         <v>1000</v>
       </c>
       <c r="AH2" t="e">
-        <f t="shared" ref="AH2:AH33" si="7">MID($C2,AF2+1,AG2-AF2-1)</f>
+        <f t="shared" ref="AH2:AH36" si="7">MID($C2,AF2+1,AG2-AF2-1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AI2" t="e">
@@ -1479,7 +2028,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="AK2" t="e">
-        <f t="shared" ref="AK2:AK33" si="8">AI2&amp;"/"&amp;AJ2</f>
+        <f t="shared" ref="AK2:AK36" si="8">AI2&amp;"/"&amp;AJ2</f>
         <v>#N/A</v>
       </c>
       <c r="AL2" t="e">
@@ -1487,7 +2036,7 @@
         <v>#N/A</v>
       </c>
       <c r="AM2" t="e">
-        <f t="shared" ref="AM2:AM33" si="9">ROUND(AA2*AL2,2)</f>
+        <f t="shared" ref="AM2:AM36" si="9">ROUND(AA2*AL2,2)</f>
         <v>#N/A</v>
       </c>
       <c r="AN2" t="e">
@@ -1495,19 +2044,19 @@
         <v>#N/A</v>
       </c>
       <c r="AO2">
-        <f t="shared" ref="AO2:AO33" si="10">IFERROR(_xlfn.IFNA(AM2,AN2),0)</f>
+        <f t="shared" ref="AO2:AO36" si="10">IFERROR(_xlfn.IFNA(AM2,AN2),0)</f>
         <v>0</v>
       </c>
       <c r="AP2" t="e">
-        <f t="shared" ref="AP2:AP33" si="11">FIND("]",AO2)</f>
+        <f t="shared" ref="AP2:AP36" si="11">FIND("]",AO2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AQ2" t="e">
-        <f t="shared" ref="AQ2:AQ33" si="12">FIND("#",AO2)</f>
+        <f t="shared" ref="AQ2:AQ36" si="12">FIND("#",AO2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AR2" t="e">
-        <f t="shared" ref="AR2:AR33" si="13">FIND("#",AO2,AQ2+1)</f>
+        <f t="shared" ref="AR2:AR36" si="13">FIND("#",AO2,AQ2+1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1516,13 +2065,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
         <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U3" t="e">
         <f>VLOOKUP($A3,[1]Basic!$A:$B,2,0)</f>
@@ -1618,13 +2167,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
         <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U4" t="e">
         <f>VLOOKUP($A4,[1]Basic!$A:$B,2,0)</f>
@@ -1726,7 +2275,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U5" t="e">
         <f>VLOOKUP($A5,[1]Basic!$A:$B,2,0)</f>
@@ -1828,7 +2377,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U6" t="e">
         <f>VLOOKUP($A6,[1]Basic!$A:$B,2,0)</f>
@@ -1930,7 +2479,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U7" t="e">
         <f>VLOOKUP($A7,[1]Basic!$A:$B,2,0)</f>
@@ -2023,115 +2572,30 @@
     </row>
     <row r="8" spans="1:44">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
-      </c>
-      <c r="U8" t="e">
-        <f>VLOOKUP($A8,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V8" t="str">
-        <f t="shared" si="0"/>
-        <v>预付款项</v>
-      </c>
-      <c r="W8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X8" t="e">
-        <f>VLOOKUP(W8,科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y8" t="e">
-        <f>VLOOKUP(W8,科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z8" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE8" t="e">
-        <f>VLOOKUP(V8,[2]科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG8">
-        <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="AH8" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI8" t="e">
-        <f>VLOOKUP(U8,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ8" t="e">
-        <f>VLOOKUP(W8,科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK8" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL8" t="e">
-        <f>VLOOKUP(AK8,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM8" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN8" t="e">
-        <f>VLOOKUP(Z8,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AP8" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ8" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR8" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:44">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U9" t="e">
         <f>VLOOKUP($A9,[1]Basic!$A:$B,2,0)</f>
@@ -2139,7 +2603,7 @@
       </c>
       <c r="V9" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>预付款项</v>
       </c>
       <c r="W9" t="e">
         <f t="shared" si="1"/>
@@ -2224,16 +2688,16 @@
     </row>
     <row r="10" spans="1:44">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U10" t="e">
         <f>VLOOKUP($A10,[1]Basic!$A:$B,2,0)</f>
@@ -2241,7 +2705,7 @@
       </c>
       <c r="V10" t="str">
         <f t="shared" si="0"/>
-        <v>应收利息</v>
+        <v>其他应收款</v>
       </c>
       <c r="W10" t="e">
         <f t="shared" si="1"/>
@@ -2326,16 +2790,16 @@
     </row>
     <row r="11" spans="1:44">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U11" t="e">
         <f>VLOOKUP($A11,[1]Basic!$A:$B,2,0)</f>
@@ -2427,17 +2891,17 @@
       </c>
     </row>
     <row r="12" spans="1:44">
-      <c r="A12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U12" t="e">
         <f>VLOOKUP($A12,[1]Basic!$A:$B,2,0)</f>
@@ -2529,17 +2993,17 @@
       </c>
     </row>
     <row r="13" spans="1:44">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" t="s">
-        <v>78</v>
+      <c r="A13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U13" t="e">
         <f>VLOOKUP($A13,[1]Basic!$A:$B,2,0)</f>
@@ -2547,7 +3011,7 @@
       </c>
       <c r="V13" t="str">
         <f t="shared" si="0"/>
-        <v>存货</v>
+        <v>其他应收款</v>
       </c>
       <c r="W13" t="e">
         <f t="shared" si="1"/>
@@ -2632,7 +3096,7 @@
     </row>
     <row r="14" spans="1:44">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>78</v>
@@ -2641,7 +3105,7 @@
         <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U14" t="e">
         <f>VLOOKUP($A14,[1]Basic!$A:$B,2,0)</f>
@@ -2734,7 +3198,7 @@
     </row>
     <row r="15" spans="1:44">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>78</v>
@@ -2743,7 +3207,7 @@
         <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U15" t="e">
         <f>VLOOKUP($A15,[1]Basic!$A:$B,2,0)</f>
@@ -2836,7 +3300,7 @@
     </row>
     <row r="16" spans="1:44">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>78</v>
@@ -2845,7 +3309,7 @@
         <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U16" t="e">
         <f>VLOOKUP($A16,[1]Basic!$A:$B,2,0)</f>
@@ -2938,7 +3402,7 @@
     </row>
     <row r="17" spans="1:44">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s">
         <v>78</v>
@@ -2947,100 +3411,12 @@
         <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
-      </c>
-      <c r="U17" t="e">
-        <f>VLOOKUP($A17,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V17" t="str">
-        <f t="shared" si="0"/>
-        <v>存货</v>
-      </c>
-      <c r="W17" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X17" t="e">
-        <f>VLOOKUP(W17,科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y17" t="e">
-        <f>VLOOKUP(W17,科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z17" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE17" t="e">
-        <f>VLOOKUP(V17,[2]科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF17" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG17">
-        <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="AH17" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI17" t="e">
-        <f>VLOOKUP(U17,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ17" t="e">
-        <f>VLOOKUP(W17,科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK17" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL17" t="e">
-        <f>VLOOKUP(AK17,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM17" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN17" t="e">
-        <f>VLOOKUP(Z17,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AP17" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ17" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR17" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:44">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>78</v>
@@ -3049,7 +3425,7 @@
         <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U18" t="e">
         <f>VLOOKUP($A18,[1]Basic!$A:$B,2,0)</f>
@@ -3142,7 +3518,7 @@
     </row>
     <row r="19" spans="1:44">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>78</v>
@@ -3151,7 +3527,7 @@
         <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U19" t="e">
         <f>VLOOKUP($A19,[1]Basic!$A:$B,2,0)</f>
@@ -3244,7 +3620,7 @@
     </row>
     <row r="20" spans="1:44">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>78</v>
@@ -3253,7 +3629,7 @@
         <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U20" t="e">
         <f>VLOOKUP($A20,[1]Basic!$A:$B,2,0)</f>
@@ -3346,7 +3722,7 @@
     </row>
     <row r="21" spans="1:44">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>78</v>
@@ -3355,7 +3731,7 @@
         <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U21" t="e">
         <f>VLOOKUP($A21,[1]Basic!$A:$B,2,0)</f>
@@ -3448,16 +3824,16 @@
     </row>
     <row r="22" spans="1:44">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>81</v>
+      <c r="C22" t="s">
+        <v>78</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U22" t="e">
         <f>VLOOKUP($A22,[1]Basic!$A:$B,2,0)</f>
@@ -3550,16 +3926,16 @@
     </row>
     <row r="23" spans="1:44">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U23" t="e">
         <f>VLOOKUP($A23,[1]Basic!$A:$B,2,0)</f>
@@ -3567,7 +3943,7 @@
       </c>
       <c r="V23" t="str">
         <f t="shared" si="0"/>
-        <v>持有至到期投资</v>
+        <v>存货</v>
       </c>
       <c r="W23" t="e">
         <f t="shared" si="1"/>
@@ -3652,16 +4028,16 @@
     </row>
     <row r="24" spans="1:44">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
+        <v>78</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U24" t="e">
         <f>VLOOKUP($A24,[1]Basic!$A:$B,2,0)</f>
@@ -3669,7 +4045,7 @@
       </c>
       <c r="V24" t="str">
         <f t="shared" si="0"/>
-        <v>持有至到期投资</v>
+        <v>存货</v>
       </c>
       <c r="W24" t="e">
         <f t="shared" si="1"/>
@@ -3754,16 +4130,16 @@
     </row>
     <row r="25" spans="1:44">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U25" t="e">
         <f>VLOOKUP($A25,[1]Basic!$A:$B,2,0)</f>
@@ -3771,7 +4147,7 @@
       </c>
       <c r="V25" t="str">
         <f t="shared" si="0"/>
-        <v>可供出售金融资产</v>
+        <v>持有至到期投资</v>
       </c>
       <c r="W25" t="e">
         <f t="shared" si="1"/>
@@ -3856,16 +4232,16 @@
     </row>
     <row r="26" spans="1:44">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U26" t="e">
         <f>VLOOKUP($A26,[1]Basic!$A:$B,2,0)</f>
@@ -3873,7 +4249,7 @@
       </c>
       <c r="V26" t="str">
         <f t="shared" si="0"/>
-        <v>长期股权投资</v>
+        <v>持有至到期投资</v>
       </c>
       <c r="W26" t="e">
         <f t="shared" si="1"/>
@@ -3958,16 +4334,16 @@
     </row>
     <row r="27" spans="1:44">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U27" t="e">
         <f>VLOOKUP($A27,[1]Basic!$A:$B,2,0)</f>
@@ -3975,7 +4351,7 @@
       </c>
       <c r="V27" t="str">
         <f t="shared" si="0"/>
-        <v>长期股权投资</v>
+        <v>其他权益工具投资</v>
       </c>
       <c r="W27" t="e">
         <f t="shared" si="1"/>
@@ -4060,16 +4436,16 @@
     </row>
     <row r="28" spans="1:44">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U28" t="e">
         <f>VLOOKUP($A28,[1]Basic!$A:$B,2,0)</f>
@@ -4077,7 +4453,7 @@
       </c>
       <c r="V28" t="str">
         <f t="shared" si="0"/>
-        <v>长期应收款</v>
+        <v>长期股权投资</v>
       </c>
       <c r="W28" t="e">
         <f t="shared" si="1"/>
@@ -4161,17 +4537,17 @@
       </c>
     </row>
     <row r="29" spans="1:44">
-      <c r="A29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>105</v>
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U29" t="e">
         <f>VLOOKUP($A29,[1]Basic!$A:$B,2,0)</f>
@@ -4179,7 +4555,7 @@
       </c>
       <c r="V29" t="str">
         <f t="shared" si="0"/>
-        <v>使用权资产</v>
+        <v>长期股权投资</v>
       </c>
       <c r="W29" t="e">
         <f t="shared" si="1"/>
@@ -4264,118 +4640,30 @@
     </row>
     <row r="30" spans="1:44">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
-      </c>
-      <c r="U30" t="e">
-        <f>VLOOKUP($A30,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V30" t="str">
-        <f t="shared" si="0"/>
-        <v>固定资产</v>
-      </c>
-      <c r="W30" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X30" t="e">
-        <f>VLOOKUP(W30,科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y30" t="e">
-        <f>VLOOKUP(W30,科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z30" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE30" t="e">
-        <f>VLOOKUP(V30,[2]科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF30" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG30">
-        <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="AH30" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI30" t="e">
-        <f>VLOOKUP(U30,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ30" t="e">
-        <f>VLOOKUP(W30,科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK30" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL30" t="e">
-        <f>VLOOKUP(AK30,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM30" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN30" t="e">
-        <f>VLOOKUP(Z30,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO30">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AP30" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ30" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR30" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:44">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>82</v>
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U31" t="e">
         <f>VLOOKUP($A31,[1]Basic!$A:$B,2,0)</f>
@@ -4383,7 +4671,7 @@
       </c>
       <c r="V31" t="str">
         <f t="shared" si="0"/>
-        <v>固定资产</v>
+        <v>长期应收款</v>
       </c>
       <c r="W31" t="e">
         <f t="shared" si="1"/>
@@ -4467,17 +4755,17 @@
       </c>
     </row>
     <row r="32" spans="1:44">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" t="s">
-        <v>28</v>
+      <c r="A32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U32" t="e">
         <f>VLOOKUP($A32,[1]Basic!$A:$B,2,0)</f>
@@ -4485,7 +4773,7 @@
       </c>
       <c r="V32" t="str">
         <f t="shared" si="0"/>
-        <v>固定资产</v>
+        <v>使用权资产</v>
       </c>
       <c r="W32" t="e">
         <f t="shared" si="1"/>
@@ -4570,16 +4858,16 @@
     </row>
     <row r="33" spans="1:44">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U33" t="e">
         <f>VLOOKUP($A33,[1]Basic!$A:$B,2,0)</f>
@@ -4587,7 +4875,7 @@
       </c>
       <c r="V33" t="str">
         <f t="shared" si="0"/>
-        <v>在建工程</v>
+        <v>固定资产</v>
       </c>
       <c r="W33" t="e">
         <f t="shared" si="1"/>
@@ -4672,27 +4960,27 @@
     </row>
     <row r="34" spans="1:44">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U34" t="e">
         <f>VLOOKUP($A34,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V34" t="str">
-        <f t="shared" ref="V34:V65" si="14">TRIM($B34)</f>
-        <v>工程物资</v>
+        <f t="shared" si="0"/>
+        <v>固定资产</v>
       </c>
       <c r="W34" t="e">
-        <f t="shared" ref="W34:W65" si="15">_xlfn.IFNA(AE34,AH34)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="X34" t="e">
@@ -4704,15 +4992,15 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z34" t="e">
-        <f t="shared" ref="Z34:Z65" si="16">U34&amp;"\"&amp;$C34</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AA34">
-        <f t="shared" ref="AA34:AA65" si="17">IF($P34="借",$R34,-$R34)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB34">
-        <f t="shared" ref="AB34:AB65" si="18">_xlfn.IFNA(IF(AE34="重复明细",0,AO34),AO34)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE34" t="e">
@@ -4720,15 +5008,15 @@
         <v>#N/A</v>
       </c>
       <c r="AF34" t="e">
-        <f t="shared" ref="AF34:AF65" si="19">FIND("\",$C34)</f>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG34">
-        <f t="shared" ref="AG34:AG65" si="20">IFERROR(FIND("\",$C34,AF34+1),1000)</f>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="AH34" t="e">
-        <f t="shared" ref="AH34:AH65" si="21">MID($C34,AF34+1,AG34-AF34-1)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AI34" t="e">
@@ -4740,7 +5028,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="AK34" t="e">
-        <f t="shared" ref="AK34:AK65" si="22">AI34&amp;"/"&amp;AJ34</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AL34" t="e">
@@ -4748,7 +5036,7 @@
         <v>#N/A</v>
       </c>
       <c r="AM34" t="e">
-        <f t="shared" ref="AM34:AM65" si="23">ROUND(AA34*AL34,2)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="AN34" t="e">
@@ -4756,45 +5044,45 @@
         <v>#N/A</v>
       </c>
       <c r="AO34">
-        <f t="shared" ref="AO34:AO65" si="24">IFERROR(_xlfn.IFNA(AM34,AN34),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AP34" t="e">
-        <f t="shared" ref="AP34:AP65" si="25">FIND("]",AO34)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="AQ34" t="e">
-        <f t="shared" ref="AQ34:AQ65" si="26">FIND("#",AO34)</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR34" t="e">
-        <f t="shared" ref="AR34:AR65" si="27">FIND("#",AO34,AQ34+1)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="35" spans="1:44">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U35" t="e">
         <f>VLOOKUP($A35,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V35" t="str">
-        <f t="shared" si="14"/>
-        <v>固定资产清理</v>
+        <f t="shared" si="0"/>
+        <v>固定资产</v>
       </c>
       <c r="W35" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="X35" t="e">
@@ -4806,15 +5094,15 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z35" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE35" t="e">
@@ -4822,15 +5110,15 @@
         <v>#N/A</v>
       </c>
       <c r="AF35" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="AH35" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AI35" t="e">
@@ -4842,7 +5130,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="AK35" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AL35" t="e">
@@ -4850,7 +5138,7 @@
         <v>#N/A</v>
       </c>
       <c r="AM35" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="AN35" t="e">
@@ -4858,45 +5146,45 @@
         <v>#N/A</v>
       </c>
       <c r="AO35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AP35" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="AQ35" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR35" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="1:44">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U36" t="e">
         <f>VLOOKUP($A36,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V36" t="str">
-        <f t="shared" si="14"/>
-        <v>无形资产</v>
+        <f t="shared" si="0"/>
+        <v>在建工程</v>
       </c>
       <c r="W36" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="X36" t="e">
@@ -4908,15 +5196,15 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z36" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE36" t="e">
@@ -4924,15 +5212,15 @@
         <v>#N/A</v>
       </c>
       <c r="AF36" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="AH36" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AI36" t="e">
@@ -4944,7 +5232,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="AK36" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AL36" t="e">
@@ -4952,7 +5240,7 @@
         <v>#N/A</v>
       </c>
       <c r="AM36" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="AN36" t="e">
@@ -4960,45 +5248,45 @@
         <v>#N/A</v>
       </c>
       <c r="AO36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AP36" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="AQ36" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR36" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="1:44">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U37" t="e">
         <f>VLOOKUP($A37,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V37" t="str">
-        <f t="shared" si="14"/>
-        <v>无形资产</v>
+        <f t="shared" ref="V37:V66" si="14">TRIM($B37)</f>
+        <v>工程物资</v>
       </c>
       <c r="W37" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="W37:W66" si="15">_xlfn.IFNA(AE37,AH37)</f>
         <v>#VALUE!</v>
       </c>
       <c r="X37" t="e">
@@ -5010,15 +5298,15 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z37" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="Z37:Z66" si="16">U37&amp;"\"&amp;$C37</f>
         <v>#N/A</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="AA37:AA66" si="17">IF($P37="借",$R37,-$R37)</f>
         <v>0</v>
       </c>
       <c r="AB37">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="AB37:AB66" si="18">_xlfn.IFNA(IF(AE37="重复明细",0,AO37),AO37)</f>
         <v>0</v>
       </c>
       <c r="AE37" t="e">
@@ -5026,15 +5314,15 @@
         <v>#N/A</v>
       </c>
       <c r="AF37" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="AF37:AF66" si="19">FIND("\",$C37)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AG37">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="AG37:AG66" si="20">IFERROR(FIND("\",$C37,AF37+1),1000)</f>
         <v>1000</v>
       </c>
       <c r="AH37" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="AH37:AH66" si="21">MID($C37,AF37+1,AG37-AF37-1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AI37" t="e">
@@ -5046,7 +5334,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="AK37" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="AK37:AK66" si="22">AI37&amp;"/"&amp;AJ37</f>
         <v>#N/A</v>
       </c>
       <c r="AL37" t="e">
@@ -5054,7 +5342,7 @@
         <v>#N/A</v>
       </c>
       <c r="AM37" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="AM37:AM66" si="23">ROUND(AA37*AL37,2)</f>
         <v>#N/A</v>
       </c>
       <c r="AN37" t="e">
@@ -5062,34 +5350,34 @@
         <v>#N/A</v>
       </c>
       <c r="AO37">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="AO37:AO66" si="24">IFERROR(_xlfn.IFNA(AM37,AN37),0)</f>
         <v>0</v>
       </c>
       <c r="AP37" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="AP37:AP66" si="25">FIND("]",AO37)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AQ37" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="AQ37:AQ66" si="26">FIND("#",AO37)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AR37" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="AR37:AR66" si="27">FIND("#",AO37,AQ37+1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="1:44">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U38" t="e">
         <f>VLOOKUP($A38,[1]Basic!$A:$B,2,0)</f>
@@ -5097,7 +5385,7 @@
       </c>
       <c r="V38" t="str">
         <f t="shared" si="14"/>
-        <v>无形资产</v>
+        <v>固定资产清理</v>
       </c>
       <c r="W38" t="e">
         <f t="shared" si="15"/>
@@ -5182,16 +5470,16 @@
     </row>
     <row r="39" spans="1:44">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U39" t="e">
         <f>VLOOKUP($A39,[1]Basic!$A:$B,2,0)</f>
@@ -5199,7 +5487,7 @@
       </c>
       <c r="V39" t="str">
         <f t="shared" si="14"/>
-        <v>商誉</v>
+        <v>无形资产</v>
       </c>
       <c r="W39" t="e">
         <f t="shared" si="15"/>
@@ -5284,16 +5572,16 @@
     </row>
     <row r="40" spans="1:44">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U40" t="e">
         <f>VLOOKUP($A40,[1]Basic!$A:$B,2,0)</f>
@@ -5301,7 +5589,7 @@
       </c>
       <c r="V40" t="str">
         <f t="shared" si="14"/>
-        <v>长期待摊费用</v>
+        <v>无形资产</v>
       </c>
       <c r="W40" t="e">
         <f t="shared" si="15"/>
@@ -5386,16 +5674,16 @@
     </row>
     <row r="41" spans="1:44">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U41" t="e">
         <f>VLOOKUP($A41,[1]Basic!$A:$B,2,0)</f>
@@ -5403,7 +5691,7 @@
       </c>
       <c r="V41" t="str">
         <f t="shared" si="14"/>
-        <v>递延所得税资产</v>
+        <v>无形资产</v>
       </c>
       <c r="W41" t="e">
         <f t="shared" si="15"/>
@@ -5488,16 +5776,16 @@
     </row>
     <row r="42" spans="1:44">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U42" t="e">
         <f>VLOOKUP($A42,[1]Basic!$A:$B,2,0)</f>
@@ -5505,7 +5793,7 @@
       </c>
       <c r="V42" t="str">
         <f t="shared" si="14"/>
-        <v>短期借款</v>
+        <v>商誉</v>
       </c>
       <c r="W42" t="e">
         <f t="shared" si="15"/>
@@ -5590,16 +5878,16 @@
     </row>
     <row r="43" spans="1:44">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U43" t="e">
         <f>VLOOKUP($A43,[1]Basic!$A:$B,2,0)</f>
@@ -5607,7 +5895,7 @@
       </c>
       <c r="V43" t="str">
         <f t="shared" si="14"/>
-        <v>应付票据</v>
+        <v>长期待摊费用</v>
       </c>
       <c r="W43" t="e">
         <f t="shared" si="15"/>
@@ -5692,16 +5980,16 @@
     </row>
     <row r="44" spans="1:44">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D44" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U44" t="e">
         <f>VLOOKUP($A44,[1]Basic!$A:$B,2,0)</f>
@@ -5709,7 +5997,7 @@
       </c>
       <c r="V44" t="str">
         <f t="shared" si="14"/>
-        <v>应付账款</v>
+        <v>递延所得税资产</v>
       </c>
       <c r="W44" t="e">
         <f t="shared" si="15"/>
@@ -5794,16 +6082,16 @@
     </row>
     <row r="45" spans="1:44">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U45" t="e">
         <f>VLOOKUP($A45,[1]Basic!$A:$B,2,0)</f>
@@ -5811,7 +6099,7 @@
       </c>
       <c r="V45" t="str">
         <f t="shared" si="14"/>
-        <v>预收款项</v>
+        <v>短期借款</v>
       </c>
       <c r="W45" t="e">
         <f t="shared" si="15"/>
@@ -5896,16 +6184,16 @@
     </row>
     <row r="46" spans="1:44">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U46" t="e">
         <f>VLOOKUP($A46,[1]Basic!$A:$B,2,0)</f>
@@ -5913,7 +6201,7 @@
       </c>
       <c r="V46" t="str">
         <f t="shared" si="14"/>
-        <v>应付职工薪酬</v>
+        <v>应付票据</v>
       </c>
       <c r="W46" t="e">
         <f t="shared" si="15"/>
@@ -5998,16 +6286,16 @@
     </row>
     <row r="47" spans="1:44">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U47" t="e">
         <f>VLOOKUP($A47,[1]Basic!$A:$B,2,0)</f>
@@ -6015,7 +6303,7 @@
       </c>
       <c r="V47" t="str">
         <f t="shared" si="14"/>
-        <v>应交税费</v>
+        <v>应付账款</v>
       </c>
       <c r="W47" t="e">
         <f t="shared" si="15"/>
@@ -6100,16 +6388,16 @@
     </row>
     <row r="48" spans="1:44">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>46</v>
+        <v>79</v>
+      </c>
+      <c r="C48" t="s">
+        <v>79</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U48" t="e">
         <f>VLOOKUP($A48,[1]Basic!$A:$B,2,0)</f>
@@ -6117,7 +6405,7 @@
       </c>
       <c r="V48" t="str">
         <f t="shared" si="14"/>
-        <v>应付利息</v>
+        <v>预收款项</v>
       </c>
       <c r="W48" t="e">
         <f t="shared" si="15"/>
@@ -6202,13 +6490,16 @@
     </row>
     <row r="49" spans="1:44">
       <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
+        <v>44</v>
       </c>
       <c r="D49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U49" t="e">
         <f>VLOOKUP($A49,[1]Basic!$A:$B,2,0)</f>
@@ -6216,7 +6507,7 @@
       </c>
       <c r="V49" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>应付职工薪酬</v>
       </c>
       <c r="W49" t="e">
         <f t="shared" si="15"/>
@@ -6301,16 +6592,16 @@
     </row>
     <row r="50" spans="1:44">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U50" t="e">
         <f>VLOOKUP($A50,[1]Basic!$A:$B,2,0)</f>
@@ -6318,7 +6609,7 @@
       </c>
       <c r="V50" t="str">
         <f t="shared" si="14"/>
-        <v>其他应付款</v>
+        <v>应交税费</v>
       </c>
       <c r="W50" t="e">
         <f t="shared" si="15"/>
@@ -6403,13 +6694,16 @@
     </row>
     <row r="51" spans="1:44">
       <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>84</v>
+        <v>46</v>
+      </c>
+      <c r="B51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="D51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U51" t="e">
         <f>VLOOKUP($A51,[1]Basic!$A:$B,2,0)</f>
@@ -6417,7 +6711,7 @@
       </c>
       <c r="V51" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>应付利息</v>
       </c>
       <c r="W51" t="e">
         <f t="shared" si="15"/>
@@ -6501,17 +6795,17 @@
       </c>
     </row>
     <row r="52" spans="1:44">
-      <c r="A52" s="1" t="s">
-        <v>106</v>
+      <c r="A52" t="s">
+        <v>47</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>106</v>
+        <v>142</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U52" t="e">
         <f>VLOOKUP($A52,[1]Basic!$A:$B,2,0)</f>
@@ -6519,7 +6813,7 @@
       </c>
       <c r="V52" t="str">
         <f t="shared" si="14"/>
-        <v>租赁负债</v>
+        <v>其他应付款</v>
       </c>
       <c r="W52" t="e">
         <f t="shared" si="15"/>
@@ -6604,16 +6898,16 @@
     </row>
     <row r="53" spans="1:44">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U53" t="e">
         <f>VLOOKUP($A53,[1]Basic!$A:$B,2,0)</f>
@@ -6621,7 +6915,7 @@
       </c>
       <c r="V53" t="str">
         <f t="shared" si="14"/>
-        <v>长期借款</v>
+        <v>其他应付款</v>
       </c>
       <c r="W53" t="e">
         <f t="shared" si="15"/>
@@ -6706,16 +7000,13 @@
     </row>
     <row r="54" spans="1:44">
       <c r="A54" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="D54" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U54" t="e">
         <f>VLOOKUP($A54,[1]Basic!$A:$B,2,0)</f>
@@ -6723,7 +7014,7 @@
       </c>
       <c r="V54" t="str">
         <f t="shared" si="14"/>
-        <v>长期应付款</v>
+        <v/>
       </c>
       <c r="W54" t="e">
         <f t="shared" si="15"/>
@@ -6807,17 +7098,17 @@
       </c>
     </row>
     <row r="55" spans="1:44">
-      <c r="A55" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" t="s">
-        <v>52</v>
+      <c r="A55" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U55" t="e">
         <f>VLOOKUP($A55,[1]Basic!$A:$B,2,0)</f>
@@ -6825,7 +7116,7 @@
       </c>
       <c r="V55" t="str">
         <f t="shared" si="14"/>
-        <v>预计负债</v>
+        <v>租赁负债</v>
       </c>
       <c r="W55" t="e">
         <f t="shared" si="15"/>
@@ -6910,16 +7201,16 @@
     </row>
     <row r="56" spans="1:44">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C56" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U56" t="e">
         <f>VLOOKUP($A56,[1]Basic!$A:$B,2,0)</f>
@@ -6927,7 +7218,7 @@
       </c>
       <c r="V56" t="str">
         <f t="shared" si="14"/>
-        <v>递延所得税负债</v>
+        <v>长期借款</v>
       </c>
       <c r="W56" t="e">
         <f t="shared" si="15"/>
@@ -7012,16 +7303,16 @@
     </row>
     <row r="57" spans="1:44">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>97</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="C57" t="s">
+        <v>51</v>
       </c>
       <c r="D57" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="U57" t="e">
         <f>VLOOKUP($A57,[1]Basic!$A:$B,2,0)</f>
@@ -7029,7 +7320,7 @@
       </c>
       <c r="V57" t="str">
         <f t="shared" si="14"/>
-        <v>实收资本（或股本）</v>
+        <v>长期应付款</v>
       </c>
       <c r="W57" t="e">
         <f t="shared" si="15"/>
@@ -7114,16 +7405,16 @@
     </row>
     <row r="58" spans="1:44">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D58" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="U58" t="e">
         <f>VLOOKUP($A58,[1]Basic!$A:$B,2,0)</f>
@@ -7131,7 +7422,7 @@
       </c>
       <c r="V58" t="str">
         <f t="shared" si="14"/>
-        <v>资本公积</v>
+        <v>预计负债</v>
       </c>
       <c r="W58" t="e">
         <f t="shared" si="15"/>
@@ -7216,16 +7507,16 @@
     </row>
     <row r="59" spans="1:44">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C59" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="U59" t="e">
         <f>VLOOKUP($A59,[1]Basic!$A:$B,2,0)</f>
@@ -7233,7 +7524,7 @@
       </c>
       <c r="V59" t="str">
         <f t="shared" si="14"/>
-        <v>盈余公积</v>
+        <v>递延所得税负债</v>
       </c>
       <c r="W59" t="e">
         <f t="shared" si="15"/>
@@ -7318,13 +7609,16 @@
     </row>
     <row r="60" spans="1:44">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="B60" t="s">
+        <v>95</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="U60" t="e">
         <f>VLOOKUP($A60,[1]Basic!$A:$B,2,0)</f>
@@ -7332,7 +7626,7 @@
       </c>
       <c r="V60" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>实收资本（或股本）</v>
       </c>
       <c r="W60" t="e">
         <f t="shared" si="15"/>
@@ -7417,13 +7711,16 @@
     </row>
     <row r="61" spans="1:44">
       <c r="A61" t="s">
-        <v>58</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" t="s">
+        <v>55</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U61" t="e">
         <f>VLOOKUP($A61,[1]Basic!$A:$B,2,0)</f>
@@ -7431,7 +7728,7 @@
       </c>
       <c r="V61" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>资本公积</v>
       </c>
       <c r="W61" t="e">
         <f t="shared" si="15"/>
@@ -7516,16 +7813,16 @@
     </row>
     <row r="62" spans="1:44">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="C62" t="s">
+        <v>56</v>
       </c>
       <c r="D62" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U62" t="e">
         <f>VLOOKUP($A62,[1]Basic!$A:$B,2,0)</f>
@@ -7533,7 +7830,7 @@
       </c>
       <c r="V62" t="str">
         <f t="shared" si="14"/>
-        <v>减：库存股</v>
+        <v>盈余公积</v>
       </c>
       <c r="W62" t="e">
         <f t="shared" si="15"/>
@@ -7617,17 +7914,17 @@
       </c>
     </row>
     <row r="63" spans="1:44">
-      <c r="A63" s="1" t="s">
-        <v>107</v>
+      <c r="A63" t="s">
+        <v>58</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U63" t="e">
         <f>VLOOKUP($A63,[1]Basic!$A:$B,2,0)</f>
@@ -7635,7 +7932,7 @@
       </c>
       <c r="V63" t="str">
         <f t="shared" si="14"/>
-        <v>其他综合收益</v>
+        <v>年初未分配利润（调整后）</v>
       </c>
       <c r="W63" t="e">
         <f t="shared" si="15"/>
@@ -7720,11 +8017,16 @@
     </row>
     <row r="64" spans="1:44">
       <c r="A64" t="s">
-        <v>94</v>
-      </c>
-      <c r="C64" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="B64" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="D64" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="U64" t="e">
         <f>VLOOKUP($A64,[1]Basic!$A:$B,2,0)</f>
@@ -7732,7 +8034,7 @@
       </c>
       <c r="V64" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>减：库存股</v>
       </c>
       <c r="W64" t="e">
         <f t="shared" si="15"/>
@@ -7816,17 +8118,17 @@
       </c>
     </row>
     <row r="65" spans="1:44">
-      <c r="A65" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" t="s">
-        <v>98</v>
+      <c r="A65" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="D65" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="U65" t="e">
         <f>VLOOKUP($A65,[1]Basic!$A:$B,2,0)</f>
@@ -7834,7 +8136,7 @@
       </c>
       <c r="V65" t="str">
         <f t="shared" si="14"/>
-        <v>营业收入</v>
+        <v>其他综合收益</v>
       </c>
       <c r="W65" t="e">
         <f t="shared" si="15"/>
@@ -7919,27 +8221,27 @@
     </row>
     <row r="66" spans="1:44">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D66" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="U66" t="e">
         <f>VLOOKUP($A66,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V66" t="str">
-        <f t="shared" ref="V66:V85" si="28">TRIM($B66)</f>
-        <v>利息收入</v>
+        <f t="shared" si="14"/>
+        <v>营业收入</v>
       </c>
       <c r="W66" t="e">
-        <f t="shared" ref="W66:W85" si="29">_xlfn.IFNA(AE66,AH66)</f>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
       <c r="X66" t="e">
@@ -7951,15 +8253,15 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z66" t="e">
-        <f t="shared" ref="Z66:Z85" si="30">U66&amp;"\"&amp;$C66</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="AA66">
-        <f t="shared" ref="AA66:AA85" si="31">IF($P66="借",$R66,-$R66)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AB66">
-        <f t="shared" ref="AB66:AB85" si="32">_xlfn.IFNA(IF(AE66="重复明细",0,AO66),AO66)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE66" t="e">
@@ -7967,15 +8269,15 @@
         <v>#N/A</v>
       </c>
       <c r="AF66" t="e">
-        <f t="shared" ref="AF66:AF85" si="33">FIND("\",$C66)</f>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG66">
-        <f t="shared" ref="AG66:AG97" si="34">IFERROR(FIND("\",$C66,AF66+1),1000)</f>
+        <f t="shared" si="20"/>
         <v>1000</v>
       </c>
       <c r="AH66" t="e">
-        <f t="shared" ref="AH66:AH97" si="35">MID($C66,AF66+1,AG66-AF66-1)</f>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="AI66" t="e">
@@ -7987,7 +8289,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="AK66" t="e">
-        <f t="shared" ref="AK66:AK97" si="36">AI66&amp;"/"&amp;AJ66</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="AL66" t="e">
@@ -7995,7 +8297,7 @@
         <v>#N/A</v>
       </c>
       <c r="AM66" t="e">
-        <f t="shared" ref="AM66:AM97" si="37">ROUND(AA66*AL66,2)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="AN66" t="e">
@@ -8003,45 +8305,45 @@
         <v>#N/A</v>
       </c>
       <c r="AO66">
-        <f t="shared" ref="AO66:AO97" si="38">IFERROR(_xlfn.IFNA(AM66,AN66),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AP66" t="e">
-        <f t="shared" ref="AP66:AP85" si="39">FIND("]",AO66)</f>
+        <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
       <c r="AQ66" t="e">
-        <f t="shared" ref="AQ66:AQ85" si="40">FIND("#",AO66)</f>
+        <f t="shared" si="26"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR66" t="e">
-        <f t="shared" ref="AR66:AR85" si="41">FIND("#",AO66,AQ66+1)</f>
+        <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="67" spans="1:44">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D67" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="U67" t="e">
         <f>VLOOKUP($A67,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V67" t="str">
-        <f t="shared" si="28"/>
-        <v>其他业务收入</v>
+        <f t="shared" ref="V67:V88" si="28">TRIM($B67)</f>
+        <v>利息收入</v>
       </c>
       <c r="W67" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="W67:W88" si="29">_xlfn.IFNA(AE67,AH67)</f>
         <v>#VALUE!</v>
       </c>
       <c r="X67" t="e">
@@ -8053,15 +8355,15 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z67" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="Z67:Z88" si="30">U67&amp;"\"&amp;$C67</f>
         <v>#N/A</v>
       </c>
       <c r="AA67">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="AA67:AA88" si="31">IF($P67="借",$R67,-$R67)</f>
         <v>0</v>
       </c>
       <c r="AB67">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="AB67:AB88" si="32">_xlfn.IFNA(IF(AE67="重复明细",0,AO67),AO67)</f>
         <v>0</v>
       </c>
       <c r="AE67" t="e">
@@ -8069,15 +8371,15 @@
         <v>#N/A</v>
       </c>
       <c r="AF67" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="AF67:AF88" si="33">FIND("\",$C67)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AG67">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="AG67:AG88" si="34">IFERROR(FIND("\",$C67,AF67+1),1000)</f>
         <v>1000</v>
       </c>
       <c r="AH67" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="AH67:AH88" si="35">MID($C67,AF67+1,AG67-AF67-1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AI67" t="e">
@@ -8089,7 +8391,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="AK67" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="AK67:AK88" si="36">AI67&amp;"/"&amp;AJ67</f>
         <v>#N/A</v>
       </c>
       <c r="AL67" t="e">
@@ -8097,7 +8399,7 @@
         <v>#N/A</v>
       </c>
       <c r="AM67" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="AM67:AM88" si="37">ROUND(AA67*AL67,2)</f>
         <v>#N/A</v>
       </c>
       <c r="AN67" t="e">
@@ -8105,34 +8407,34 @@
         <v>#N/A</v>
       </c>
       <c r="AO67">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="AO67:AO88" si="38">IFERROR(_xlfn.IFNA(AM67,AN67),0)</f>
         <v>0</v>
       </c>
       <c r="AP67" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="AP67:AP88" si="39">FIND("]",AO67)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AQ67" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="AQ67:AQ88" si="40">FIND("#",AO67)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AR67" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="AR67:AR88" si="41">FIND("#",AO67,AQ67+1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="68" spans="1:44">
       <c r="A68" t="s">
-        <v>63</v>
-      </c>
-      <c r="B68" t="s">
-        <v>99</v>
+        <v>62</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D68" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="U68" t="e">
         <f>VLOOKUP($A68,[1]Basic!$A:$B,2,0)</f>
@@ -8140,7 +8442,7 @@
       </c>
       <c r="V68" t="str">
         <f t="shared" si="28"/>
-        <v>汇兑收益（损失以“-”号填列）</v>
+        <v>营业收入</v>
       </c>
       <c r="W68" t="e">
         <f t="shared" si="29"/>
@@ -8225,16 +8527,16 @@
     </row>
     <row r="69" spans="1:44">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D69" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="U69" t="e">
         <f>VLOOKUP($A69,[1]Basic!$A:$B,2,0)</f>
@@ -8242,7 +8544,7 @@
       </c>
       <c r="V69" t="str">
         <f t="shared" si="28"/>
-        <v>公允价值变动收益（损失以“-”号填列）</v>
+        <v>汇兑收益（损失以“-”号填列）</v>
       </c>
       <c r="W69" t="e">
         <f t="shared" si="29"/>
@@ -8327,16 +8629,16 @@
     </row>
     <row r="70" spans="1:44">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D70" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="U70" t="e">
         <f>VLOOKUP($A70,[1]Basic!$A:$B,2,0)</f>
@@ -8344,7 +8646,7 @@
       </c>
       <c r="V70" t="str">
         <f t="shared" si="28"/>
-        <v>投资收益（损失以“-”号填列）</v>
+        <v>公允价值变动收益（损失以“-”号填列）</v>
       </c>
       <c r="W70" t="e">
         <f t="shared" si="29"/>
@@ -8429,16 +8731,16 @@
     </row>
     <row r="71" spans="1:44">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D71" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="U71" t="e">
         <f>VLOOKUP($A71,[1]Basic!$A:$B,2,0)</f>
@@ -8446,7 +8748,7 @@
       </c>
       <c r="V71" t="str">
         <f t="shared" si="28"/>
-        <v>营业外收入</v>
+        <v>投资收益（损失以“-”号填列）</v>
       </c>
       <c r="W71" t="e">
         <f t="shared" si="29"/>
@@ -8531,16 +8833,16 @@
     </row>
     <row r="72" spans="1:44">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D72" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="U72" t="e">
         <f>VLOOKUP($A72,[1]Basic!$A:$B,2,0)</f>
@@ -8548,7 +8850,7 @@
       </c>
       <c r="V72" t="str">
         <f t="shared" si="28"/>
-        <v>营业成本</v>
+        <v>营业外收入</v>
       </c>
       <c r="W72" t="e">
         <f t="shared" si="29"/>
@@ -8633,13 +8935,16 @@
     </row>
     <row r="73" spans="1:44">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="B73" t="s">
+        <v>100</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D73" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="U73" t="e">
         <f>VLOOKUP($A73,[1]Basic!$A:$B,2,0)</f>
@@ -8647,7 +8952,7 @@
       </c>
       <c r="V73" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>营业成本</v>
       </c>
       <c r="W73" t="e">
         <f t="shared" si="29"/>
@@ -8732,16 +9037,16 @@
     </row>
     <row r="74" spans="1:44">
       <c r="A74" t="s">
-        <v>69</v>
-      </c>
-      <c r="B74" t="s">
-        <v>69</v>
-      </c>
-      <c r="C74" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D74" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="U74" t="e">
         <f>VLOOKUP($A74,[1]Basic!$A:$B,2,0)</f>
@@ -8749,7 +9054,7 @@
       </c>
       <c r="V74" t="str">
         <f t="shared" si="28"/>
-        <v>营业税金及附加</v>
+        <v>营业成本</v>
       </c>
       <c r="W74" t="e">
         <f t="shared" si="29"/>
@@ -8834,16 +9139,16 @@
     </row>
     <row r="75" spans="1:44">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75" t="s">
-        <v>70</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="C75" t="s">
+        <v>69</v>
       </c>
       <c r="D75" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="U75" t="e">
         <f>VLOOKUP($A75,[1]Basic!$A:$B,2,0)</f>
@@ -8851,7 +9156,7 @@
       </c>
       <c r="V75" t="str">
         <f t="shared" si="28"/>
-        <v>利息支出</v>
+        <v>营业税金及附加</v>
       </c>
       <c r="W75" t="e">
         <f t="shared" si="29"/>
@@ -8936,16 +9241,16 @@
     </row>
     <row r="76" spans="1:44">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D76" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="U76" t="e">
         <f>VLOOKUP($A76,[1]Basic!$A:$B,2,0)</f>
@@ -8953,7 +9258,7 @@
       </c>
       <c r="V76" t="str">
         <f t="shared" si="28"/>
-        <v>销售费用</v>
+        <v>利息支出</v>
       </c>
       <c r="W76" t="e">
         <f t="shared" si="29"/>
@@ -9038,16 +9343,16 @@
     </row>
     <row r="77" spans="1:44">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B77" t="s">
-        <v>72</v>
-      </c>
-      <c r="C77" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D77" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="U77" t="e">
         <f>VLOOKUP($A77,[1]Basic!$A:$B,2,0)</f>
@@ -9055,7 +9360,7 @@
       </c>
       <c r="V77" t="str">
         <f t="shared" si="28"/>
-        <v>管理费用</v>
+        <v>销售费用</v>
       </c>
       <c r="W77" t="e">
         <f t="shared" si="29"/>
@@ -9140,16 +9445,16 @@
     </row>
     <row r="78" spans="1:44">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D78" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="U78" t="e">
         <f>VLOOKUP($A78,[1]Basic!$A:$B,2,0)</f>
@@ -9157,7 +9462,7 @@
       </c>
       <c r="V78" t="str">
         <f t="shared" si="28"/>
-        <v>财务费用</v>
+        <v>管理费用</v>
       </c>
       <c r="W78" t="e">
         <f t="shared" si="29"/>
@@ -9242,118 +9547,30 @@
     </row>
     <row r="79" spans="1:44">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="B79" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="C79" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
-      </c>
-      <c r="U79" t="e">
-        <f>VLOOKUP($A79,[1]Basic!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V79" t="str">
-        <f t="shared" si="28"/>
-        <v>资产减值损失</v>
-      </c>
-      <c r="W79" t="e">
-        <f t="shared" si="29"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X79" t="e">
-        <f>VLOOKUP(W79,科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y79" t="e">
-        <f>VLOOKUP(W79,科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z79" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA79">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AB79">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AE79" t="e">
-        <f>VLOOKUP(V79,[2]科目!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF79" t="e">
-        <f t="shared" si="33"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG79">
-        <f t="shared" si="34"/>
-        <v>1000</v>
-      </c>
-      <c r="AH79" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI79" t="e">
-        <f>VLOOKUP(U79,[1]Basic!$B:$C,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ79" t="e">
-        <f>VLOOKUP(W79,科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK79" t="e">
-        <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL79" t="e">
-        <f>VLOOKUP(AK79,[1]FX!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM79" t="e">
-        <f t="shared" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN79" t="e">
-        <f>VLOOKUP(Z79,[1]History!$A:$B,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO79">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AP79" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ79" t="e">
-        <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR79" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:44">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B80" t="s">
-        <v>75</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
+      </c>
+      <c r="C80" t="s">
+        <v>73</v>
       </c>
       <c r="D80" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="U80" t="e">
         <f>VLOOKUP($A80,[1]Basic!$A:$B,2,0)</f>
@@ -9361,7 +9578,7 @@
       </c>
       <c r="V80" t="str">
         <f t="shared" si="28"/>
-        <v>营业外支出</v>
+        <v>财务费用</v>
       </c>
       <c r="W80" t="e">
         <f t="shared" si="29"/>
@@ -9446,16 +9663,16 @@
     </row>
     <row r="81" spans="1:44">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B81" t="s">
-        <v>76</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
+      </c>
+      <c r="C81" t="s">
+        <v>74</v>
       </c>
       <c r="D81" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="U81" t="e">
         <f>VLOOKUP($A81,[1]Basic!$A:$B,2,0)</f>
@@ -9463,7 +9680,7 @@
       </c>
       <c r="V81" t="str">
         <f t="shared" si="28"/>
-        <v>所得税费用</v>
+        <v>资产减值损失</v>
       </c>
       <c r="W81" t="e">
         <f t="shared" si="29"/>
@@ -9547,13 +9764,25 @@
       </c>
     </row>
     <row r="82" spans="1:44">
+      <c r="A82" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82" t="s">
+        <v>75</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" t="s">
+        <v>110</v>
+      </c>
       <c r="U82" t="e">
         <f>VLOOKUP($A82,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V82" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>营业外支出</v>
       </c>
       <c r="W82" t="e">
         <f t="shared" si="29"/>
@@ -9638,10 +9867,16 @@
     </row>
     <row r="83" spans="1:44">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>76</v>
+      </c>
+      <c r="B83" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D83" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U83" t="e">
         <f>VLOOKUP($A83,[1]Basic!$A:$B,2,0)</f>
@@ -9649,7 +9884,7 @@
       </c>
       <c r="V83" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>所得税费用</v>
       </c>
       <c r="W83" t="e">
         <f t="shared" si="29"/>
@@ -9733,12 +9968,6 @@
       </c>
     </row>
     <row r="84" spans="1:44">
-      <c r="A84" t="s">
-        <v>113</v>
-      </c>
-      <c r="D84" t="s">
-        <v>112</v>
-      </c>
       <c r="U84" t="e">
         <f>VLOOKUP($A84,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
@@ -9830,16 +10059,10 @@
     </row>
     <row r="85" spans="1:44">
       <c r="A85" t="s">
-        <v>115</v>
-      </c>
-      <c r="B85" t="s">
-        <v>115</v>
-      </c>
-      <c r="C85" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D85" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="U85" t="e">
         <f>VLOOKUP($A85,[1]Basic!$A:$B,2,0)</f>
@@ -9847,7 +10070,7 @@
       </c>
       <c r="V85" t="str">
         <f t="shared" si="28"/>
-        <v>外币报表折算差额</v>
+        <v/>
       </c>
       <c r="W85" t="e">
         <f t="shared" si="29"/>
@@ -9930,7 +10153,342 @@
         <v>#VALUE!</v>
       </c>
     </row>
+    <row r="86" spans="1:44">
+      <c r="A86" t="s">
+        <v>57</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D86" t="s">
+        <v>139</v>
+      </c>
+      <c r="U86" t="e">
+        <f>VLOOKUP($A86,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V86" t="str">
+        <f>TRIM($B86)</f>
+        <v>年初未分配利润（调整后）</v>
+      </c>
+      <c r="W86" t="e">
+        <f>_xlfn.IFNA(AE86,AH86)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X86" t="e">
+        <f>VLOOKUP(W86,科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y86" t="e">
+        <f>VLOOKUP(W86,科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z86" t="e">
+        <f>U86&amp;"\"&amp;$C86</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA86">
+        <f>IF($P86="借",$R86,-$R86)</f>
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <f>_xlfn.IFNA(IF(AE86="重复明细",0,AO86),AO86)</f>
+        <v>0</v>
+      </c>
+      <c r="AE86" t="e">
+        <f>VLOOKUP(V86,[2]科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF86" t="e">
+        <f>FIND("\",$C86)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG86">
+        <f>IFERROR(FIND("\",$C86,AF86+1),1000)</f>
+        <v>1000</v>
+      </c>
+      <c r="AH86" t="e">
+        <f>MID($C86,AF86+1,AG86-AF86-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI86" t="e">
+        <f>VLOOKUP(U86,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ86" t="e">
+        <f>VLOOKUP(W86,科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK86" t="e">
+        <f>AI86&amp;"/"&amp;AJ86</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL86" t="e">
+        <f>VLOOKUP(AK86,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM86" t="e">
+        <f>ROUND(AA86*AL86,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN86" t="e">
+        <f>VLOOKUP(Z86,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO86">
+        <f>IFERROR(_xlfn.IFNA(AM86,AN86),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP86" t="e">
+        <f>FIND("]",AO86)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ86" t="e">
+        <f>FIND("#",AO86)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR86" t="e">
+        <f>FIND("#",AO86,AQ86+1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:44">
+      <c r="A87" t="s">
+        <v>111</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D87" t="s">
+        <v>139</v>
+      </c>
+      <c r="U87" t="e">
+        <f>VLOOKUP($A87,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V87" t="str">
+        <f t="shared" si="28"/>
+        <v>年初未分配利润（调整后）</v>
+      </c>
+      <c r="W87" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X87" t="e">
+        <f>VLOOKUP(W87,科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y87" t="e">
+        <f>VLOOKUP(W87,科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z87" t="e">
+        <f t="shared" si="30"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA87">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AE87" t="e">
+        <f>VLOOKUP(V87,[2]科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF87" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG87">
+        <f t="shared" si="34"/>
+        <v>1000</v>
+      </c>
+      <c r="AH87" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI87" t="e">
+        <f>VLOOKUP(U87,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ87" t="e">
+        <f>VLOOKUP(W87,科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK87" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL87" t="e">
+        <f>VLOOKUP(AK87,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM87" t="e">
+        <f t="shared" si="37"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN87" t="e">
+        <f>VLOOKUP(Z87,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO87">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AP87" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ87" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR87" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:44">
+      <c r="A88" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88" t="s">
+        <v>113</v>
+      </c>
+      <c r="C88" t="s">
+        <v>113</v>
+      </c>
+      <c r="D88" t="s">
+        <v>109</v>
+      </c>
+      <c r="U88" t="e">
+        <f>VLOOKUP($A88,[1]Basic!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V88" t="str">
+        <f t="shared" si="28"/>
+        <v>外币报表折算差额</v>
+      </c>
+      <c r="W88" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X88" t="e">
+        <f>VLOOKUP(W88,科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y88" t="e">
+        <f>VLOOKUP(W88,科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z88" t="e">
+        <f t="shared" si="30"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA88">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AE88" t="e">
+        <f>VLOOKUP(V88,[2]科目!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF88" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG88">
+        <f t="shared" si="34"/>
+        <v>1000</v>
+      </c>
+      <c r="AH88" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI88" t="e">
+        <f>VLOOKUP(U88,[1]Basic!$B:$C,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ88" t="e">
+        <f>VLOOKUP(W88,科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK88" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL88" t="e">
+        <f>VLOOKUP(AK88,[1]FX!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM88" t="e">
+        <f t="shared" si="37"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN88" t="e">
+        <f>VLOOKUP(Z88,[1]History!$A:$B,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AO88">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AP88" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ88" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR88" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:44">
+      <c r="A89" t="s">
+        <v>134</v>
+      </c>
+      <c r="B89" t="s">
+        <v>134</v>
+      </c>
+      <c r="C89" t="s">
+        <v>134</v>
+      </c>
+      <c r="D89" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:44">
+      <c r="A90" t="s">
+        <v>135</v>
+      </c>
+      <c r="B90" t="s">
+        <v>135</v>
+      </c>
+      <c r="C90" t="s">
+        <v>135</v>
+      </c>
+      <c r="D90" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G90" xr:uid="{1611A6C3-6C6A-44A7-AA58-C620DCB769FB}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/00框架文件/03MR.xlsx
+++ b/00框架文件/03MR.xlsx
@@ -3,17 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D24E74B-F245-468C-96A0-100AA0B8C13F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACB6B96-D07B-404F-BB74-312C2A853E62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="科目" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">科目!$A$1:$G$90</definedName>
   </definedNames>
@@ -27,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="185">
   <si>
     <t>报表科目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,27 +311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>货币资金</t>
-  </si>
-  <si>
-    <t>实收资本（或股本）</t>
-  </si>
-  <si>
-    <t>营业收入</t>
-  </si>
-  <si>
-    <t>汇兑收益（损失以“-”号填列）</t>
-  </si>
-  <si>
-    <t>公允价值变动收益（损失以“-”号填列）</t>
-  </si>
-  <si>
-    <t>投资收益（损失以“-”号填列）</t>
-  </si>
-  <si>
-    <t>营业成本</t>
-  </si>
-  <si>
     <t>主科目名称</t>
   </si>
   <si>
@@ -485,12 +460,162 @@
     <t>应收账款坏账准备</t>
   </si>
   <si>
-    <t>其他应付款</t>
+    <t xml:space="preserve">    货币资金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        财务费用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    存货</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其他应收款</t>
+    <t xml:space="preserve">    递延所得税负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    递延所得税资产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    短期借款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   公允价值变动收益（损失以“－”号填列）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    固定资产</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        管理费用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       减:库存股</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    交易性金融资产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    未分配利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    其他权益工具投资</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其他应付款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其他应付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    其他应收款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    其他综合收益</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    实收资本(或股本)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    无形资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    使用权资产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    减：所得税费用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        销售费用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        研发费用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    应付票据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    应付账款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    应付职工薪酬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    应交税费</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    应收票据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    应收账款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    盈余公积</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    减：营业成本</t>
+  </si>
+  <si>
+    <t>一、营业收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        税金及附加</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    加: 营业外收入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    减：营业外支出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    预付款项</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    预计负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    预收款项</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    在建工程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    长期待摊费用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    长期股权投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    长期借款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    长期应付款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    长期应收款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    资本公积</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   资产处置收益（损失以“－”号填列）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   资产减值损失（损失以“－”号填列）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    租赁负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    商誉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         投资收益（损失以“－”号填列）</t>
   </si>
 </sst>
 </file>
@@ -568,1031 +693,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Basic"/>
-      <sheetName val="FX"/>
-      <sheetName val="History"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>主体账簿名</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>公司简称</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>本位币</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>上海昊海生物科技股份有限公司-基准账簿</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>01 生科</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>上海其胜生物制剂有限公司-基准账簿</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>02 其胜</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>上海建华精细生物制品有限公司-基准账簿</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>03 建华</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>上海利康瑞生物工程有限公司-基准账簿</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>04 利康瑞</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>昊海生物科技控股有限公司(港币)-港币账簿</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>05 控股(HK)</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>HKD</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>上海昊海医药科技发展有限公司-基准账簿</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>06 发展</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>08 BVI</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>GBP</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>09 Aaren</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>USD</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>深圳市新产业眼科新技术有限公司-基准账簿</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>10 新产业</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>河南宇宙人工晶状体研制有限公司-基准账簿</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>11 河南宇宙</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>12 珠海艾格</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>13 Contamac</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>GBP</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>14 海洋集团</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>USD</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>15 青岛华元</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>16 太平洋生物</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>17 太平洋药业</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>河南赛美视生物科技有限公司-基准账簿</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v>18 河南赛美视</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>杭州爱晶伦科技有限公司-基准账簿</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v>19 爱晶伦</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>20 艾格视光</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>河北鑫视康隐形眼镜有限公司-基准账簿</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>21 河北鑫视康</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>上海亨泰视觉科技有限公司-基准账簿</v>
-          </cell>
-          <cell r="B22" t="str">
-            <v>22 亨泰视觉</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="F1" t="str">
-            <v>汇率标签</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>适用汇率</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="F2" t="str">
-            <v>RMB/BS</v>
-          </cell>
-          <cell r="G2">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3" t="str">
-            <v>USD/BS</v>
-          </cell>
-          <cell r="G3">
-            <v>6.4600999999999997</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4" t="str">
-            <v>HKD/BS</v>
-          </cell>
-          <cell r="G4">
-            <v>0.83208000000000004</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5" t="str">
-            <v>GBP/BS</v>
-          </cell>
-          <cell r="G5">
-            <v>8.9410000000000007</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9" t="str">
-            <v>RMB/PL</v>
-          </cell>
-          <cell r="G9">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10" t="str">
-            <v>USD/PL</v>
-          </cell>
-          <cell r="G10">
-            <v>6.4924999999999997</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11" t="str">
-            <v>HKD/PL</v>
-          </cell>
-          <cell r="G11">
-            <v>0.83686000000000005</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12" t="str">
-            <v>GBP/PL</v>
-          </cell>
-          <cell r="G12">
-            <v>8.9156499999999994</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14" t="str">
-            <v>RMB/PV</v>
-          </cell>
-          <cell r="G14">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>唯一识别码</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>RMB</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>05 控股(HK)\40010201\实收资本\法人资本\上海昊海生物科技股份有限公司</v>
-          </cell>
-          <cell r="B2">
-            <v>-130393141.33</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>05 控股(HK)\4003\其他综合收益</v>
-          </cell>
-          <cell r="B3">
-            <v>-52328140.099999994</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>05 控股(HK)\410498\利润分配\未分配利润</v>
-          </cell>
-          <cell r="B4">
-            <v>-240730882.72279382</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="科目"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>科目编码</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>对应科目</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>123101/借</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>应收账款坏账准备</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>123101/贷</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>应收账款坏账准备</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>123102/借</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>其他应收款坏账准备</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>123102/贷</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>其他应收款坏账准备</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>112202/贷</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>预收账款</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>122106/贷</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>其他应付款</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>220202/借</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>预付账款</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>220299/借</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>预付账款</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>53010200/借</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>53010200/贷</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>600100/借</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>600100/贷</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>605100/借</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>605100/贷</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>611100/借</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>611100/贷</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>605100/借</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>605100/贷</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>630100/借</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>630100/贷</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>630102/借</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>630102/贷</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>63019801/借</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v xml:space="preserve">       加：其他收益</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>63019801/贷</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v xml:space="preserve">       加：其他收益</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>640100/借</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>640100/贷</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>640200/借</v>
-          </cell>
-          <cell r="C28" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29" t="str">
-            <v>640200/贷</v>
-          </cell>
-          <cell r="C29" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30" t="str">
-            <v>640300/借</v>
-          </cell>
-          <cell r="C30" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31" t="str">
-            <v>640300/贷</v>
-          </cell>
-          <cell r="C31" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32" t="str">
-            <v>660100/借</v>
-          </cell>
-          <cell r="C32" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33" t="str">
-            <v>660100/贷</v>
-          </cell>
-          <cell r="C33" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34" t="str">
-            <v>660200/借</v>
-          </cell>
-          <cell r="C34" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35" t="str">
-            <v>660200/贷</v>
-          </cell>
-          <cell r="C35" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36" t="str">
-            <v>660216/借</v>
-          </cell>
-          <cell r="C36" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37" t="str">
-            <v>660216/贷</v>
-          </cell>
-          <cell r="C37" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38" t="str">
-            <v>660300/借</v>
-          </cell>
-          <cell r="C38" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39" t="str">
-            <v>660300/贷</v>
-          </cell>
-          <cell r="C39" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40" t="str">
-            <v>671100/借</v>
-          </cell>
-          <cell r="C40" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41" t="str">
-            <v>671100/贷</v>
-          </cell>
-          <cell r="C41" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42" t="str">
-            <v>671102/借</v>
-          </cell>
-          <cell r="C42" t="str">
-            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43" t="str">
-            <v>671102/贷</v>
-          </cell>
-          <cell r="C43" t="str">
-            <v xml:space="preserve">   资产处置收益（损失以“－”号填列）</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44" t="str">
-            <v>680100/借</v>
-          </cell>
-          <cell r="C44" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45" t="str">
-            <v>680100/贷</v>
-          </cell>
-          <cell r="C45" t="str">
-            <v>本年利润抵消明细</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47" t="str">
-            <v>9999</v>
-          </cell>
-          <cell r="C47" t="str">
-            <v>外币报表折算差额</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49" t="str">
-            <v>112201/贷</v>
-          </cell>
-          <cell r="C49" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50" t="str">
-            <v>112201/借</v>
-          </cell>
-          <cell r="C50" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52" t="str">
-            <v>220201/借</v>
-          </cell>
-          <cell r="C52" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53" t="str">
-            <v>220201/贷</v>
-          </cell>
-          <cell r="C53" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55" t="str">
-            <v>122101/贷</v>
-          </cell>
-          <cell r="C55" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56" t="str">
-            <v>122101/借</v>
-          </cell>
-          <cell r="C56" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57" t="str">
-            <v>122102/贷</v>
-          </cell>
-          <cell r="C57" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58" t="str">
-            <v>122102/借</v>
-          </cell>
-          <cell r="C58" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59" t="str">
-            <v>12210301/贷</v>
-          </cell>
-          <cell r="C59" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60" t="str">
-            <v>12210301/借</v>
-          </cell>
-          <cell r="C60" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61" t="str">
-            <v>12210302/贷</v>
-          </cell>
-          <cell r="C61" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62" t="str">
-            <v>12210302/借</v>
-          </cell>
-          <cell r="C62" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63" t="str">
-            <v>12210401/贷</v>
-          </cell>
-          <cell r="C63" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64" t="str">
-            <v>12210401/借</v>
-          </cell>
-          <cell r="C64" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65" t="str">
-            <v>12210402/贷</v>
-          </cell>
-          <cell r="C65" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66" t="str">
-            <v>12210402/借</v>
-          </cell>
-          <cell r="C66" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67" t="str">
-            <v>122105/贷</v>
-          </cell>
-          <cell r="C67" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68" t="str">
-            <v>122105/借</v>
-          </cell>
-          <cell r="C68" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69" t="str">
-            <v>122108/贷</v>
-          </cell>
-          <cell r="C69" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70" t="str">
-            <v>122108/借</v>
-          </cell>
-          <cell r="C70" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71" t="str">
-            <v>122125/贷</v>
-          </cell>
-          <cell r="C71" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72" t="str">
-            <v>122125/借</v>
-          </cell>
-          <cell r="C72" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73" t="str">
-            <v>224101/贷</v>
-          </cell>
-          <cell r="C73" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74" t="str">
-            <v>224101/借</v>
-          </cell>
-          <cell r="C74" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75" t="str">
-            <v>224102/贷</v>
-          </cell>
-          <cell r="C75" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76" t="str">
-            <v>224102/借</v>
-          </cell>
-          <cell r="C76" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77" t="str">
-            <v>224103/贷</v>
-          </cell>
-          <cell r="C77" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78" t="str">
-            <v>224103/借</v>
-          </cell>
-          <cell r="C78" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79" t="str">
-            <v>224104/贷</v>
-          </cell>
-          <cell r="C79" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80" t="str">
-            <v>224104/借</v>
-          </cell>
-          <cell r="C80" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81" t="str">
-            <v>224111/贷</v>
-          </cell>
-          <cell r="C81" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82" t="str">
-            <v>224111/借</v>
-          </cell>
-          <cell r="C82" t="str">
-            <v>重复明细</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="C90" t="str">
-            <v>应收账款</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="C91" t="str">
-            <v>预收账款</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="C92" t="str">
-            <v>其他应收款</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="C93" t="str">
-            <v>其他应付款</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="C94" t="str">
-            <v>预付账款</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="C95" t="str">
-            <v>应付账款</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="C96" t="str">
-            <v>其他应收款</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="C97" t="str">
-            <v>其他应付款</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1861,10 +961,10 @@
   <dimension ref="A1:AR90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1877,7 +977,7 @@
   <sheetData>
     <row r="1" spans="1:44">
       <c r="A1" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1886,19 +986,19 @@
         <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="U1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="V1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="W1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="X1" t="s">
         <v>0</v>
@@ -1907,55 +1007,55 @@
         <v>93</v>
       </c>
       <c r="Z1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK1" t="s">
         <v>117</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AL1" t="s">
         <v>118</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AM1" t="s">
         <v>119</v>
       </c>
-      <c r="AE1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AN1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP1" t="s">
         <v>120</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AQ1" t="s">
         <v>121</v>
       </c>
-      <c r="AH1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI1" t="s">
+      <c r="AR1" t="s">
         <v>122</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:44">
@@ -1963,16 +1063,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U2" t="e">
-        <f>VLOOKUP($A2,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V2" t="str">
@@ -2004,7 +1103,6 @@
         <v>0</v>
       </c>
       <c r="AE2" t="e">
-        <f>VLOOKUP(V2,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF2" t="e">
@@ -2020,7 +1118,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI2" t="e">
-        <f>VLOOKUP(U2,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ2" t="e">
@@ -2032,7 +1129,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL2" t="e">
-        <f>VLOOKUP(AK2,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM2" t="e">
@@ -2040,7 +1136,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN2" t="e">
-        <f>VLOOKUP(Z2,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO2">
@@ -2065,16 +1160,15 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U3" t="e">
-        <f>VLOOKUP($A3,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V3" t="str">
@@ -2106,7 +1200,6 @@
         <v>0</v>
       </c>
       <c r="AE3" t="e">
-        <f>VLOOKUP(V3,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF3" t="e">
@@ -2122,7 +1215,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI3" t="e">
-        <f>VLOOKUP(U3,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ3" t="e">
@@ -2134,7 +1226,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL3" t="e">
-        <f>VLOOKUP(AK3,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM3" t="e">
@@ -2142,7 +1233,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN3" t="e">
-        <f>VLOOKUP(Z3,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO3">
@@ -2167,16 +1257,15 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
         <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U4" t="e">
-        <f>VLOOKUP($A4,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V4" t="str">
@@ -2208,7 +1297,6 @@
         <v>0</v>
       </c>
       <c r="AE4" t="e">
-        <f>VLOOKUP(V4,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF4" t="e">
@@ -2224,7 +1312,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI4" t="e">
-        <f>VLOOKUP(U4,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ4" t="e">
@@ -2236,7 +1323,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL4" t="e">
-        <f>VLOOKUP(AK4,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM4" t="e">
@@ -2244,7 +1330,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN4" t="e">
-        <f>VLOOKUP(Z4,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO4">
@@ -2269,16 +1354,15 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U5" t="e">
-        <f>VLOOKUP($A5,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V5" t="str">
@@ -2310,7 +1394,6 @@
         <v>0</v>
       </c>
       <c r="AE5" t="e">
-        <f>VLOOKUP(V5,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF5" t="e">
@@ -2326,7 +1409,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI5" t="e">
-        <f>VLOOKUP(U5,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ5" t="e">
@@ -2338,7 +1420,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL5" t="e">
-        <f>VLOOKUP(AK5,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM5" t="e">
@@ -2346,7 +1427,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN5" t="e">
-        <f>VLOOKUP(Z5,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO5">
@@ -2371,16 +1451,15 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U6" t="e">
-        <f>VLOOKUP($A6,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V6" t="str">
@@ -2412,7 +1491,6 @@
         <v>0</v>
       </c>
       <c r="AE6" t="e">
-        <f>VLOOKUP(V6,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF6" t="e">
@@ -2428,7 +1506,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI6" t="e">
-        <f>VLOOKUP(U6,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ6" t="e">
@@ -2440,7 +1517,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL6" t="e">
-        <f>VLOOKUP(AK6,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM6" t="e">
@@ -2448,7 +1524,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN6" t="e">
-        <f>VLOOKUP(Z6,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO6">
@@ -2473,16 +1548,15 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U7" t="e">
-        <f>VLOOKUP($A7,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V7" t="str">
@@ -2514,7 +1588,6 @@
         <v>0</v>
       </c>
       <c r="AE7" t="e">
-        <f>VLOOKUP(V7,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF7" t="e">
@@ -2530,7 +1603,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI7" t="e">
-        <f>VLOOKUP(U7,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ7" t="e">
@@ -2542,7 +1614,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL7" t="e">
-        <f>VLOOKUP(AK7,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM7" t="e">
@@ -2550,7 +1621,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN7" t="e">
-        <f>VLOOKUP(Z7,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO7">
@@ -2572,16 +1642,16 @@
     </row>
     <row r="8" spans="1:44">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:44">
@@ -2589,16 +1659,15 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
         <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U9" t="e">
-        <f>VLOOKUP($A9,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V9" t="str">
@@ -2630,7 +1699,6 @@
         <v>0</v>
       </c>
       <c r="AE9" t="e">
-        <f>VLOOKUP(V9,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF9" t="e">
@@ -2646,7 +1714,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI9" t="e">
-        <f>VLOOKUP(U9,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ9" t="e">
@@ -2658,7 +1725,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL9" t="e">
-        <f>VLOOKUP(AK9,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM9" t="e">
@@ -2666,7 +1732,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN9" t="e">
-        <f>VLOOKUP(Z9,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO9">
@@ -2691,16 +1756,15 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U10" t="e">
-        <f>VLOOKUP($A10,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V10" t="str">
@@ -2732,7 +1796,6 @@
         <v>0</v>
       </c>
       <c r="AE10" t="e">
-        <f>VLOOKUP(V10,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF10" t="e">
@@ -2748,7 +1811,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI10" t="e">
-        <f>VLOOKUP(U10,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ10" t="e">
@@ -2760,7 +1822,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL10" t="e">
-        <f>VLOOKUP(AK10,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM10" t="e">
@@ -2768,7 +1829,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN10" t="e">
-        <f>VLOOKUP(Z10,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO10">
@@ -2793,16 +1853,15 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U11" t="e">
-        <f>VLOOKUP($A11,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V11" t="str">
@@ -2834,7 +1893,6 @@
         <v>0</v>
       </c>
       <c r="AE11" t="e">
-        <f>VLOOKUP(V11,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF11" t="e">
@@ -2850,7 +1908,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI11" t="e">
-        <f>VLOOKUP(U11,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ11" t="e">
@@ -2862,7 +1919,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL11" t="e">
-        <f>VLOOKUP(AK11,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM11" t="e">
@@ -2870,7 +1926,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN11" t="e">
-        <f>VLOOKUP(Z11,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO11">
@@ -2895,16 +1950,15 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U12" t="e">
-        <f>VLOOKUP($A12,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V12" t="str">
@@ -2936,7 +1990,6 @@
         <v>0</v>
       </c>
       <c r="AE12" t="e">
-        <f>VLOOKUP(V12,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF12" t="e">
@@ -2952,7 +2005,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI12" t="e">
-        <f>VLOOKUP(U12,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ12" t="e">
@@ -2964,7 +2016,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL12" t="e">
-        <f>VLOOKUP(AK12,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM12" t="e">
@@ -2972,7 +2023,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN12" t="e">
-        <f>VLOOKUP(Z12,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO12">
@@ -2994,19 +2044,18 @@
     </row>
     <row r="13" spans="1:44">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U13" t="e">
-        <f>VLOOKUP($A13,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V13" t="str">
@@ -3038,7 +2087,6 @@
         <v>0</v>
       </c>
       <c r="AE13" t="e">
-        <f>VLOOKUP(V13,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF13" t="e">
@@ -3054,7 +2102,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI13" t="e">
-        <f>VLOOKUP(U13,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ13" t="e">
@@ -3066,7 +2113,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL13" t="e">
-        <f>VLOOKUP(AK13,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM13" t="e">
@@ -3074,7 +2120,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN13" t="e">
-        <f>VLOOKUP(Z13,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO13">
@@ -3099,16 +2144,15 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
         <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U14" t="e">
-        <f>VLOOKUP($A14,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V14" t="str">
@@ -3140,7 +2184,6 @@
         <v>0</v>
       </c>
       <c r="AE14" t="e">
-        <f>VLOOKUP(V14,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF14" t="e">
@@ -3156,7 +2199,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI14" t="e">
-        <f>VLOOKUP(U14,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ14" t="e">
@@ -3168,7 +2210,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL14" t="e">
-        <f>VLOOKUP(AK14,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM14" t="e">
@@ -3176,7 +2217,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN14" t="e">
-        <f>VLOOKUP(Z14,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO14">
@@ -3201,16 +2241,15 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
         <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U15" t="e">
-        <f>VLOOKUP($A15,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V15" t="str">
@@ -3242,7 +2281,6 @@
         <v>0</v>
       </c>
       <c r="AE15" t="e">
-        <f>VLOOKUP(V15,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF15" t="e">
@@ -3258,7 +2296,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI15" t="e">
-        <f>VLOOKUP(U15,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ15" t="e">
@@ -3270,7 +2307,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL15" t="e">
-        <f>VLOOKUP(AK15,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM15" t="e">
@@ -3278,7 +2314,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN15" t="e">
-        <f>VLOOKUP(Z15,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO15">
@@ -3303,16 +2338,15 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
         <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U16" t="e">
-        <f>VLOOKUP($A16,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V16" t="str">
@@ -3344,7 +2378,6 @@
         <v>0</v>
       </c>
       <c r="AE16" t="e">
-        <f>VLOOKUP(V16,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF16" t="e">
@@ -3360,7 +2393,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI16" t="e">
-        <f>VLOOKUP(U16,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ16" t="e">
@@ -3372,7 +2404,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL16" t="e">
-        <f>VLOOKUP(AK16,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM16" t="e">
@@ -3380,7 +2411,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN16" t="e">
-        <f>VLOOKUP(Z16,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO16">
@@ -3402,16 +2432,16 @@
     </row>
     <row r="17" spans="1:44">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
         <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:44">
@@ -3419,16 +2449,15 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
         <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U18" t="e">
-        <f>VLOOKUP($A18,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V18" t="str">
@@ -3460,7 +2489,6 @@
         <v>0</v>
       </c>
       <c r="AE18" t="e">
-        <f>VLOOKUP(V18,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF18" t="e">
@@ -3476,7 +2504,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI18" t="e">
-        <f>VLOOKUP(U18,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ18" t="e">
@@ -3488,7 +2515,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL18" t="e">
-        <f>VLOOKUP(AK18,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM18" t="e">
@@ -3496,7 +2522,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN18" t="e">
-        <f>VLOOKUP(Z18,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO18">
@@ -3521,16 +2546,15 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
         <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U19" t="e">
-        <f>VLOOKUP($A19,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V19" t="str">
@@ -3562,7 +2586,6 @@
         <v>0</v>
       </c>
       <c r="AE19" t="e">
-        <f>VLOOKUP(V19,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF19" t="e">
@@ -3578,7 +2601,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI19" t="e">
-        <f>VLOOKUP(U19,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ19" t="e">
@@ -3590,7 +2612,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL19" t="e">
-        <f>VLOOKUP(AK19,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM19" t="e">
@@ -3598,7 +2619,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN19" t="e">
-        <f>VLOOKUP(Z19,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO19">
@@ -3623,16 +2643,15 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
         <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U20" t="e">
-        <f>VLOOKUP($A20,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V20" t="str">
@@ -3664,7 +2683,6 @@
         <v>0</v>
       </c>
       <c r="AE20" t="e">
-        <f>VLOOKUP(V20,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF20" t="e">
@@ -3680,7 +2698,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI20" t="e">
-        <f>VLOOKUP(U20,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ20" t="e">
@@ -3692,7 +2709,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL20" t="e">
-        <f>VLOOKUP(AK20,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM20" t="e">
@@ -3700,7 +2716,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN20" t="e">
-        <f>VLOOKUP(Z20,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO20">
@@ -3725,16 +2740,15 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="C21" t="s">
         <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U21" t="e">
-        <f>VLOOKUP($A21,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V21" t="str">
@@ -3766,7 +2780,6 @@
         <v>0</v>
       </c>
       <c r="AE21" t="e">
-        <f>VLOOKUP(V21,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF21" t="e">
@@ -3782,7 +2795,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI21" t="e">
-        <f>VLOOKUP(U21,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ21" t="e">
@@ -3794,7 +2806,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL21" t="e">
-        <f>VLOOKUP(AK21,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM21" t="e">
@@ -3802,7 +2813,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN21" t="e">
-        <f>VLOOKUP(Z21,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO21">
@@ -3827,16 +2837,15 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
         <v>78</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U22" t="e">
-        <f>VLOOKUP($A22,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V22" t="str">
@@ -3868,7 +2877,6 @@
         <v>0</v>
       </c>
       <c r="AE22" t="e">
-        <f>VLOOKUP(V22,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF22" t="e">
@@ -3884,7 +2892,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI22" t="e">
-        <f>VLOOKUP(U22,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ22" t="e">
@@ -3896,7 +2903,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL22" t="e">
-        <f>VLOOKUP(AK22,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM22" t="e">
@@ -3904,7 +2910,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN22" t="e">
-        <f>VLOOKUP(Z22,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO22">
@@ -3929,16 +2934,15 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="C23" t="s">
         <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U23" t="e">
-        <f>VLOOKUP($A23,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V23" t="str">
@@ -3970,7 +2974,6 @@
         <v>0</v>
       </c>
       <c r="AE23" t="e">
-        <f>VLOOKUP(V23,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF23" t="e">
@@ -3986,7 +2989,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI23" t="e">
-        <f>VLOOKUP(U23,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ23" t="e">
@@ -3998,7 +3000,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL23" t="e">
-        <f>VLOOKUP(AK23,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM23" t="e">
@@ -4006,7 +3007,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN23" t="e">
-        <f>VLOOKUP(Z23,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO23">
@@ -4031,16 +3031,15 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U24" t="e">
-        <f>VLOOKUP($A24,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V24" t="str">
@@ -4072,7 +3071,6 @@
         <v>0</v>
       </c>
       <c r="AE24" t="e">
-        <f>VLOOKUP(V24,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF24" t="e">
@@ -4088,7 +3086,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI24" t="e">
-        <f>VLOOKUP(U24,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ24" t="e">
@@ -4100,7 +3097,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL24" t="e">
-        <f>VLOOKUP(AK24,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM24" t="e">
@@ -4108,7 +3104,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN24" t="e">
-        <f>VLOOKUP(Z24,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO24">
@@ -4139,10 +3134,9 @@
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U25" t="e">
-        <f>VLOOKUP($A25,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V25" t="str">
@@ -4174,7 +3168,6 @@
         <v>0</v>
       </c>
       <c r="AE25" t="e">
-        <f>VLOOKUP(V25,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF25" t="e">
@@ -4190,7 +3183,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI25" t="e">
-        <f>VLOOKUP(U25,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ25" t="e">
@@ -4202,7 +3194,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL25" t="e">
-        <f>VLOOKUP(AK25,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM25" t="e">
@@ -4210,7 +3201,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN25" t="e">
-        <f>VLOOKUP(Z25,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO25">
@@ -4241,10 +3231,9 @@
         <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U26" t="e">
-        <f>VLOOKUP($A26,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V26" t="str">
@@ -4276,7 +3265,6 @@
         <v>0</v>
       </c>
       <c r="AE26" t="e">
-        <f>VLOOKUP(V26,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF26" t="e">
@@ -4292,7 +3280,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI26" t="e">
-        <f>VLOOKUP(U26,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ26" t="e">
@@ -4304,7 +3291,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL26" t="e">
-        <f>VLOOKUP(AK26,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM26" t="e">
@@ -4312,7 +3298,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN26" t="e">
-        <f>VLOOKUP(Z26,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO26">
@@ -4337,16 +3322,15 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U27" t="e">
-        <f>VLOOKUP($A27,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V27" t="str">
@@ -4378,7 +3362,6 @@
         <v>0</v>
       </c>
       <c r="AE27" t="e">
-        <f>VLOOKUP(V27,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF27" t="e">
@@ -4394,7 +3377,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI27" t="e">
-        <f>VLOOKUP(U27,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ27" t="e">
@@ -4406,7 +3388,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL27" t="e">
-        <f>VLOOKUP(AK27,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM27" t="e">
@@ -4414,7 +3395,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN27" t="e">
-        <f>VLOOKUP(Z27,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO27">
@@ -4439,16 +3419,15 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="C28" t="s">
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U28" t="e">
-        <f>VLOOKUP($A28,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V28" t="str">
@@ -4480,7 +3459,6 @@
         <v>0</v>
       </c>
       <c r="AE28" t="e">
-        <f>VLOOKUP(V28,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF28" t="e">
@@ -4496,7 +3474,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI28" t="e">
-        <f>VLOOKUP(U28,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ28" t="e">
@@ -4508,7 +3485,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL28" t="e">
-        <f>VLOOKUP(AK28,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM28" t="e">
@@ -4516,7 +3492,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN28" t="e">
-        <f>VLOOKUP(Z28,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO28">
@@ -4541,16 +3516,15 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="C29" t="s">
         <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U29" t="e">
-        <f>VLOOKUP($A29,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V29" t="str">
@@ -4582,7 +3556,6 @@
         <v>0</v>
       </c>
       <c r="AE29" t="e">
-        <f>VLOOKUP(V29,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF29" t="e">
@@ -4598,7 +3571,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI29" t="e">
-        <f>VLOOKUP(U29,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ29" t="e">
@@ -4610,7 +3582,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL29" t="e">
-        <f>VLOOKUP(AK29,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM29" t="e">
@@ -4618,7 +3589,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN29" t="e">
-        <f>VLOOKUP(Z29,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO29">
@@ -4640,16 +3610,16 @@
     </row>
     <row r="30" spans="1:44">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="C30" t="s">
         <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:44">
@@ -4657,16 +3627,15 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U31" t="e">
-        <f>VLOOKUP($A31,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V31" t="str">
@@ -4698,7 +3667,6 @@
         <v>0</v>
       </c>
       <c r="AE31" t="e">
-        <f>VLOOKUP(V31,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF31" t="e">
@@ -4714,7 +3682,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI31" t="e">
-        <f>VLOOKUP(U31,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ31" t="e">
@@ -4726,7 +3693,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL31" t="e">
-        <f>VLOOKUP(AK31,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM31" t="e">
@@ -4734,7 +3700,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN31" t="e">
-        <f>VLOOKUP(Z31,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO31">
@@ -4756,19 +3721,18 @@
     </row>
     <row r="32" spans="1:44">
       <c r="A32" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U32" t="e">
-        <f>VLOOKUP($A32,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V32" t="str">
@@ -4800,7 +3764,6 @@
         <v>0</v>
       </c>
       <c r="AE32" t="e">
-        <f>VLOOKUP(V32,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF32" t="e">
@@ -4816,7 +3779,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI32" t="e">
-        <f>VLOOKUP(U32,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ32" t="e">
@@ -4828,7 +3790,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL32" t="e">
-        <f>VLOOKUP(AK32,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM32" t="e">
@@ -4836,7 +3797,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN32" t="e">
-        <f>VLOOKUP(Z32,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO32">
@@ -4861,16 +3821,15 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U33" t="e">
-        <f>VLOOKUP($A33,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V33" t="str">
@@ -4902,7 +3861,6 @@
         <v>0</v>
       </c>
       <c r="AE33" t="e">
-        <f>VLOOKUP(V33,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF33" t="e">
@@ -4918,7 +3876,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI33" t="e">
-        <f>VLOOKUP(U33,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ33" t="e">
@@ -4930,7 +3887,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL33" t="e">
-        <f>VLOOKUP(AK33,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM33" t="e">
@@ -4938,7 +3894,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN33" t="e">
-        <f>VLOOKUP(Z33,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO33">
@@ -4963,16 +3918,15 @@
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U34" t="e">
-        <f>VLOOKUP($A34,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V34" t="str">
@@ -5004,7 +3958,6 @@
         <v>0</v>
       </c>
       <c r="AE34" t="e">
-        <f>VLOOKUP(V34,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF34" t="e">
@@ -5020,7 +3973,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI34" t="e">
-        <f>VLOOKUP(U34,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ34" t="e">
@@ -5032,7 +3984,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL34" t="e">
-        <f>VLOOKUP(AK34,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM34" t="e">
@@ -5040,7 +3991,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN34" t="e">
-        <f>VLOOKUP(Z34,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO34">
@@ -5065,16 +4015,15 @@
         <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U35" t="e">
-        <f>VLOOKUP($A35,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V35" t="str">
@@ -5106,7 +4055,6 @@
         <v>0</v>
       </c>
       <c r="AE35" t="e">
-        <f>VLOOKUP(V35,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF35" t="e">
@@ -5122,7 +4070,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI35" t="e">
-        <f>VLOOKUP(U35,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ35" t="e">
@@ -5134,7 +4081,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL35" t="e">
-        <f>VLOOKUP(AK35,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM35" t="e">
@@ -5142,7 +4088,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN35" t="e">
-        <f>VLOOKUP(Z35,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO35">
@@ -5167,16 +4112,15 @@
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="C36" t="s">
         <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U36" t="e">
-        <f>VLOOKUP($A36,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V36" t="str">
@@ -5208,7 +4152,6 @@
         <v>0</v>
       </c>
       <c r="AE36" t="e">
-        <f>VLOOKUP(V36,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF36" t="e">
@@ -5224,7 +4167,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI36" t="e">
-        <f>VLOOKUP(U36,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ36" t="e">
@@ -5236,7 +4178,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL36" t="e">
-        <f>VLOOKUP(AK36,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM36" t="e">
@@ -5244,7 +4185,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN36" t="e">
-        <f>VLOOKUP(Z36,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO36">
@@ -5275,10 +4215,9 @@
         <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U37" t="e">
-        <f>VLOOKUP($A37,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V37" t="str">
@@ -5310,7 +4249,6 @@
         <v>0</v>
       </c>
       <c r="AE37" t="e">
-        <f>VLOOKUP(V37,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF37" t="e">
@@ -5326,7 +4264,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI37" t="e">
-        <f>VLOOKUP(U37,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ37" t="e">
@@ -5338,7 +4275,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL37" t="e">
-        <f>VLOOKUP(AK37,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM37" t="e">
@@ -5346,7 +4282,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN37" t="e">
-        <f>VLOOKUP(Z37,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO37">
@@ -5377,10 +4312,9 @@
         <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U38" t="e">
-        <f>VLOOKUP($A38,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V38" t="str">
@@ -5412,7 +4346,6 @@
         <v>0</v>
       </c>
       <c r="AE38" t="e">
-        <f>VLOOKUP(V38,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF38" t="e">
@@ -5428,7 +4361,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI38" t="e">
-        <f>VLOOKUP(U38,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ38" t="e">
@@ -5440,7 +4372,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL38" t="e">
-        <f>VLOOKUP(AK38,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM38" t="e">
@@ -5448,7 +4379,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN38" t="e">
-        <f>VLOOKUP(Z38,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO38">
@@ -5473,16 +4403,15 @@
         <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="C39" t="s">
         <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U39" t="e">
-        <f>VLOOKUP($A39,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V39" t="str">
@@ -5514,7 +4443,6 @@
         <v>0</v>
       </c>
       <c r="AE39" t="e">
-        <f>VLOOKUP(V39,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF39" t="e">
@@ -5530,7 +4458,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI39" t="e">
-        <f>VLOOKUP(U39,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ39" t="e">
@@ -5542,7 +4469,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL39" t="e">
-        <f>VLOOKUP(AK39,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM39" t="e">
@@ -5550,7 +4476,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN39" t="e">
-        <f>VLOOKUP(Z39,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO39">
@@ -5575,16 +4500,15 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U40" t="e">
-        <f>VLOOKUP($A40,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V40" t="str">
@@ -5616,7 +4540,6 @@
         <v>0</v>
       </c>
       <c r="AE40" t="e">
-        <f>VLOOKUP(V40,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF40" t="e">
@@ -5632,7 +4555,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI40" t="e">
-        <f>VLOOKUP(U40,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ40" t="e">
@@ -5644,7 +4566,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL40" t="e">
-        <f>VLOOKUP(AK40,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM40" t="e">
@@ -5652,7 +4573,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN40" t="e">
-        <f>VLOOKUP(Z40,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO40">
@@ -5677,16 +4597,15 @@
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="C41" t="s">
         <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U41" t="e">
-        <f>VLOOKUP($A41,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V41" t="str">
@@ -5718,7 +4637,6 @@
         <v>0</v>
       </c>
       <c r="AE41" t="e">
-        <f>VLOOKUP(V41,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF41" t="e">
@@ -5734,7 +4652,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI41" t="e">
-        <f>VLOOKUP(U41,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ41" t="e">
@@ -5746,7 +4663,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL41" t="e">
-        <f>VLOOKUP(AK41,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM41" t="e">
@@ -5754,7 +4670,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN41" t="e">
-        <f>VLOOKUP(Z41,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO41">
@@ -5779,16 +4694,15 @@
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="C42" t="s">
         <v>37</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U42" t="e">
-        <f>VLOOKUP($A42,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V42" t="str">
@@ -5820,7 +4734,6 @@
         <v>0</v>
       </c>
       <c r="AE42" t="e">
-        <f>VLOOKUP(V42,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF42" t="e">
@@ -5836,7 +4749,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI42" t="e">
-        <f>VLOOKUP(U42,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ42" t="e">
@@ -5848,7 +4760,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL42" t="e">
-        <f>VLOOKUP(AK42,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM42" t="e">
@@ -5856,7 +4767,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN42" t="e">
-        <f>VLOOKUP(Z42,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO42">
@@ -5881,16 +4791,15 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="C43" t="s">
         <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U43" t="e">
-        <f>VLOOKUP($A43,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V43" t="str">
@@ -5922,7 +4831,6 @@
         <v>0</v>
       </c>
       <c r="AE43" t="e">
-        <f>VLOOKUP(V43,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF43" t="e">
@@ -5938,7 +4846,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI43" t="e">
-        <f>VLOOKUP(U43,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ43" t="e">
@@ -5950,7 +4857,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL43" t="e">
-        <f>VLOOKUP(AK43,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM43" t="e">
@@ -5958,7 +4864,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN43" t="e">
-        <f>VLOOKUP(Z43,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO43">
@@ -5983,16 +4888,15 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="C44" t="s">
         <v>39</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U44" t="e">
-        <f>VLOOKUP($A44,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V44" t="str">
@@ -6024,7 +4928,6 @@
         <v>0</v>
       </c>
       <c r="AE44" t="e">
-        <f>VLOOKUP(V44,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF44" t="e">
@@ -6040,7 +4943,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI44" t="e">
-        <f>VLOOKUP(U44,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ44" t="e">
@@ -6052,7 +4954,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL44" t="e">
-        <f>VLOOKUP(AK44,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM44" t="e">
@@ -6060,7 +4961,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN44" t="e">
-        <f>VLOOKUP(Z44,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO44">
@@ -6085,16 +4985,15 @@
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
         <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U45" t="e">
-        <f>VLOOKUP($A45,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V45" t="str">
@@ -6126,7 +5025,6 @@
         <v>0</v>
       </c>
       <c r="AE45" t="e">
-        <f>VLOOKUP(V45,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF45" t="e">
@@ -6142,7 +5040,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI45" t="e">
-        <f>VLOOKUP(U45,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ45" t="e">
@@ -6154,7 +5051,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL45" t="e">
-        <f>VLOOKUP(AK45,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM45" t="e">
@@ -6162,7 +5058,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN45" t="e">
-        <f>VLOOKUP(Z45,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO45">
@@ -6187,16 +5082,15 @@
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="C46" t="s">
         <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U46" t="e">
-        <f>VLOOKUP($A46,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V46" t="str">
@@ -6228,7 +5122,6 @@
         <v>0</v>
       </c>
       <c r="AE46" t="e">
-        <f>VLOOKUP(V46,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF46" t="e">
@@ -6244,7 +5137,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI46" t="e">
-        <f>VLOOKUP(U46,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ46" t="e">
@@ -6256,7 +5148,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL46" t="e">
-        <f>VLOOKUP(AK46,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM46" t="e">
@@ -6264,7 +5155,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN46" t="e">
-        <f>VLOOKUP(Z46,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO46">
@@ -6289,16 +5179,15 @@
         <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="C47" t="s">
         <v>42</v>
       </c>
       <c r="D47" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U47" t="e">
-        <f>VLOOKUP($A47,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V47" t="str">
@@ -6330,7 +5219,6 @@
         <v>0</v>
       </c>
       <c r="AE47" t="e">
-        <f>VLOOKUP(V47,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF47" t="e">
@@ -6346,7 +5234,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI47" t="e">
-        <f>VLOOKUP(U47,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ47" t="e">
@@ -6358,7 +5245,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL47" t="e">
-        <f>VLOOKUP(AK47,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM47" t="e">
@@ -6366,7 +5252,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN47" t="e">
-        <f>VLOOKUP(Z47,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO47">
@@ -6391,16 +5276,15 @@
         <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C48" t="s">
         <v>79</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U48" t="e">
-        <f>VLOOKUP($A48,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V48" t="str">
@@ -6432,7 +5316,6 @@
         <v>0</v>
       </c>
       <c r="AE48" t="e">
-        <f>VLOOKUP(V48,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF48" t="e">
@@ -6448,7 +5331,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI48" t="e">
-        <f>VLOOKUP(U48,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ48" t="e">
@@ -6460,7 +5342,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL48" t="e">
-        <f>VLOOKUP(AK48,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM48" t="e">
@@ -6468,7 +5349,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN48" t="e">
-        <f>VLOOKUP(Z48,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO48">
@@ -6493,16 +5373,15 @@
         <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="C49" t="s">
         <v>44</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U49" t="e">
-        <f>VLOOKUP($A49,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V49" t="str">
@@ -6534,7 +5413,6 @@
         <v>0</v>
       </c>
       <c r="AE49" t="e">
-        <f>VLOOKUP(V49,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF49" t="e">
@@ -6550,7 +5428,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI49" t="e">
-        <f>VLOOKUP(U49,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ49" t="e">
@@ -6562,7 +5439,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL49" t="e">
-        <f>VLOOKUP(AK49,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM49" t="e">
@@ -6570,7 +5446,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN49" t="e">
-        <f>VLOOKUP(Z49,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO49">
@@ -6595,16 +5470,15 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="C50" t="s">
         <v>45</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U50" t="e">
-        <f>VLOOKUP($A50,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V50" t="str">
@@ -6636,7 +5510,6 @@
         <v>0</v>
       </c>
       <c r="AE50" t="e">
-        <f>VLOOKUP(V50,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF50" t="e">
@@ -6652,7 +5525,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI50" t="e">
-        <f>VLOOKUP(U50,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ50" t="e">
@@ -6664,7 +5536,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL50" t="e">
-        <f>VLOOKUP(AK50,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM50" t="e">
@@ -6672,7 +5543,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN50" t="e">
-        <f>VLOOKUP(Z50,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO50">
@@ -6697,21 +5567,20 @@
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U51" t="e">
-        <f>VLOOKUP($A51,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V51" t="str">
         <f t="shared" si="14"/>
-        <v>应付利息</v>
+        <v>其他应付款</v>
       </c>
       <c r="W51" t="e">
         <f t="shared" si="15"/>
@@ -6738,7 +5607,6 @@
         <v>0</v>
       </c>
       <c r="AE51" t="e">
-        <f>VLOOKUP(V51,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF51" t="e">
@@ -6754,7 +5622,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI51" t="e">
-        <f>VLOOKUP(U51,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ51" t="e">
@@ -6766,7 +5633,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL51" t="e">
-        <f>VLOOKUP(AK51,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM51" t="e">
@@ -6774,7 +5640,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN51" t="e">
-        <f>VLOOKUP(Z51,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO51">
@@ -6799,16 +5664,15 @@
         <v>47</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U52" t="e">
-        <f>VLOOKUP($A52,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V52" t="str">
@@ -6840,7 +5704,6 @@
         <v>0</v>
       </c>
       <c r="AE52" t="e">
-        <f>VLOOKUP(V52,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF52" t="e">
@@ -6856,7 +5719,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI52" t="e">
-        <f>VLOOKUP(U52,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ52" t="e">
@@ -6868,7 +5730,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL52" t="e">
-        <f>VLOOKUP(AK52,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM52" t="e">
@@ -6876,7 +5737,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN52" t="e">
-        <f>VLOOKUP(Z52,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO52">
@@ -6901,16 +5761,15 @@
         <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="C53" t="s">
         <v>48</v>
       </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U53" t="e">
-        <f>VLOOKUP($A53,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V53" t="str">
@@ -6942,7 +5801,6 @@
         <v>0</v>
       </c>
       <c r="AE53" t="e">
-        <f>VLOOKUP(V53,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF53" t="e">
@@ -6958,7 +5816,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI53" t="e">
-        <f>VLOOKUP(U53,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ53" t="e">
@@ -6970,7 +5827,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL53" t="e">
-        <f>VLOOKUP(AK53,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM53" t="e">
@@ -6978,7 +5834,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN53" t="e">
-        <f>VLOOKUP(Z53,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO53">
@@ -7006,10 +5861,9 @@
         <v>84</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U54" t="e">
-        <f>VLOOKUP($A54,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V54" t="str">
@@ -7041,7 +5895,6 @@
         <v>0</v>
       </c>
       <c r="AE54" t="e">
-        <f>VLOOKUP(V54,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF54" t="e">
@@ -7057,7 +5910,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI54" t="e">
-        <f>VLOOKUP(U54,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ54" t="e">
@@ -7069,7 +5921,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL54" t="e">
-        <f>VLOOKUP(AK54,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM54" t="e">
@@ -7077,7 +5928,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN54" t="e">
-        <f>VLOOKUP(Z54,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO54">
@@ -7099,19 +5949,18 @@
     </row>
     <row r="55" spans="1:44">
       <c r="A55" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U55" t="e">
-        <f>VLOOKUP($A55,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V55" t="str">
@@ -7143,7 +5992,6 @@
         <v>0</v>
       </c>
       <c r="AE55" t="e">
-        <f>VLOOKUP(V55,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF55" t="e">
@@ -7159,7 +6007,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI55" t="e">
-        <f>VLOOKUP(U55,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ55" t="e">
@@ -7171,7 +6018,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL55" t="e">
-        <f>VLOOKUP(AK55,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM55" t="e">
@@ -7179,7 +6025,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN55" t="e">
-        <f>VLOOKUP(Z55,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO55">
@@ -7204,16 +6049,15 @@
         <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>176</v>
       </c>
       <c r="C56" t="s">
         <v>50</v>
       </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U56" t="e">
-        <f>VLOOKUP($A56,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V56" t="str">
@@ -7245,7 +6089,6 @@
         <v>0</v>
       </c>
       <c r="AE56" t="e">
-        <f>VLOOKUP(V56,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF56" t="e">
@@ -7261,7 +6104,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI56" t="e">
-        <f>VLOOKUP(U56,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ56" t="e">
@@ -7273,7 +6115,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL56" t="e">
-        <f>VLOOKUP(AK56,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM56" t="e">
@@ -7281,7 +6122,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN56" t="e">
-        <f>VLOOKUP(Z56,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO56">
@@ -7306,16 +6146,15 @@
         <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>177</v>
       </c>
       <c r="C57" t="s">
         <v>51</v>
       </c>
       <c r="D57" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U57" t="e">
-        <f>VLOOKUP($A57,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V57" t="str">
@@ -7347,7 +6186,6 @@
         <v>0</v>
       </c>
       <c r="AE57" t="e">
-        <f>VLOOKUP(V57,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF57" t="e">
@@ -7363,7 +6201,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI57" t="e">
-        <f>VLOOKUP(U57,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ57" t="e">
@@ -7375,7 +6212,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL57" t="e">
-        <f>VLOOKUP(AK57,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM57" t="e">
@@ -7383,7 +6219,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN57" t="e">
-        <f>VLOOKUP(Z57,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO57">
@@ -7408,16 +6243,15 @@
         <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="C58" t="s">
         <v>52</v>
       </c>
       <c r="D58" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U58" t="e">
-        <f>VLOOKUP($A58,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V58" t="str">
@@ -7449,7 +6283,6 @@
         <v>0</v>
       </c>
       <c r="AE58" t="e">
-        <f>VLOOKUP(V58,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF58" t="e">
@@ -7465,7 +6298,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI58" t="e">
-        <f>VLOOKUP(U58,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ58" t="e">
@@ -7477,7 +6309,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL58" t="e">
-        <f>VLOOKUP(AK58,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM58" t="e">
@@ -7485,7 +6316,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN58" t="e">
-        <f>VLOOKUP(Z58,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO58">
@@ -7510,16 +6340,15 @@
         <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="C59" t="s">
         <v>53</v>
       </c>
       <c r="D59" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U59" t="e">
-        <f>VLOOKUP($A59,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V59" t="str">
@@ -7551,7 +6380,6 @@
         <v>0</v>
       </c>
       <c r="AE59" t="e">
-        <f>VLOOKUP(V59,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF59" t="e">
@@ -7567,7 +6395,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI59" t="e">
-        <f>VLOOKUP(U59,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ59" t="e">
@@ -7579,7 +6406,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL59" t="e">
-        <f>VLOOKUP(AK59,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM59" t="e">
@@ -7587,7 +6413,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN59" t="e">
-        <f>VLOOKUP(Z59,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO59">
@@ -7612,21 +6437,20 @@
         <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="U60" t="e">
-        <f>VLOOKUP($A60,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V60" t="str">
         <f t="shared" si="14"/>
-        <v>实收资本（或股本）</v>
+        <v>实收资本(或股本)</v>
       </c>
       <c r="W60" t="e">
         <f t="shared" si="15"/>
@@ -7653,7 +6477,6 @@
         <v>0</v>
       </c>
       <c r="AE60" t="e">
-        <f>VLOOKUP(V60,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF60" t="e">
@@ -7669,7 +6492,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI60" t="e">
-        <f>VLOOKUP(U60,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ60" t="e">
@@ -7681,7 +6503,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL60" t="e">
-        <f>VLOOKUP(AK60,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM60" t="e">
@@ -7689,7 +6510,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN60" t="e">
-        <f>VLOOKUP(Z60,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO60">
@@ -7714,16 +6534,15 @@
         <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="C61" t="s">
         <v>55</v>
       </c>
       <c r="D61" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="U61" t="e">
-        <f>VLOOKUP($A61,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V61" t="str">
@@ -7755,7 +6574,6 @@
         <v>0</v>
       </c>
       <c r="AE61" t="e">
-        <f>VLOOKUP(V61,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF61" t="e">
@@ -7771,7 +6589,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI61" t="e">
-        <f>VLOOKUP(U61,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ61" t="e">
@@ -7783,7 +6600,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL61" t="e">
-        <f>VLOOKUP(AK61,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM61" t="e">
@@ -7791,7 +6607,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN61" t="e">
-        <f>VLOOKUP(Z61,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO61">
@@ -7816,16 +6631,15 @@
         <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="C62" t="s">
         <v>56</v>
       </c>
       <c r="D62" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="U62" t="e">
-        <f>VLOOKUP($A62,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V62" t="str">
@@ -7857,7 +6671,6 @@
         <v>0</v>
       </c>
       <c r="AE62" t="e">
-        <f>VLOOKUP(V62,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF62" t="e">
@@ -7873,7 +6686,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI62" t="e">
-        <f>VLOOKUP(U62,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ62" t="e">
@@ -7885,7 +6697,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL62" t="e">
-        <f>VLOOKUP(AK62,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM62" t="e">
@@ -7893,7 +6704,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN62" t="e">
-        <f>VLOOKUP(Z62,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO62">
@@ -7918,21 +6728,20 @@
         <v>58</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D63" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="U63" t="e">
-        <f>VLOOKUP($A63,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V63" t="str">
         <f t="shared" si="14"/>
-        <v>年初未分配利润（调整后）</v>
+        <v>未分配利润</v>
       </c>
       <c r="W63" t="e">
         <f t="shared" si="15"/>
@@ -7959,7 +6768,6 @@
         <v>0</v>
       </c>
       <c r="AE63" t="e">
-        <f>VLOOKUP(V63,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF63" t="e">
@@ -7975,7 +6783,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI63" t="e">
-        <f>VLOOKUP(U63,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ63" t="e">
@@ -7987,7 +6794,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL63" t="e">
-        <f>VLOOKUP(AK63,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM63" t="e">
@@ -7995,7 +6801,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN63" t="e">
-        <f>VLOOKUP(Z63,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO63">
@@ -8020,21 +6825,20 @@
         <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D64" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="U64" t="e">
-        <f>VLOOKUP($A64,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V64" t="str">
         <f t="shared" si="14"/>
-        <v>减：库存股</v>
+        <v>减:库存股</v>
       </c>
       <c r="W64" t="e">
         <f t="shared" si="15"/>
@@ -8061,7 +6865,6 @@
         <v>0</v>
       </c>
       <c r="AE64" t="e">
-        <f>VLOOKUP(V64,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF64" t="e">
@@ -8077,7 +6880,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI64" t="e">
-        <f>VLOOKUP(U64,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ64" t="e">
@@ -8089,7 +6891,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL64" t="e">
-        <f>VLOOKUP(AK64,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM64" t="e">
@@ -8097,7 +6898,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN64" t="e">
-        <f>VLOOKUP(Z64,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO64">
@@ -8119,19 +6919,18 @@
     </row>
     <row r="65" spans="1:44">
       <c r="A65" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D65" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="U65" t="e">
-        <f>VLOOKUP($A65,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V65" t="str">
@@ -8163,7 +6962,6 @@
         <v>0</v>
       </c>
       <c r="AE65" t="e">
-        <f>VLOOKUP(V65,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF65" t="e">
@@ -8179,7 +6977,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI65" t="e">
-        <f>VLOOKUP(U65,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ65" t="e">
@@ -8191,7 +6988,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL65" t="e">
-        <f>VLOOKUP(AK65,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM65" t="e">
@@ -8199,7 +6995,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN65" t="e">
-        <f>VLOOKUP(Z65,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO65">
@@ -8224,21 +7019,20 @@
         <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D66" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="U66" t="e">
-        <f>VLOOKUP($A66,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V66" t="str">
         <f t="shared" si="14"/>
-        <v>营业收入</v>
+        <v>一、营业收入</v>
       </c>
       <c r="W66" t="e">
         <f t="shared" si="15"/>
@@ -8265,7 +7059,6 @@
         <v>0</v>
       </c>
       <c r="AE66" t="e">
-        <f>VLOOKUP(V66,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF66" t="e">
@@ -8281,7 +7074,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI66" t="e">
-        <f>VLOOKUP(U66,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ66" t="e">
@@ -8293,7 +7085,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL66" t="e">
-        <f>VLOOKUP(AK66,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM66" t="e">
@@ -8301,7 +7092,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN66" t="e">
-        <f>VLOOKUP(Z66,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO66">
@@ -8326,21 +7116,20 @@
         <v>61</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D67" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="U67" t="e">
-        <f>VLOOKUP($A67,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V67" t="str">
         <f t="shared" ref="V67:V88" si="28">TRIM($B67)</f>
-        <v>利息收入</v>
+        <v>财务费用</v>
       </c>
       <c r="W67" t="e">
         <f t="shared" ref="W67:W88" si="29">_xlfn.IFNA(AE67,AH67)</f>
@@ -8367,7 +7156,6 @@
         <v>0</v>
       </c>
       <c r="AE67" t="e">
-        <f>VLOOKUP(V67,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF67" t="e">
@@ -8383,7 +7171,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI67" t="e">
-        <f>VLOOKUP(U67,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ67" t="e">
@@ -8395,7 +7182,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL67" t="e">
-        <f>VLOOKUP(AK67,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM67" t="e">
@@ -8403,7 +7189,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN67" t="e">
-        <f>VLOOKUP(Z67,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO67">
@@ -8428,21 +7213,20 @@
         <v>62</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D68" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="U68" t="e">
-        <f>VLOOKUP($A68,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V68" t="str">
         <f t="shared" si="28"/>
-        <v>营业收入</v>
+        <v>一、营业收入</v>
       </c>
       <c r="W68" t="e">
         <f t="shared" si="29"/>
@@ -8469,7 +7253,6 @@
         <v>0</v>
       </c>
       <c r="AE68" t="e">
-        <f>VLOOKUP(V68,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF68" t="e">
@@ -8485,7 +7268,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI68" t="e">
-        <f>VLOOKUP(U68,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ68" t="e">
@@ -8497,7 +7279,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL68" t="e">
-        <f>VLOOKUP(AK68,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM68" t="e">
@@ -8505,7 +7286,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN68" t="e">
-        <f>VLOOKUP(Z68,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO68">
@@ -8530,21 +7310,20 @@
         <v>63</v>
       </c>
       <c r="B69" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D69" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="U69" t="e">
-        <f>VLOOKUP($A69,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V69" t="str">
         <f t="shared" si="28"/>
-        <v>汇兑收益（损失以“-”号填列）</v>
+        <v>财务费用</v>
       </c>
       <c r="W69" t="e">
         <f t="shared" si="29"/>
@@ -8571,7 +7350,6 @@
         <v>0</v>
       </c>
       <c r="AE69" t="e">
-        <f>VLOOKUP(V69,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF69" t="e">
@@ -8587,7 +7365,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI69" t="e">
-        <f>VLOOKUP(U69,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ69" t="e">
@@ -8599,7 +7376,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL69" t="e">
-        <f>VLOOKUP(AK69,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM69" t="e">
@@ -8607,7 +7383,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN69" t="e">
-        <f>VLOOKUP(Z69,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO69">
@@ -8632,21 +7407,20 @@
         <v>64</v>
       </c>
       <c r="B70" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D70" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="U70" t="e">
-        <f>VLOOKUP($A70,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V70" t="str">
         <f t="shared" si="28"/>
-        <v>公允价值变动收益（损失以“-”号填列）</v>
+        <v>公允价值变动收益（损失以“－”号填列）</v>
       </c>
       <c r="W70" t="e">
         <f t="shared" si="29"/>
@@ -8673,7 +7447,6 @@
         <v>0</v>
       </c>
       <c r="AE70" t="e">
-        <f>VLOOKUP(V70,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF70" t="e">
@@ -8689,7 +7462,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI70" t="e">
-        <f>VLOOKUP(U70,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ70" t="e">
@@ -8701,7 +7473,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL70" t="e">
-        <f>VLOOKUP(AK70,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM70" t="e">
@@ -8709,7 +7480,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN70" t="e">
-        <f>VLOOKUP(Z70,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO70">
@@ -8734,21 +7504,20 @@
         <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D71" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="U71" t="e">
-        <f>VLOOKUP($A71,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V71" t="str">
         <f t="shared" si="28"/>
-        <v>投资收益（损失以“-”号填列）</v>
+        <v>投资收益（损失以“－”号填列）</v>
       </c>
       <c r="W71" t="e">
         <f t="shared" si="29"/>
@@ -8775,7 +7544,6 @@
         <v>0</v>
       </c>
       <c r="AE71" t="e">
-        <f>VLOOKUP(V71,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF71" t="e">
@@ -8791,7 +7559,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI71" t="e">
-        <f>VLOOKUP(U71,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ71" t="e">
@@ -8803,7 +7570,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL71" t="e">
-        <f>VLOOKUP(AK71,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM71" t="e">
@@ -8811,7 +7577,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN71" t="e">
-        <f>VLOOKUP(Z71,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO71">
@@ -8836,21 +7601,20 @@
         <v>66</v>
       </c>
       <c r="B72" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D72" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="U72" t="e">
-        <f>VLOOKUP($A72,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V72" t="str">
         <f t="shared" si="28"/>
-        <v>营业外收入</v>
+        <v>加: 营业外收入</v>
       </c>
       <c r="W72" t="e">
         <f t="shared" si="29"/>
@@ -8877,7 +7641,6 @@
         <v>0</v>
       </c>
       <c r="AE72" t="e">
-        <f>VLOOKUP(V72,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF72" t="e">
@@ -8893,7 +7656,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI72" t="e">
-        <f>VLOOKUP(U72,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ72" t="e">
@@ -8905,7 +7667,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL72" t="e">
-        <f>VLOOKUP(AK72,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM72" t="e">
@@ -8913,7 +7674,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN72" t="e">
-        <f>VLOOKUP(Z72,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO72">
@@ -8938,21 +7698,20 @@
         <v>67</v>
       </c>
       <c r="B73" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D73" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="U73" t="e">
-        <f>VLOOKUP($A73,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V73" t="str">
         <f t="shared" si="28"/>
-        <v>营业成本</v>
+        <v>减：营业成本</v>
       </c>
       <c r="W73" t="e">
         <f t="shared" si="29"/>
@@ -8979,7 +7738,6 @@
         <v>0</v>
       </c>
       <c r="AE73" t="e">
-        <f>VLOOKUP(V73,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF73" t="e">
@@ -8995,7 +7753,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI73" t="e">
-        <f>VLOOKUP(U73,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ73" t="e">
@@ -9007,7 +7764,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL73" t="e">
-        <f>VLOOKUP(AK73,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM73" t="e">
@@ -9015,7 +7771,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN73" t="e">
-        <f>VLOOKUP(Z73,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO73">
@@ -9039,22 +7794,21 @@
       <c r="A74" t="s">
         <v>68</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>100</v>
+      <c r="B74" t="s">
+        <v>165</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D74" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="U74" t="e">
-        <f>VLOOKUP($A74,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V74" t="str">
         <f t="shared" si="28"/>
-        <v>营业成本</v>
+        <v>减：营业成本</v>
       </c>
       <c r="W74" t="e">
         <f t="shared" si="29"/>
@@ -9081,7 +7835,6 @@
         <v>0</v>
       </c>
       <c r="AE74" t="e">
-        <f>VLOOKUP(V74,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF74" t="e">
@@ -9097,7 +7850,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI74" t="e">
-        <f>VLOOKUP(U74,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ74" t="e">
@@ -9109,7 +7861,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL74" t="e">
-        <f>VLOOKUP(AK74,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM74" t="e">
@@ -9117,7 +7868,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN74" t="e">
-        <f>VLOOKUP(Z74,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO74">
@@ -9142,21 +7892,20 @@
         <v>69</v>
       </c>
       <c r="B75" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="C75" t="s">
         <v>69</v>
       </c>
       <c r="D75" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="U75" t="e">
-        <f>VLOOKUP($A75,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V75" t="str">
         <f t="shared" si="28"/>
-        <v>营业税金及附加</v>
+        <v>税金及附加</v>
       </c>
       <c r="W75" t="e">
         <f t="shared" si="29"/>
@@ -9183,7 +7932,6 @@
         <v>0</v>
       </c>
       <c r="AE75" t="e">
-        <f>VLOOKUP(V75,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF75" t="e">
@@ -9199,7 +7947,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI75" t="e">
-        <f>VLOOKUP(U75,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ75" t="e">
@@ -9211,7 +7958,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL75" t="e">
-        <f>VLOOKUP(AK75,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM75" t="e">
@@ -9219,7 +7965,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN75" t="e">
-        <f>VLOOKUP(Z75,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO75">
@@ -9244,21 +7989,20 @@
         <v>70</v>
       </c>
       <c r="B76" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D76" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="U76" t="e">
-        <f>VLOOKUP($A76,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V76" t="str">
         <f t="shared" si="28"/>
-        <v>利息支出</v>
+        <v>财务费用</v>
       </c>
       <c r="W76" t="e">
         <f t="shared" si="29"/>
@@ -9285,7 +8029,6 @@
         <v>0</v>
       </c>
       <c r="AE76" t="e">
-        <f>VLOOKUP(V76,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF76" t="e">
@@ -9301,7 +8044,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI76" t="e">
-        <f>VLOOKUP(U76,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ76" t="e">
@@ -9313,7 +8055,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL76" t="e">
-        <f>VLOOKUP(AK76,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM76" t="e">
@@ -9321,7 +8062,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN76" t="e">
-        <f>VLOOKUP(Z76,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO76">
@@ -9346,16 +8086,15 @@
         <v>71</v>
       </c>
       <c r="B77" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="U77" t="e">
-        <f>VLOOKUP($A77,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V77" t="str">
@@ -9387,7 +8126,6 @@
         <v>0</v>
       </c>
       <c r="AE77" t="e">
-        <f>VLOOKUP(V77,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF77" t="e">
@@ -9403,7 +8141,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI77" t="e">
-        <f>VLOOKUP(U77,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ77" t="e">
@@ -9415,7 +8152,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL77" t="e">
-        <f>VLOOKUP(AK77,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM77" t="e">
@@ -9423,7 +8159,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN77" t="e">
-        <f>VLOOKUP(Z77,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO77">
@@ -9448,16 +8183,15 @@
         <v>72</v>
       </c>
       <c r="B78" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="C78" t="s">
         <v>72</v>
       </c>
       <c r="D78" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="U78" t="e">
-        <f>VLOOKUP($A78,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V78" t="str">
@@ -9489,7 +8223,6 @@
         <v>0</v>
       </c>
       <c r="AE78" t="e">
-        <f>VLOOKUP(V78,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF78" t="e">
@@ -9505,7 +8238,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI78" t="e">
-        <f>VLOOKUP(U78,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ78" t="e">
@@ -9517,7 +8249,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL78" t="e">
-        <f>VLOOKUP(AK78,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM78" t="e">
@@ -9525,7 +8256,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN78" t="e">
-        <f>VLOOKUP(Z78,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO78">
@@ -9547,16 +8277,16 @@
     </row>
     <row r="79" spans="1:44">
       <c r="A79" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B79" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="C79" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D79" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:44">
@@ -9564,16 +8294,15 @@
         <v>73</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="C80" t="s">
         <v>73</v>
       </c>
       <c r="D80" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="U80" t="e">
-        <f>VLOOKUP($A80,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V80" t="str">
@@ -9605,7 +8334,6 @@
         <v>0</v>
       </c>
       <c r="AE80" t="e">
-        <f>VLOOKUP(V80,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF80" t="e">
@@ -9621,7 +8349,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI80" t="e">
-        <f>VLOOKUP(U80,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ80" t="e">
@@ -9633,7 +8360,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL80" t="e">
-        <f>VLOOKUP(AK80,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM80" t="e">
@@ -9641,7 +8367,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN80" t="e">
-        <f>VLOOKUP(Z80,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO80">
@@ -9666,21 +8391,20 @@
         <v>74</v>
       </c>
       <c r="B81" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="C81" t="s">
         <v>74</v>
       </c>
       <c r="D81" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="U81" t="e">
-        <f>VLOOKUP($A81,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V81" t="str">
         <f t="shared" si="28"/>
-        <v>资产减值损失</v>
+        <v>资产减值损失（损失以“－”号填列）</v>
       </c>
       <c r="W81" t="e">
         <f t="shared" si="29"/>
@@ -9707,7 +8431,6 @@
         <v>0</v>
       </c>
       <c r="AE81" t="e">
-        <f>VLOOKUP(V81,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF81" t="e">
@@ -9723,7 +8446,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI81" t="e">
-        <f>VLOOKUP(U81,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ81" t="e">
@@ -9735,7 +8457,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL81" t="e">
-        <f>VLOOKUP(AK81,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM81" t="e">
@@ -9743,7 +8464,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN81" t="e">
-        <f>VLOOKUP(Z81,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO81">
@@ -9768,21 +8488,20 @@
         <v>75</v>
       </c>
       <c r="B82" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D82" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="U82" t="e">
-        <f>VLOOKUP($A82,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V82" t="str">
         <f t="shared" si="28"/>
-        <v>营业外支出</v>
+        <v>减：营业外支出</v>
       </c>
       <c r="W82" t="e">
         <f t="shared" si="29"/>
@@ -9809,7 +8528,6 @@
         <v>0</v>
       </c>
       <c r="AE82" t="e">
-        <f>VLOOKUP(V82,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF82" t="e">
@@ -9825,7 +8543,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI82" t="e">
-        <f>VLOOKUP(U82,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ82" t="e">
@@ -9837,7 +8554,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL82" t="e">
-        <f>VLOOKUP(AK82,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM82" t="e">
@@ -9845,7 +8561,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN82" t="e">
-        <f>VLOOKUP(Z82,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO82">
@@ -9870,21 +8585,20 @@
         <v>76</v>
       </c>
       <c r="B83" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D83" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="U83" t="e">
-        <f>VLOOKUP($A83,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V83" t="str">
         <f t="shared" si="28"/>
-        <v>所得税费用</v>
+        <v>减：所得税费用</v>
       </c>
       <c r="W83" t="e">
         <f t="shared" si="29"/>
@@ -9911,7 +8625,6 @@
         <v>0</v>
       </c>
       <c r="AE83" t="e">
-        <f>VLOOKUP(V83,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF83" t="e">
@@ -9927,7 +8640,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI83" t="e">
-        <f>VLOOKUP(U83,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ83" t="e">
@@ -9939,7 +8651,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL83" t="e">
-        <f>VLOOKUP(AK83,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM83" t="e">
@@ -9947,7 +8658,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN83" t="e">
-        <f>VLOOKUP(Z83,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO83">
@@ -9969,7 +8679,6 @@
     </row>
     <row r="84" spans="1:44">
       <c r="U84" t="e">
-        <f>VLOOKUP($A84,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V84" t="str">
@@ -10001,7 +8710,6 @@
         <v>0</v>
       </c>
       <c r="AE84" t="e">
-        <f>VLOOKUP(V84,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF84" t="e">
@@ -10017,7 +8725,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI84" t="e">
-        <f>VLOOKUP(U84,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ84" t="e">
@@ -10029,7 +8736,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL84" t="e">
-        <f>VLOOKUP(AK84,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM84" t="e">
@@ -10037,7 +8743,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN84" t="e">
-        <f>VLOOKUP(Z84,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO84">
@@ -10059,13 +8764,12 @@
     </row>
     <row r="85" spans="1:44">
       <c r="A85" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="U85" t="e">
-        <f>VLOOKUP($A85,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V85" t="str">
@@ -10097,7 +8801,6 @@
         <v>0</v>
       </c>
       <c r="AE85" t="e">
-        <f>VLOOKUP(V85,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF85" t="e">
@@ -10113,7 +8816,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI85" t="e">
-        <f>VLOOKUP(U85,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ85" t="e">
@@ -10125,7 +8827,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL85" t="e">
-        <f>VLOOKUP(AK85,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM85" t="e">
@@ -10133,7 +8834,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN85" t="e">
-        <f>VLOOKUP(Z85,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO85">
@@ -10158,21 +8858,20 @@
         <v>57</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D86" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="U86" t="e">
-        <f>VLOOKUP($A86,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V86" t="str">
         <f>TRIM($B86)</f>
-        <v>年初未分配利润（调整后）</v>
+        <v>未分配利润</v>
       </c>
       <c r="W86" t="e">
         <f>_xlfn.IFNA(AE86,AH86)</f>
@@ -10199,7 +8898,6 @@
         <v>0</v>
       </c>
       <c r="AE86" t="e">
-        <f>VLOOKUP(V86,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF86" t="e">
@@ -10215,7 +8913,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI86" t="e">
-        <f>VLOOKUP(U86,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ86" t="e">
@@ -10227,7 +8924,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL86" t="e">
-        <f>VLOOKUP(AK86,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM86" t="e">
@@ -10235,7 +8931,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN86" t="e">
-        <f>VLOOKUP(Z86,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO86">
@@ -10257,24 +8952,23 @@
     </row>
     <row r="87" spans="1:44">
       <c r="A87" t="s">
-        <v>111</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>140</v>
+        <v>104</v>
+      </c>
+      <c r="B87" t="s">
+        <v>104</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D87" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="U87" t="e">
-        <f>VLOOKUP($A87,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V87" t="str">
         <f t="shared" si="28"/>
-        <v>年初未分配利润（调整后）</v>
+        <v>本年利润抵消明细</v>
       </c>
       <c r="W87" t="e">
         <f t="shared" si="29"/>
@@ -10301,7 +8995,6 @@
         <v>0</v>
       </c>
       <c r="AE87" t="e">
-        <f>VLOOKUP(V87,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF87" t="e">
@@ -10317,7 +9010,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI87" t="e">
-        <f>VLOOKUP(U87,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ87" t="e">
@@ -10329,7 +9021,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL87" t="e">
-        <f>VLOOKUP(AK87,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM87" t="e">
@@ -10337,7 +9028,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN87" t="e">
-        <f>VLOOKUP(Z87,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO87">
@@ -10359,19 +9049,18 @@
     </row>
     <row r="88" spans="1:44">
       <c r="A88" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B88" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C88" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D88" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U88" t="e">
-        <f>VLOOKUP($A88,[1]Basic!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="V88" t="str">
@@ -10403,7 +9092,6 @@
         <v>0</v>
       </c>
       <c r="AE88" t="e">
-        <f>VLOOKUP(V88,[2]科目!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AF88" t="e">
@@ -10419,7 +9107,6 @@
         <v>#VALUE!</v>
       </c>
       <c r="AI88" t="e">
-        <f>VLOOKUP(U88,[1]Basic!$B:$C,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AJ88" t="e">
@@ -10431,7 +9118,6 @@
         <v>#N/A</v>
       </c>
       <c r="AL88" t="e">
-        <f>VLOOKUP(AK88,[1]FX!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AM88" t="e">
@@ -10439,7 +9125,6 @@
         <v>#N/A</v>
       </c>
       <c r="AN88" t="e">
-        <f>VLOOKUP(Z88,[1]History!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="AO88">
@@ -10461,30 +9146,30 @@
     </row>
     <row r="89" spans="1:44">
       <c r="A89" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B89" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C89" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D89" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:44">
       <c r="A90" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B90" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="C90" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D90" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/00框架文件/03MR.xlsx
+++ b/00框架文件/03MR.xlsx
@@ -2,13 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACB6B96-D07B-404F-BB74-312C2A853E62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9B849F-7791-48E5-8820-7BAF670624F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="科目" sheetId="1" r:id="rId1"/>
+    <sheet name="报表筛选" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">科目!$A$1:$G$90</definedName>
@@ -23,16 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="236">
   <si>
     <t>报表科目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参考辅助表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>库存现金</t>
   </si>
   <si>
@@ -616,6 +613,169 @@
   </si>
   <si>
     <t xml:space="preserve">         投资收益（损失以“－”号填列）</t>
+  </si>
+  <si>
+    <t>资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一、营业收入</t>
+  </si>
+  <si>
+    <t>交易性金融资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易性金融负债</t>
+  </si>
+  <si>
+    <t>减：营业成本</t>
+  </si>
+  <si>
+    <t>衍生金融资产</t>
+  </si>
+  <si>
+    <t>衍生金融负债</t>
+  </si>
+  <si>
+    <t>税金及附加</t>
+  </si>
+  <si>
+    <t>应收款项融资</t>
+  </si>
+  <si>
+    <t>研发费用</t>
+  </si>
+  <si>
+    <t>合同负债</t>
+  </si>
+  <si>
+    <t>加：其他收益</t>
+  </si>
+  <si>
+    <t>投资收益（损失以“－”号填列）</t>
+  </si>
+  <si>
+    <t>合同资产</t>
+  </si>
+  <si>
+    <t>以摊余成本计量的金融资产终止确认收益（损失以“－”号填列）</t>
+  </si>
+  <si>
+    <t>持有代售资产</t>
+  </si>
+  <si>
+    <t>持有代售负债</t>
+  </si>
+  <si>
+    <t>净敞口套期收益（损失以“－”号填列）</t>
+  </si>
+  <si>
+    <t>一年内到期的非流动资产</t>
+  </si>
+  <si>
+    <t>一年内到期的非流动负债</t>
+  </si>
+  <si>
+    <t>公允价值变动收益（损失以“－”号填列）</t>
+  </si>
+  <si>
+    <t>其他流动资产</t>
+  </si>
+  <si>
+    <t>其他流动负债</t>
+  </si>
+  <si>
+    <t>信用减值损失（损失以“－”号填列）</t>
+  </si>
+  <si>
+    <t>债权投资</t>
+  </si>
+  <si>
+    <t>资产减值损失（损失以“－”号填列）</t>
+  </si>
+  <si>
+    <t>其他债权投资</t>
+  </si>
+  <si>
+    <t>应付债券</t>
+  </si>
+  <si>
+    <t>资产处置收益（损失以“－”号填列）</t>
+  </si>
+  <si>
+    <t>其中：优先股</t>
+  </si>
+  <si>
+    <t>永续债</t>
+  </si>
+  <si>
+    <t>其他权益工具投资</t>
+  </si>
+  <si>
+    <t>减：所得税费用</t>
+  </si>
+  <si>
+    <t>其他非流动金融资产</t>
+  </si>
+  <si>
+    <t>投资性房地产</t>
+  </si>
+  <si>
+    <t>生产性生物资产</t>
+  </si>
+  <si>
+    <t>其他非流动负债</t>
+  </si>
+  <si>
+    <t>油气资产</t>
+  </si>
+  <si>
+    <t>实收资本(或股本)</t>
+  </si>
+  <si>
+    <t>使用权资产</t>
+  </si>
+  <si>
+    <t>其他权益工具</t>
+  </si>
+  <si>
+    <t>开发支出</t>
+  </si>
+  <si>
+    <t>减:库存股</t>
+  </si>
+  <si>
+    <t>其他综合收益</t>
+  </si>
+  <si>
+    <t>其他非流动资产</t>
+  </si>
+  <si>
+    <t>专项储备</t>
+  </si>
+  <si>
+    <t>未分配利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加: 营业外收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表正负</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    未分配利润</t>
   </si>
 </sst>
 </file>
@@ -673,11 +833,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -958,13 +1120,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AR90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B87" sqref="B87"/>
+      <selection pane="bottomRight" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -977,99 +1140,102 @@
   <sheetData>
     <row r="1" spans="1:44">
       <c r="A1" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>234</v>
       </c>
       <c r="U1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V1" t="s">
         <v>107</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>108</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z1" t="s">
         <v>109</v>
       </c>
-      <c r="X1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>110</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>111</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF1" t="s">
         <v>112</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH1" t="s">
         <v>123</v>
       </c>
-      <c r="AF1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>114</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN1" t="s">
         <v>124</v>
       </c>
-      <c r="AI1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP1" t="s">
         <v>119</v>
       </c>
-      <c r="AN1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>120</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>121</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:44">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="U2" t="e">
         <v>#N/A</v>
@@ -1157,16 +1323,19 @@
     </row>
     <row r="3" spans="1:44">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="U3" t="e">
         <v>#N/A</v>
@@ -1254,16 +1423,19 @@
     </row>
     <row r="4" spans="1:44">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
       <c r="U4" t="e">
         <v>#N/A</v>
@@ -1351,16 +1523,19 @@
     </row>
     <row r="5" spans="1:44">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="U5" t="e">
         <v>#N/A</v>
@@ -1448,16 +1623,19 @@
     </row>
     <row r="6" spans="1:44">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="U6" t="e">
         <v>#N/A</v>
@@ -1545,16 +1723,19 @@
     </row>
     <row r="7" spans="1:44">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="U7" t="e">
         <v>#N/A</v>
@@ -1642,30 +1823,36 @@
     </row>
     <row r="8" spans="1:44">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:44">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="U9" t="e">
         <v>#N/A</v>
@@ -1753,16 +1940,19 @@
     </row>
     <row r="10" spans="1:44">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="U10" t="e">
         <v>#N/A</v>
@@ -1850,16 +2040,19 @@
     </row>
     <row r="11" spans="1:44">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="U11" t="e">
         <v>#N/A</v>
@@ -1947,16 +2140,19 @@
     </row>
     <row r="12" spans="1:44">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
       <c r="U12" t="e">
         <v>#N/A</v>
@@ -2044,16 +2240,19 @@
     </row>
     <row r="13" spans="1:44">
       <c r="A13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
       </c>
       <c r="U13" t="e">
         <v>#N/A</v>
@@ -2141,16 +2340,19 @@
     </row>
     <row r="14" spans="1:44">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
       </c>
       <c r="U14" t="e">
         <v>#N/A</v>
@@ -2238,16 +2440,19 @@
     </row>
     <row r="15" spans="1:44">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
       </c>
       <c r="U15" t="e">
         <v>#N/A</v>
@@ -2335,16 +2540,19 @@
     </row>
     <row r="16" spans="1:44">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
       </c>
       <c r="U16" t="e">
         <v>#N/A</v>
@@ -2432,30 +2640,36 @@
     </row>
     <row r="17" spans="1:44">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:44">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
       </c>
       <c r="U18" t="e">
         <v>#N/A</v>
@@ -2543,16 +2757,19 @@
     </row>
     <row r="19" spans="1:44">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
       </c>
       <c r="U19" t="e">
         <v>#N/A</v>
@@ -2640,16 +2857,19 @@
     </row>
     <row r="20" spans="1:44">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
       </c>
       <c r="U20" t="e">
         <v>#N/A</v>
@@ -2737,16 +2957,19 @@
     </row>
     <row r="21" spans="1:44">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
       </c>
       <c r="U21" t="e">
         <v>#N/A</v>
@@ -2834,16 +3057,19 @@
     </row>
     <row r="22" spans="1:44">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
       </c>
       <c r="U22" t="e">
         <v>#N/A</v>
@@ -2931,16 +3157,19 @@
     </row>
     <row r="23" spans="1:44">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
       </c>
       <c r="U23" t="e">
         <v>#N/A</v>
@@ -3028,16 +3257,19 @@
     </row>
     <row r="24" spans="1:44">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
       </c>
       <c r="U24" t="e">
         <v>#N/A</v>
@@ -3125,16 +3357,19 @@
     </row>
     <row r="25" spans="1:44">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
       </c>
       <c r="U25" t="e">
         <v>#N/A</v>
@@ -3222,16 +3457,19 @@
     </row>
     <row r="26" spans="1:44">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
       </c>
       <c r="U26" t="e">
         <v>#N/A</v>
@@ -3319,16 +3557,19 @@
     </row>
     <row r="27" spans="1:44">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
       </c>
       <c r="U27" t="e">
         <v>#N/A</v>
@@ -3416,16 +3657,19 @@
     </row>
     <row r="28" spans="1:44">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
       </c>
       <c r="U28" t="e">
         <v>#N/A</v>
@@ -3513,16 +3757,19 @@
     </row>
     <row r="29" spans="1:44">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
       </c>
       <c r="U29" t="e">
         <v>#N/A</v>
@@ -3610,30 +3857,36 @@
     </row>
     <row r="30" spans="1:44">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:44">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
       </c>
       <c r="U31" t="e">
         <v>#N/A</v>
@@ -3721,16 +3974,19 @@
     </row>
     <row r="32" spans="1:44">
       <c r="A32" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
       </c>
       <c r="U32" t="e">
         <v>#N/A</v>
@@ -3818,16 +4074,19 @@
     </row>
     <row r="33" spans="1:44">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
       </c>
       <c r="U33" t="e">
         <v>#N/A</v>
@@ -3915,16 +4174,19 @@
     </row>
     <row r="34" spans="1:44">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
       </c>
       <c r="U34" t="e">
         <v>#N/A</v>
@@ -4012,16 +4274,19 @@
     </row>
     <row r="35" spans="1:44">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
       </c>
       <c r="U35" t="e">
         <v>#N/A</v>
@@ -4109,16 +4374,19 @@
     </row>
     <row r="36" spans="1:44">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
       </c>
       <c r="U36" t="e">
         <v>#N/A</v>
@@ -4206,16 +4474,19 @@
     </row>
     <row r="37" spans="1:44">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
       </c>
       <c r="U37" t="e">
         <v>#N/A</v>
@@ -4303,16 +4574,19 @@
     </row>
     <row r="38" spans="1:44">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
       </c>
       <c r="U38" t="e">
         <v>#N/A</v>
@@ -4400,16 +4674,19 @@
     </row>
     <row r="39" spans="1:44">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
       </c>
       <c r="U39" t="e">
         <v>#N/A</v>
@@ -4497,16 +4774,19 @@
     </row>
     <row r="40" spans="1:44">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
       </c>
       <c r="U40" t="e">
         <v>#N/A</v>
@@ -4594,16 +4874,19 @@
     </row>
     <row r="41" spans="1:44">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
       </c>
       <c r="U41" t="e">
         <v>#N/A</v>
@@ -4691,16 +4974,19 @@
     </row>
     <row r="42" spans="1:44">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D42" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
       </c>
       <c r="U42" t="e">
         <v>#N/A</v>
@@ -4788,16 +5074,19 @@
     </row>
     <row r="43" spans="1:44">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
       </c>
       <c r="U43" t="e">
         <v>#N/A</v>
@@ -4885,16 +5174,19 @@
     </row>
     <row r="44" spans="1:44">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
       </c>
       <c r="U44" t="e">
         <v>#N/A</v>
@@ -4982,16 +5274,19 @@
     </row>
     <row r="45" spans="1:44">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E45">
+        <v>-1</v>
       </c>
       <c r="U45" t="e">
         <v>#N/A</v>
@@ -5079,16 +5374,19 @@
     </row>
     <row r="46" spans="1:44">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E46">
+        <v>-1</v>
       </c>
       <c r="U46" t="e">
         <v>#N/A</v>
@@ -5176,16 +5474,19 @@
     </row>
     <row r="47" spans="1:44">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D47" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E47">
+        <v>-1</v>
       </c>
       <c r="U47" t="e">
         <v>#N/A</v>
@@ -5273,16 +5574,19 @@
     </row>
     <row r="48" spans="1:44">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D48" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E48">
+        <v>-1</v>
       </c>
       <c r="U48" t="e">
         <v>#N/A</v>
@@ -5370,16 +5674,19 @@
     </row>
     <row r="49" spans="1:44">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D49" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E49">
+        <v>-1</v>
       </c>
       <c r="U49" t="e">
         <v>#N/A</v>
@@ -5467,16 +5774,19 @@
     </row>
     <row r="50" spans="1:44">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E50">
+        <v>-1</v>
       </c>
       <c r="U50" t="e">
         <v>#N/A</v>
@@ -5564,16 +5874,19 @@
     </row>
     <row r="51" spans="1:44">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D51" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E51">
+        <v>-1</v>
       </c>
       <c r="U51" t="e">
         <v>#N/A</v>
@@ -5661,16 +5974,19 @@
     </row>
     <row r="52" spans="1:44">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D52" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E52">
+        <v>-1</v>
       </c>
       <c r="U52" t="e">
         <v>#N/A</v>
@@ -5758,16 +6074,19 @@
     </row>
     <row r="53" spans="1:44">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D53" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E53">
+        <v>-1</v>
       </c>
       <c r="U53" t="e">
         <v>#N/A</v>
@@ -5855,13 +6174,16 @@
     </row>
     <row r="54" spans="1:44">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D54" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E54">
+        <v>-1</v>
       </c>
       <c r="U54" t="e">
         <v>#N/A</v>
@@ -5949,16 +6271,19 @@
     </row>
     <row r="55" spans="1:44">
       <c r="A55" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D55" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E55">
+        <v>-1</v>
       </c>
       <c r="U55" t="e">
         <v>#N/A</v>
@@ -6046,16 +6371,19 @@
     </row>
     <row r="56" spans="1:44">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D56" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E56">
+        <v>-1</v>
       </c>
       <c r="U56" t="e">
         <v>#N/A</v>
@@ -6143,16 +6471,19 @@
     </row>
     <row r="57" spans="1:44">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D57" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E57">
+        <v>-1</v>
       </c>
       <c r="U57" t="e">
         <v>#N/A</v>
@@ -6240,16 +6571,19 @@
     </row>
     <row r="58" spans="1:44">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D58" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E58">
+        <v>-1</v>
       </c>
       <c r="U58" t="e">
         <v>#N/A</v>
@@ -6337,16 +6671,19 @@
     </row>
     <row r="59" spans="1:44">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D59" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="E59">
+        <v>-1</v>
       </c>
       <c r="U59" t="e">
         <v>#N/A</v>
@@ -6434,16 +6771,19 @@
     </row>
     <row r="60" spans="1:44">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D60" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="E60">
+        <v>-1</v>
       </c>
       <c r="U60" t="e">
         <v>#N/A</v>
@@ -6531,16 +6871,19 @@
     </row>
     <row r="61" spans="1:44">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D61" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="E61">
+        <v>-1</v>
       </c>
       <c r="U61" t="e">
         <v>#N/A</v>
@@ -6628,16 +6971,19 @@
     </row>
     <row r="62" spans="1:44">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D62" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="E62">
+        <v>-1</v>
       </c>
       <c r="U62" t="e">
         <v>#N/A</v>
@@ -6725,16 +7071,19 @@
     </row>
     <row r="63" spans="1:44">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D63" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="E63">
+        <v>-1</v>
       </c>
       <c r="U63" t="e">
         <v>#N/A</v>
@@ -6822,16 +7171,19 @@
     </row>
     <row r="64" spans="1:44">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D64" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
       </c>
       <c r="U64" t="e">
         <v>#N/A</v>
@@ -6919,16 +7271,19 @@
     </row>
     <row r="65" spans="1:44">
       <c r="A65" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D65" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="E65">
+        <v>-1</v>
       </c>
       <c r="U65" t="e">
         <v>#N/A</v>
@@ -7016,16 +7371,19 @@
     </row>
     <row r="66" spans="1:44">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D66" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="E66">
+        <v>-1</v>
       </c>
       <c r="U66" t="e">
         <v>#N/A</v>
@@ -7113,16 +7471,19 @@
     </row>
     <row r="67" spans="1:44">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D67" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
       </c>
       <c r="U67" t="e">
         <v>#N/A</v>
@@ -7210,16 +7571,19 @@
     </row>
     <row r="68" spans="1:44">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D68" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="E68">
+        <v>-1</v>
       </c>
       <c r="U68" t="e">
         <v>#N/A</v>
@@ -7307,16 +7671,19 @@
     </row>
     <row r="69" spans="1:44">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D69" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
       </c>
       <c r="U69" t="e">
         <v>#N/A</v>
@@ -7404,16 +7771,19 @@
     </row>
     <row r="70" spans="1:44">
       <c r="A70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="E70">
+        <v>-1</v>
       </c>
       <c r="U70" t="e">
         <v>#N/A</v>
@@ -7501,16 +7871,19 @@
     </row>
     <row r="71" spans="1:44">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D71" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="E71">
+        <v>-1</v>
       </c>
       <c r="U71" t="e">
         <v>#N/A</v>
@@ -7598,16 +7971,19 @@
     </row>
     <row r="72" spans="1:44">
       <c r="A72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D72" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="E72">
+        <v>-1</v>
       </c>
       <c r="U72" t="e">
         <v>#N/A</v>
@@ -7695,16 +8071,19 @@
     </row>
     <row r="73" spans="1:44">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D73" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
       </c>
       <c r="U73" t="e">
         <v>#N/A</v>
@@ -7792,16 +8171,19 @@
     </row>
     <row r="74" spans="1:44">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D74" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
       </c>
       <c r="U74" t="e">
         <v>#N/A</v>
@@ -7889,16 +8271,19 @@
     </row>
     <row r="75" spans="1:44">
       <c r="A75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D75" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
       </c>
       <c r="U75" t="e">
         <v>#N/A</v>
@@ -7986,16 +8371,19 @@
     </row>
     <row r="76" spans="1:44">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D76" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
       </c>
       <c r="U76" t="e">
         <v>#N/A</v>
@@ -8083,16 +8471,19 @@
     </row>
     <row r="77" spans="1:44">
       <c r="A77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B77" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D77" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
       </c>
       <c r="U77" t="e">
         <v>#N/A</v>
@@ -8180,16 +8571,19 @@
     </row>
     <row r="78" spans="1:44">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B78" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C78" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D78" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
       </c>
       <c r="U78" t="e">
         <v>#N/A</v>
@@ -8277,30 +8671,36 @@
     </row>
     <row r="79" spans="1:44">
       <c r="A79" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C79" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D79" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:44">
       <c r="A80" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B80" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C80" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D80" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
       </c>
       <c r="U80" t="e">
         <v>#N/A</v>
@@ -8388,16 +8788,19 @@
     </row>
     <row r="81" spans="1:44">
       <c r="A81" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C81" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D81" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="E81">
+        <v>-1</v>
       </c>
       <c r="U81" t="e">
         <v>#N/A</v>
@@ -8485,16 +8888,19 @@
     </row>
     <row r="82" spans="1:44">
       <c r="A82" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B82" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D82" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
       </c>
       <c r="U82" t="e">
         <v>#N/A</v>
@@ -8582,16 +8988,19 @@
     </row>
     <row r="83" spans="1:44">
       <c r="A83" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B83" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
       </c>
       <c r="U83" t="e">
         <v>#N/A</v>
@@ -8764,10 +9173,10 @@
     </row>
     <row r="85" spans="1:44">
       <c r="A85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U85" t="e">
         <v>#N/A</v>
@@ -8855,16 +9264,19 @@
     </row>
     <row r="86" spans="1:44">
       <c r="A86" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D86" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="E86">
+        <v>-1</v>
       </c>
       <c r="U86" t="e">
         <v>#N/A</v>
@@ -8952,16 +9364,16 @@
     </row>
     <row r="87" spans="1:44">
       <c r="A87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D87" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U87" t="e">
         <v>#N/A</v>
@@ -9049,23 +9461,26 @@
     </row>
     <row r="88" spans="1:44">
       <c r="A88" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B88" t="s">
-        <v>106</v>
+        <v>235</v>
       </c>
       <c r="C88" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D88" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
       </c>
       <c r="U88" t="e">
         <v>#N/A</v>
       </c>
       <c r="V88" t="str">
         <f t="shared" si="28"/>
-        <v>外币报表折算差额</v>
+        <v>未分配利润</v>
       </c>
       <c r="W88" t="e">
         <f t="shared" si="29"/>
@@ -9146,30 +9561,36 @@
     </row>
     <row r="89" spans="1:44">
       <c r="A89" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C89" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D89" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="E89">
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:44">
       <c r="A90" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C90" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D90" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="E90">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -9178,4 +9599,540 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223F10AC-1346-4694-B4F4-56288D977667}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="3" width="25.625" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F34">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/00框架文件/03MR.xlsx
+++ b/00框架文件/03MR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9B849F-7791-48E5-8820-7BAF670624F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5E5B97-5A76-4548-B1C9-B95B97B70816}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="报表筛选" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">科目!$A$1:$G$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">科目!$A$1:$G$92</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="241">
   <si>
     <t>报表科目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -776,6 +776,21 @@
   </si>
   <si>
     <t xml:space="preserve">    未分配利润</t>
+  </si>
+  <si>
+    <t>代扣代缴特殊逻辑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其他应收款</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>委托加工商品</t>
+  </si>
+  <si>
+    <t>生产成本</t>
   </si>
 </sst>
 </file>
@@ -1121,13 +1136,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AR90"/>
+  <dimension ref="A1:AR93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B88" sqref="B88"/>
+      <selection pane="bottomRight" activeCell="B67" sqref="B67:E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1241,11 +1256,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="str">
-        <f t="shared" ref="V2:V36" si="0">TRIM($B2)</f>
+        <f t="shared" ref="V2:V37" si="0">TRIM($B2)</f>
         <v>货币资金</v>
       </c>
       <c r="W2" t="e">
-        <f t="shared" ref="W2:W36" si="1">_xlfn.IFNA(AE2,AH2)</f>
+        <f t="shared" ref="W2:W37" si="1">_xlfn.IFNA(AE2,AH2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="X2" t="e">
@@ -1257,30 +1272,30 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z2" t="e">
-        <f t="shared" ref="Z2:Z36" si="2">U2&amp;"\"&amp;$C2</f>
+        <f t="shared" ref="Z2:Z37" si="2">U2&amp;"\"&amp;$C2</f>
         <v>#N/A</v>
       </c>
       <c r="AA2">
-        <f t="shared" ref="AA2:AA36" si="3">IF($P2="借",$R2,-$R2)</f>
+        <f t="shared" ref="AA2:AA37" si="3">IF($P2="借",$R2,-$R2)</f>
         <v>0</v>
       </c>
       <c r="AB2">
-        <f t="shared" ref="AB2:AB36" si="4">_xlfn.IFNA(IF(AE2="重复明细",0,AO2),AO2)</f>
+        <f t="shared" ref="AB2:AB37" si="4">_xlfn.IFNA(IF(AE2="重复明细",0,AO2),AO2)</f>
         <v>0</v>
       </c>
       <c r="AE2" t="e">
         <v>#N/A</v>
       </c>
       <c r="AF2" t="e">
-        <f t="shared" ref="AF2:AF36" si="5">FIND("\",$C2)</f>
+        <f t="shared" ref="AF2:AF37" si="5">FIND("\",$C2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AG2">
-        <f t="shared" ref="AG2:AG36" si="6">IFERROR(FIND("\",$C2,AF2+1),1000)</f>
+        <f t="shared" ref="AG2:AG37" si="6">IFERROR(FIND("\",$C2,AF2+1),1000)</f>
         <v>1000</v>
       </c>
       <c r="AH2" t="e">
-        <f t="shared" ref="AH2:AH36" si="7">MID($C2,AF2+1,AG2-AF2-1)</f>
+        <f t="shared" ref="AH2:AH37" si="7">MID($C2,AF2+1,AG2-AF2-1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AI2" t="e">
@@ -1291,33 +1306,33 @@
         <v>#VALUE!</v>
       </c>
       <c r="AK2" t="e">
-        <f t="shared" ref="AK2:AK36" si="8">AI2&amp;"/"&amp;AJ2</f>
+        <f t="shared" ref="AK2:AK37" si="8">AI2&amp;"/"&amp;AJ2</f>
         <v>#N/A</v>
       </c>
       <c r="AL2" t="e">
         <v>#N/A</v>
       </c>
       <c r="AM2" t="e">
-        <f t="shared" ref="AM2:AM36" si="9">ROUND(AA2*AL2,2)</f>
+        <f t="shared" ref="AM2:AM37" si="9">ROUND(AA2*AL2,2)</f>
         <v>#N/A</v>
       </c>
       <c r="AN2" t="e">
         <v>#N/A</v>
       </c>
       <c r="AO2">
-        <f t="shared" ref="AO2:AO36" si="10">IFERROR(_xlfn.IFNA(AM2,AN2),0)</f>
+        <f t="shared" ref="AO2:AO37" si="10">IFERROR(_xlfn.IFNA(AM2,AN2),0)</f>
         <v>0</v>
       </c>
       <c r="AP2" t="e">
-        <f t="shared" ref="AP2:AP36" si="11">FIND("]",AO2)</f>
+        <f t="shared" ref="AP2:AP37" si="11">FIND("]",AO2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AQ2" t="e">
-        <f t="shared" ref="AQ2:AQ36" si="12">FIND("#",AO2)</f>
+        <f t="shared" ref="AQ2:AQ37" si="12">FIND("#",AO2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AR2" t="e">
-        <f t="shared" ref="AR2:AR36" si="13">FIND("#",AO2,AQ2+1)</f>
+        <f t="shared" ref="AR2:AR37" si="13">FIND("#",AO2,AQ2+1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3257,13 +3272,13 @@
     </row>
     <row r="24" spans="1:44">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>80</v>
+      <c r="C24" t="s">
+        <v>77</v>
       </c>
       <c r="D24" t="s">
         <v>99</v>
@@ -3271,112 +3286,29 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="U24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V24" t="str">
+    </row>
+    <row r="25" spans="1:44">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="U25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V25" t="str">
         <f t="shared" si="0"/>
         <v>存货</v>
-      </c>
-      <c r="W24" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X24" t="e">
-        <f>VLOOKUP(W24,科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y24" t="e">
-        <f>VLOOKUP(W24,科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z24" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF24" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG24">
-        <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="AH24" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ24" t="e">
-        <f>VLOOKUP(W24,科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK24" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM24" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AO24">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AP24" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ24" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR24" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:44">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="U25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V25" t="str">
-        <f t="shared" si="0"/>
-        <v>持有至到期投资</v>
       </c>
       <c r="W25" t="e">
         <f t="shared" si="1"/>
@@ -3457,7 +3389,7 @@
     </row>
     <row r="26" spans="1:44">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
@@ -3557,13 +3489,13 @@
     </row>
     <row r="27" spans="1:44">
       <c r="A27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>125</v>
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
       </c>
       <c r="D27" t="s">
         <v>99</v>
@@ -3576,7 +3508,7 @@
       </c>
       <c r="V27" t="str">
         <f t="shared" si="0"/>
-        <v>其他权益工具投资</v>
+        <v>持有至到期投资</v>
       </c>
       <c r="W27" t="e">
         <f t="shared" si="1"/>
@@ -3657,13 +3589,13 @@
     </row>
     <row r="28" spans="1:44">
       <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C28" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="D28" t="s">
         <v>99</v>
@@ -3676,7 +3608,7 @@
       </c>
       <c r="V28" t="str">
         <f t="shared" si="0"/>
-        <v>长期股权投资</v>
+        <v>其他权益工具投资</v>
       </c>
       <c r="W28" t="e">
         <f t="shared" si="1"/>
@@ -3757,7 +3689,7 @@
     </row>
     <row r="29" spans="1:44">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>174</v>
@@ -3857,7 +3789,7 @@
     </row>
     <row r="30" spans="1:44">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>174</v>
@@ -3871,16 +3803,99 @@
       <c r="E30">
         <v>1</v>
       </c>
+      <c r="U30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V30" t="str">
+        <f t="shared" si="0"/>
+        <v>长期股权投资</v>
+      </c>
+      <c r="W30" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X30" t="e">
+        <f>VLOOKUP(W30,科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y30" t="e">
+        <f>VLOOKUP(W30,科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z30" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF30" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="AH30" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ30" t="e">
+        <f>VLOOKUP(W30,科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK30" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM30" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO30">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AP30" t="e">
+        <f t="shared" si="11"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ30" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR30" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="31" spans="1:44">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
         <v>99</v>
@@ -3888,112 +3903,29 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="U31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V31" t="str">
+    </row>
+    <row r="32" spans="1:44">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="U32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V32" t="str">
         <f t="shared" si="0"/>
         <v>长期应收款</v>
-      </c>
-      <c r="W31" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X31" t="e">
-        <f>VLOOKUP(W31,科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y31" t="e">
-        <f>VLOOKUP(W31,科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z31" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF31" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG31">
-        <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="AH31" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ31" t="e">
-        <f>VLOOKUP(W31,科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK31" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM31" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AO31">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AP31" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ31" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR31" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:44">
-      <c r="A32" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="U32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V32" t="str">
-        <f t="shared" si="0"/>
-        <v>使用权资产</v>
       </c>
       <c r="W32" t="e">
         <f t="shared" si="1"/>
@@ -4073,14 +4005,14 @@
       </c>
     </row>
     <row r="33" spans="1:44">
-      <c r="A33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" t="s">
-        <v>141</v>
+      <c r="A33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
         <v>99</v>
@@ -4093,7 +4025,7 @@
       </c>
       <c r="V33" t="str">
         <f t="shared" si="0"/>
-        <v>固定资产</v>
+        <v>使用权资产</v>
       </c>
       <c r="W33" t="e">
         <f t="shared" si="1"/>
@@ -4174,13 +4106,13 @@
     </row>
     <row r="34" spans="1:44">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
         <v>141</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
         <v>99</v>
@@ -4274,13 +4206,13 @@
     </row>
     <row r="35" spans="1:44">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
         <v>141</v>
       </c>
-      <c r="C35" t="s">
-        <v>27</v>
+      <c r="C35" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="D35" t="s">
         <v>99</v>
@@ -4374,13 +4306,13 @@
     </row>
     <row r="36" spans="1:44">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
         <v>99</v>
@@ -4393,7 +4325,7 @@
       </c>
       <c r="V36" t="str">
         <f t="shared" si="0"/>
-        <v>在建工程</v>
+        <v>固定资产</v>
       </c>
       <c r="W36" t="e">
         <f t="shared" si="1"/>
@@ -4474,13 +4406,13 @@
     </row>
     <row r="37" spans="1:44">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
         <v>99</v>
@@ -4492,11 +4424,11 @@
         <v>#N/A</v>
       </c>
       <c r="V37" t="str">
-        <f t="shared" ref="V37:V66" si="14">TRIM($B37)</f>
-        <v>工程物资</v>
+        <f t="shared" si="0"/>
+        <v>在建工程</v>
       </c>
       <c r="W37" t="e">
-        <f t="shared" ref="W37:W66" si="15">_xlfn.IFNA(AE37,AH37)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="X37" t="e">
@@ -4508,30 +4440,30 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z37" t="e">
-        <f t="shared" ref="Z37:Z66" si="16">U37&amp;"\"&amp;$C37</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AA37">
-        <f t="shared" ref="AA37:AA66" si="17">IF($P37="借",$R37,-$R37)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB37">
-        <f t="shared" ref="AB37:AB66" si="18">_xlfn.IFNA(IF(AE37="重复明细",0,AO37),AO37)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE37" t="e">
         <v>#N/A</v>
       </c>
       <c r="AF37" t="e">
-        <f t="shared" ref="AF37:AF66" si="19">FIND("\",$C37)</f>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG37">
-        <f t="shared" ref="AG37:AG66" si="20">IFERROR(FIND("\",$C37,AF37+1),1000)</f>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="AH37" t="e">
-        <f t="shared" ref="AH37:AH66" si="21">MID($C37,AF37+1,AG37-AF37-1)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AI37" t="e">
@@ -4542,45 +4474,45 @@
         <v>#VALUE!</v>
       </c>
       <c r="AK37" t="e">
-        <f t="shared" ref="AK37:AK66" si="22">AI37&amp;"/"&amp;AJ37</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AL37" t="e">
         <v>#N/A</v>
       </c>
       <c r="AM37" t="e">
-        <f t="shared" ref="AM37:AM66" si="23">ROUND(AA37*AL37,2)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="AN37" t="e">
         <v>#N/A</v>
       </c>
       <c r="AO37">
-        <f t="shared" ref="AO37:AO66" si="24">IFERROR(_xlfn.IFNA(AM37,AN37),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AP37" t="e">
-        <f t="shared" ref="AP37:AP66" si="25">FIND("]",AO37)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="AQ37" t="e">
-        <f t="shared" ref="AQ37:AQ66" si="26">FIND("#",AO37)</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR37" t="e">
-        <f t="shared" ref="AR37:AR66" si="27">FIND("#",AO37,AQ37+1)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="1:44">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38" t="s">
         <v>99</v>
@@ -4592,108 +4524,108 @@
         <v>#N/A</v>
       </c>
       <c r="V38" t="str">
+        <f t="shared" ref="V38:V68" si="14">TRIM($B38)</f>
+        <v>工程物资</v>
+      </c>
+      <c r="W38" t="e">
+        <f t="shared" ref="W38:W68" si="15">_xlfn.IFNA(AE38,AH38)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X38" t="e">
+        <f>VLOOKUP(W38,科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y38" t="e">
+        <f>VLOOKUP(W38,科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z38" t="e">
+        <f t="shared" ref="Z38:Z68" si="16">U38&amp;"\"&amp;$C38</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" ref="AA38:AA68" si="17">IF($P38="借",$R38,-$R38)</f>
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" ref="AB38:AB68" si="18">_xlfn.IFNA(IF(AE38="重复明细",0,AO38),AO38)</f>
+        <v>0</v>
+      </c>
+      <c r="AE38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF38" t="e">
+        <f t="shared" ref="AF38:AF68" si="19">FIND("\",$C38)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" ref="AG38:AG68" si="20">IFERROR(FIND("\",$C38,AF38+1),1000)</f>
+        <v>1000</v>
+      </c>
+      <c r="AH38" t="e">
+        <f t="shared" ref="AH38:AH68" si="21">MID($C38,AF38+1,AG38-AF38-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ38" t="e">
+        <f>VLOOKUP(W38,科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK38" t="e">
+        <f t="shared" ref="AK38:AK68" si="22">AI38&amp;"/"&amp;AJ38</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM38" t="e">
+        <f t="shared" ref="AM38:AM68" si="23">ROUND(AA38*AL38,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO38">
+        <f t="shared" ref="AO38:AO68" si="24">IFERROR(_xlfn.IFNA(AM38,AN38),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP38" t="e">
+        <f t="shared" ref="AP38:AP68" si="25">FIND("]",AO38)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ38" t="e">
+        <f t="shared" ref="AQ38:AQ68" si="26">FIND("#",AO38)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR38" t="e">
+        <f t="shared" ref="AR38:AR68" si="27">FIND("#",AO38,AQ38+1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="U39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V39" t="str">
         <f t="shared" si="14"/>
         <v>固定资产清理</v>
-      </c>
-      <c r="W38" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X38" t="e">
-        <f>VLOOKUP(W38,科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y38" t="e">
-        <f>VLOOKUP(W38,科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z38" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA38">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AB38">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AE38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF38" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG38">
-        <f t="shared" si="20"/>
-        <v>1000</v>
-      </c>
-      <c r="AH38" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ38" t="e">
-        <f>VLOOKUP(W38,科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK38" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM38" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AO38">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AP38" t="e">
-        <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ38" t="e">
-        <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR38" t="e">
-        <f t="shared" si="27"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:44">
-      <c r="A39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" t="s">
-        <v>152</v>
-      </c>
-      <c r="C39" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="U39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V39" t="str">
-        <f t="shared" si="14"/>
-        <v>无形资产</v>
       </c>
       <c r="W39" t="e">
         <f t="shared" si="15"/>
@@ -4774,12 +4706,12 @@
     </row>
     <row r="40" spans="1:44">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
         <v>152</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>33</v>
       </c>
       <c r="D40" t="s">
@@ -4874,12 +4806,12 @@
     </row>
     <row r="41" spans="1:44">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
         <v>152</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" t="s">
@@ -4974,13 +4906,13 @@
     </row>
     <row r="42" spans="1:44">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D42" t="s">
         <v>99</v>
@@ -4993,7 +4925,7 @@
       </c>
       <c r="V42" t="str">
         <f t="shared" si="14"/>
-        <v>商誉</v>
+        <v>无形资产</v>
       </c>
       <c r="W42" t="e">
         <f t="shared" si="15"/>
@@ -5074,13 +5006,13 @@
     </row>
     <row r="43" spans="1:44">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D43" t="s">
         <v>99</v>
@@ -5093,7 +5025,7 @@
       </c>
       <c r="V43" t="str">
         <f t="shared" si="14"/>
-        <v>长期待摊费用</v>
+        <v>商誉</v>
       </c>
       <c r="W43" t="e">
         <f t="shared" si="15"/>
@@ -5174,13 +5106,13 @@
     </row>
     <row r="44" spans="1:44">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D44" t="s">
         <v>99</v>
@@ -5193,7 +5125,7 @@
       </c>
       <c r="V44" t="str">
         <f t="shared" si="14"/>
-        <v>递延所得税资产</v>
+        <v>长期待摊费用</v>
       </c>
       <c r="W44" t="e">
         <f t="shared" si="15"/>
@@ -5274,26 +5206,26 @@
     </row>
     <row r="45" spans="1:44">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s">
         <v>99</v>
       </c>
       <c r="E45">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U45" t="e">
         <v>#N/A</v>
       </c>
       <c r="V45" t="str">
         <f t="shared" si="14"/>
-        <v>短期借款</v>
+        <v>递延所得税资产</v>
       </c>
       <c r="W45" t="e">
         <f t="shared" si="15"/>
@@ -5374,13 +5306,13 @@
     </row>
     <row r="46" spans="1:44">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D46" t="s">
         <v>99</v>
@@ -5393,7 +5325,7 @@
       </c>
       <c r="V46" t="str">
         <f t="shared" si="14"/>
-        <v>应付票据</v>
+        <v>短期借款</v>
       </c>
       <c r="W46" t="e">
         <f t="shared" si="15"/>
@@ -5474,13 +5406,13 @@
     </row>
     <row r="47" spans="1:44">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D47" t="s">
         <v>99</v>
@@ -5493,7 +5425,7 @@
       </c>
       <c r="V47" t="str">
         <f t="shared" si="14"/>
-        <v>应付账款</v>
+        <v>应付票据</v>
       </c>
       <c r="W47" t="e">
         <f t="shared" si="15"/>
@@ -5574,13 +5506,13 @@
     </row>
     <row r="48" spans="1:44">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="D48" t="s">
         <v>99</v>
@@ -5593,7 +5525,7 @@
       </c>
       <c r="V48" t="str">
         <f t="shared" si="14"/>
-        <v>预收款项</v>
+        <v>应付账款</v>
       </c>
       <c r="W48" t="e">
         <f t="shared" si="15"/>
@@ -5674,13 +5606,13 @@
     </row>
     <row r="49" spans="1:44">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C49" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="D49" t="s">
         <v>99</v>
@@ -5693,7 +5625,7 @@
       </c>
       <c r="V49" t="str">
         <f t="shared" si="14"/>
-        <v>应付职工薪酬</v>
+        <v>预收款项</v>
       </c>
       <c r="W49" t="e">
         <f t="shared" si="15"/>
@@ -5774,13 +5706,13 @@
     </row>
     <row r="50" spans="1:44">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D50" t="s">
         <v>99</v>
@@ -5793,7 +5725,7 @@
       </c>
       <c r="V50" t="str">
         <f t="shared" si="14"/>
-        <v>应交税费</v>
+        <v>应付职工薪酬</v>
       </c>
       <c r="W50" t="e">
         <f t="shared" si="15"/>
@@ -5874,13 +5806,13 @@
     </row>
     <row r="51" spans="1:44">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>147</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>45</v>
+        <v>160</v>
+      </c>
+      <c r="C51" t="s">
+        <v>44</v>
       </c>
       <c r="D51" t="s">
         <v>99</v>
@@ -5893,7 +5825,7 @@
       </c>
       <c r="V51" t="str">
         <f t="shared" si="14"/>
-        <v>其他应付款</v>
+        <v>应交税费</v>
       </c>
       <c r="W51" t="e">
         <f t="shared" si="15"/>
@@ -5974,13 +5906,13 @@
     </row>
     <row r="52" spans="1:44">
       <c r="A52" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>148</v>
+        <v>45</v>
+      </c>
+      <c r="B52" t="s">
+        <v>147</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D52" t="s">
         <v>99</v>
@@ -6074,13 +6006,13 @@
     </row>
     <row r="53" spans="1:44">
       <c r="A53" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C53" t="s">
-        <v>47</v>
+      <c r="C53" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="D53" t="s">
         <v>99</v>
@@ -6174,10 +6106,13 @@
     </row>
     <row r="54" spans="1:44">
       <c r="A54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>83</v>
+        <v>47</v>
+      </c>
+      <c r="B54" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" t="s">
+        <v>47</v>
       </c>
       <c r="D54" t="s">
         <v>99</v>
@@ -6190,7 +6125,7 @@
       </c>
       <c r="V54" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>其他应付款</v>
       </c>
       <c r="W54" t="e">
         <f t="shared" si="15"/>
@@ -6270,14 +6205,11 @@
       </c>
     </row>
     <row r="55" spans="1:44">
-      <c r="A55" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>96</v>
+      <c r="A55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D55" t="s">
         <v>99</v>
@@ -6290,7 +6222,7 @@
       </c>
       <c r="V55" t="str">
         <f t="shared" si="14"/>
-        <v>租赁负债</v>
+        <v/>
       </c>
       <c r="W55" t="e">
         <f t="shared" si="15"/>
@@ -6370,14 +6302,14 @@
       </c>
     </row>
     <row r="56" spans="1:44">
-      <c r="A56" t="s">
-        <v>49</v>
-      </c>
-      <c r="B56" t="s">
-        <v>175</v>
-      </c>
-      <c r="C56" t="s">
-        <v>49</v>
+      <c r="A56" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="D56" t="s">
         <v>99</v>
@@ -6390,7 +6322,7 @@
       </c>
       <c r="V56" t="str">
         <f t="shared" si="14"/>
-        <v>长期借款</v>
+        <v>租赁负债</v>
       </c>
       <c r="W56" t="e">
         <f t="shared" si="15"/>
@@ -6471,13 +6403,13 @@
     </row>
     <row r="57" spans="1:44">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D57" t="s">
         <v>99</v>
@@ -6490,7 +6422,7 @@
       </c>
       <c r="V57" t="str">
         <f t="shared" si="14"/>
-        <v>长期应付款</v>
+        <v>长期借款</v>
       </c>
       <c r="W57" t="e">
         <f t="shared" si="15"/>
@@ -6571,13 +6503,13 @@
     </row>
     <row r="58" spans="1:44">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D58" t="s">
         <v>99</v>
@@ -6590,7 +6522,7 @@
       </c>
       <c r="V58" t="str">
         <f t="shared" si="14"/>
-        <v>预计负债</v>
+        <v>长期应付款</v>
       </c>
       <c r="W58" t="e">
         <f t="shared" si="15"/>
@@ -6671,13 +6603,13 @@
     </row>
     <row r="59" spans="1:44">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="C59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D59" t="s">
         <v>99</v>
@@ -6690,7 +6622,7 @@
       </c>
       <c r="V59" t="str">
         <f t="shared" si="14"/>
-        <v>递延所得税负债</v>
+        <v>预计负债</v>
       </c>
       <c r="W59" t="e">
         <f t="shared" si="15"/>
@@ -6771,16 +6703,16 @@
     </row>
     <row r="60" spans="1:44">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>151</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>53</v>
+        <v>137</v>
+      </c>
+      <c r="C60" t="s">
+        <v>52</v>
       </c>
       <c r="D60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E60">
         <v>-1</v>
@@ -6790,7 +6722,7 @@
       </c>
       <c r="V60" t="str">
         <f t="shared" si="14"/>
-        <v>实收资本(或股本)</v>
+        <v>递延所得税负债</v>
       </c>
       <c r="W60" t="e">
         <f t="shared" si="15"/>
@@ -6871,13 +6803,13 @@
     </row>
     <row r="61" spans="1:44">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>178</v>
-      </c>
-      <c r="C61" t="s">
-        <v>54</v>
+        <v>151</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D61" t="s">
         <v>100</v>
@@ -6890,7 +6822,7 @@
       </c>
       <c r="V61" t="str">
         <f t="shared" si="14"/>
-        <v>资本公积</v>
+        <v>实收资本(或股本)</v>
       </c>
       <c r="W61" t="e">
         <f t="shared" si="15"/>
@@ -6971,13 +6903,13 @@
     </row>
     <row r="62" spans="1:44">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D62" t="s">
         <v>100</v>
@@ -6990,7 +6922,7 @@
       </c>
       <c r="V62" t="str">
         <f t="shared" si="14"/>
-        <v>盈余公积</v>
+        <v>资本公积</v>
       </c>
       <c r="W62" t="e">
         <f t="shared" si="15"/>
@@ -7071,13 +7003,13 @@
     </row>
     <row r="63" spans="1:44">
       <c r="A63" t="s">
-        <v>57</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>132</v>
+        <v>55</v>
+      </c>
+      <c r="B63" t="s">
+        <v>163</v>
+      </c>
+      <c r="C63" t="s">
+        <v>55</v>
       </c>
       <c r="D63" t="s">
         <v>100</v>
@@ -7090,7 +7022,7 @@
       </c>
       <c r="V63" t="str">
         <f t="shared" si="14"/>
-        <v>未分配利润</v>
+        <v>盈余公积</v>
       </c>
       <c r="W63" t="e">
         <f t="shared" si="15"/>
@@ -7171,26 +7103,26 @@
     </row>
     <row r="64" spans="1:44">
       <c r="A64" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" t="s">
-        <v>143</v>
+        <v>57</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="D64" t="s">
         <v>100</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U64" t="e">
         <v>#N/A</v>
       </c>
       <c r="V64" t="str">
         <f t="shared" si="14"/>
-        <v>减:库存股</v>
+        <v>未分配利润</v>
       </c>
       <c r="W64" t="e">
         <f t="shared" si="15"/>
@@ -7270,27 +7202,27 @@
       </c>
     </row>
     <row r="65" spans="1:44">
-      <c r="A65" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>150</v>
+      <c r="A65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" t="s">
+        <v>143</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D65" t="s">
         <v>100</v>
       </c>
       <c r="E65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U65" t="e">
         <v>#N/A</v>
       </c>
       <c r="V65" t="str">
         <f t="shared" si="14"/>
-        <v>其他综合收益</v>
+        <v>减:库存股</v>
       </c>
       <c r="W65" t="e">
         <f t="shared" si="15"/>
@@ -7370,17 +7302,17 @@
       </c>
     </row>
     <row r="66" spans="1:44">
-      <c r="A66" t="s">
-        <v>59</v>
-      </c>
-      <c r="B66" t="s">
-        <v>165</v>
+      <c r="A66" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D66" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>-1</v>
@@ -7390,7 +7322,7 @@
       </c>
       <c r="V66" t="str">
         <f t="shared" si="14"/>
-        <v>一、营业收入</v>
+        <v>其他综合收益</v>
       </c>
       <c r="W66" t="e">
         <f t="shared" si="15"/>
@@ -7471,113 +7403,30 @@
     </row>
     <row r="67" spans="1:44">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>72</v>
+        <v>136</v>
+      </c>
+      <c r="C67" t="s">
+        <v>77</v>
       </c>
       <c r="D67" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
-      <c r="U67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V67" t="str">
-        <f t="shared" ref="V67:V88" si="28">TRIM($B67)</f>
-        <v>财务费用</v>
-      </c>
-      <c r="W67" t="e">
-        <f t="shared" ref="W67:W88" si="29">_xlfn.IFNA(AE67,AH67)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X67" t="e">
-        <f>VLOOKUP(W67,科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y67" t="e">
-        <f>VLOOKUP(W67,科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z67" t="e">
-        <f t="shared" ref="Z67:Z88" si="30">U67&amp;"\"&amp;$C67</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA67">
-        <f t="shared" ref="AA67:AA88" si="31">IF($P67="借",$R67,-$R67)</f>
-        <v>0</v>
-      </c>
-      <c r="AB67">
-        <f t="shared" ref="AB67:AB88" si="32">_xlfn.IFNA(IF(AE67="重复明细",0,AO67),AO67)</f>
-        <v>0</v>
-      </c>
-      <c r="AE67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF67" t="e">
-        <f t="shared" ref="AF67:AF88" si="33">FIND("\",$C67)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG67">
-        <f t="shared" ref="AG67:AG88" si="34">IFERROR(FIND("\",$C67,AF67+1),1000)</f>
-        <v>1000</v>
-      </c>
-      <c r="AH67" t="e">
-        <f t="shared" ref="AH67:AH88" si="35">MID($C67,AF67+1,AG67-AF67-1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ67" t="e">
-        <f>VLOOKUP(W67,科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK67" t="e">
-        <f t="shared" ref="AK67:AK88" si="36">AI67&amp;"/"&amp;AJ67</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM67" t="e">
-        <f t="shared" ref="AM67:AM88" si="37">ROUND(AA67*AL67,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AO67">
-        <f t="shared" ref="AO67:AO88" si="38">IFERROR(_xlfn.IFNA(AM67,AN67),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AP67" t="e">
-        <f t="shared" ref="AP67:AP88" si="39">FIND("]",AO67)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ67" t="e">
-        <f t="shared" ref="AQ67:AQ88" si="40">FIND("#",AO67)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR67" t="e">
-        <f t="shared" ref="AR67:AR88" si="41">FIND("#",AO67,AQ67+1)</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="68" spans="1:44">
       <c r="A68" t="s">
-        <v>61</v>
-      </c>
-      <c r="B68" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" t="s">
         <v>165</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D68" t="s">
         <v>102</v>
@@ -7589,208 +7438,208 @@
         <v>#N/A</v>
       </c>
       <c r="V68" t="str">
+        <f t="shared" si="14"/>
+        <v>一、营业收入</v>
+      </c>
+      <c r="W68" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X68" t="e">
+        <f>VLOOKUP(W68,科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y68" t="e">
+        <f>VLOOKUP(W68,科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z68" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AE68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF68" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG68">
+        <f t="shared" si="20"/>
+        <v>1000</v>
+      </c>
+      <c r="AH68" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ68" t="e">
+        <f>VLOOKUP(W68,科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK68" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM68" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO68">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AP68" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ68" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR68" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:44">
+      <c r="A69" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="U69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V69" t="str">
+        <f t="shared" ref="V69:V90" si="28">TRIM($B69)</f>
+        <v>财务费用</v>
+      </c>
+      <c r="W69" t="e">
+        <f t="shared" ref="W69:W90" si="29">_xlfn.IFNA(AE69,AH69)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X69" t="e">
+        <f>VLOOKUP(W69,科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y69" t="e">
+        <f>VLOOKUP(W69,科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z69" t="e">
+        <f t="shared" ref="Z69:Z90" si="30">U69&amp;"\"&amp;$C69</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA69">
+        <f t="shared" ref="AA69:AA90" si="31">IF($P69="借",$R69,-$R69)</f>
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <f t="shared" ref="AB69:AB90" si="32">_xlfn.IFNA(IF(AE69="重复明细",0,AO69),AO69)</f>
+        <v>0</v>
+      </c>
+      <c r="AE69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF69" t="e">
+        <f t="shared" ref="AF69:AF90" si="33">FIND("\",$C69)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG69">
+        <f t="shared" ref="AG69:AG90" si="34">IFERROR(FIND("\",$C69,AF69+1),1000)</f>
+        <v>1000</v>
+      </c>
+      <c r="AH69" t="e">
+        <f t="shared" ref="AH69:AH90" si="35">MID($C69,AF69+1,AG69-AF69-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ69" t="e">
+        <f>VLOOKUP(W69,科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK69" t="e">
+        <f t="shared" ref="AK69:AK90" si="36">AI69&amp;"/"&amp;AJ69</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM69" t="e">
+        <f t="shared" ref="AM69:AM90" si="37">ROUND(AA69*AL69,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO69">
+        <f t="shared" ref="AO69:AO90" si="38">IFERROR(_xlfn.IFNA(AM69,AN69),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP69" t="e">
+        <f t="shared" ref="AP69:AP90" si="39">FIND("]",AO69)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ69" t="e">
+        <f t="shared" ref="AQ69:AQ90" si="40">FIND("#",AO69)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR69" t="e">
+        <f t="shared" ref="AR69:AR90" si="41">FIND("#",AO69,AQ69+1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:44">
+      <c r="A70" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" t="s">
+        <v>102</v>
+      </c>
+      <c r="E70">
+        <v>-1</v>
+      </c>
+      <c r="U70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V70" t="str">
         <f t="shared" si="28"/>
         <v>一、营业收入</v>
-      </c>
-      <c r="W68" t="e">
-        <f t="shared" si="29"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X68" t="e">
-        <f>VLOOKUP(W68,科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y68" t="e">
-        <f>VLOOKUP(W68,科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z68" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA68">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AB68">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AE68" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF68" t="e">
-        <f t="shared" si="33"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG68">
-        <f t="shared" si="34"/>
-        <v>1000</v>
-      </c>
-      <c r="AH68" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI68" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ68" t="e">
-        <f>VLOOKUP(W68,科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK68" t="e">
-        <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL68" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM68" t="e">
-        <f t="shared" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN68" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AO68">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AP68" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ68" t="e">
-        <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR68" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="69" spans="1:44">
-      <c r="A69" t="s">
-        <v>62</v>
-      </c>
-      <c r="B69" t="s">
-        <v>135</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D69" t="s">
-        <v>102</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="U69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V69" t="str">
-        <f t="shared" si="28"/>
-        <v>财务费用</v>
-      </c>
-      <c r="W69" t="e">
-        <f t="shared" si="29"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X69" t="e">
-        <f>VLOOKUP(W69,科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y69" t="e">
-        <f>VLOOKUP(W69,科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z69" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA69">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AB69">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AE69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF69" t="e">
-        <f t="shared" si="33"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG69">
-        <f t="shared" si="34"/>
-        <v>1000</v>
-      </c>
-      <c r="AH69" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ69" t="e">
-        <f>VLOOKUP(W69,科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK69" t="e">
-        <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM69" t="e">
-        <f t="shared" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AO69">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AP69" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ69" t="e">
-        <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR69" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="70" spans="1:44">
-      <c r="A70" t="s">
-        <v>63</v>
-      </c>
-      <c r="B70" t="s">
-        <v>140</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D70" t="s">
-        <v>102</v>
-      </c>
-      <c r="E70">
-        <v>-1</v>
-      </c>
-      <c r="U70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V70" t="str">
-        <f t="shared" si="28"/>
-        <v>公允价值变动收益（损失以“－”号填列）</v>
       </c>
       <c r="W70" t="e">
         <f t="shared" si="29"/>
@@ -7871,26 +7720,26 @@
     </row>
     <row r="71" spans="1:44">
       <c r="A71" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B71" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D71" t="s">
         <v>102</v>
       </c>
       <c r="E71">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U71" t="e">
         <v>#N/A</v>
       </c>
       <c r="V71" t="str">
         <f t="shared" si="28"/>
-        <v>投资收益（损失以“－”号填列）</v>
+        <v>财务费用</v>
       </c>
       <c r="W71" t="e">
         <f t="shared" si="29"/>
@@ -7971,13 +7820,13 @@
     </row>
     <row r="72" spans="1:44">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B72" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D72" t="s">
         <v>102</v>
@@ -7990,7 +7839,7 @@
       </c>
       <c r="V72" t="str">
         <f t="shared" si="28"/>
-        <v>加: 营业外收入</v>
+        <v>公允价值变动收益（损失以“－”号填列）</v>
       </c>
       <c r="W72" t="e">
         <f t="shared" si="29"/>
@@ -8071,26 +7920,26 @@
     </row>
     <row r="73" spans="1:44">
       <c r="A73" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B73" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D73" t="s">
         <v>102</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U73" t="e">
         <v>#N/A</v>
       </c>
       <c r="V73" t="str">
         <f t="shared" si="28"/>
-        <v>减：营业成本</v>
+        <v>投资收益（损失以“－”号填列）</v>
       </c>
       <c r="W73" t="e">
         <f t="shared" si="29"/>
@@ -8171,26 +8020,26 @@
     </row>
     <row r="74" spans="1:44">
       <c r="A74" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B74" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D74" t="s">
         <v>102</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U74" t="e">
         <v>#N/A</v>
       </c>
       <c r="V74" t="str">
         <f t="shared" si="28"/>
-        <v>减：营业成本</v>
+        <v>加: 营业外收入</v>
       </c>
       <c r="W74" t="e">
         <f t="shared" si="29"/>
@@ -8271,13 +8120,13 @@
     </row>
     <row r="75" spans="1:44">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B75" t="s">
-        <v>166</v>
-      </c>
-      <c r="C75" t="s">
-        <v>68</v>
+        <v>164</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="D75" t="s">
         <v>102</v>
@@ -8290,7 +8139,7 @@
       </c>
       <c r="V75" t="str">
         <f t="shared" si="28"/>
-        <v>税金及附加</v>
+        <v>减：营业成本</v>
       </c>
       <c r="W75" t="e">
         <f t="shared" si="29"/>
@@ -8371,13 +8220,13 @@
     </row>
     <row r="76" spans="1:44">
       <c r="A76" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B76" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D76" t="s">
         <v>102</v>
@@ -8390,7 +8239,7 @@
       </c>
       <c r="V76" t="str">
         <f t="shared" si="28"/>
-        <v>财务费用</v>
+        <v>减：营业成本</v>
       </c>
       <c r="W76" t="e">
         <f t="shared" si="29"/>
@@ -8471,13 +8320,13 @@
     </row>
     <row r="77" spans="1:44">
       <c r="A77" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>87</v>
+        <v>166</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
       </c>
       <c r="D77" t="s">
         <v>102</v>
@@ -8490,7 +8339,7 @@
       </c>
       <c r="V77" t="str">
         <f t="shared" si="28"/>
-        <v>销售费用</v>
+        <v>税金及附加</v>
       </c>
       <c r="W77" t="e">
         <f t="shared" si="29"/>
@@ -8571,13 +8420,13 @@
     </row>
     <row r="78" spans="1:44">
       <c r="A78" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B78" t="s">
-        <v>142</v>
-      </c>
-      <c r="C78" t="s">
-        <v>71</v>
+        <v>135</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="D78" t="s">
         <v>102</v>
@@ -8590,7 +8439,7 @@
       </c>
       <c r="V78" t="str">
         <f t="shared" si="28"/>
-        <v>管理费用</v>
+        <v>财务费用</v>
       </c>
       <c r="W78" t="e">
         <f t="shared" si="29"/>
@@ -8671,13 +8520,13 @@
     </row>
     <row r="79" spans="1:44">
       <c r="A79" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="B79" t="s">
-        <v>156</v>
-      </c>
-      <c r="C79" t="s">
-        <v>130</v>
+        <v>155</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D79" t="s">
         <v>102</v>
@@ -8685,16 +8534,99 @@
       <c r="E79">
         <v>1</v>
       </c>
+      <c r="U79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V79" t="str">
+        <f t="shared" si="28"/>
+        <v>销售费用</v>
+      </c>
+      <c r="W79" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X79" t="e">
+        <f>VLOOKUP(W79,科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y79" t="e">
+        <f>VLOOKUP(W79,科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z79" t="e">
+        <f t="shared" si="30"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA79">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AE79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF79" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG79">
+        <f t="shared" si="34"/>
+        <v>1000</v>
+      </c>
+      <c r="AH79" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ79" t="e">
+        <f>VLOOKUP(W79,科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK79" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM79" t="e">
+        <f t="shared" si="37"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO79">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AP79" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ79" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR79" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="80" spans="1:44">
       <c r="A80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B80" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D80" t="s">
         <v>102</v>
@@ -8707,7 +8639,7 @@
       </c>
       <c r="V80" t="str">
         <f t="shared" si="28"/>
-        <v>财务费用</v>
+        <v>管理费用</v>
       </c>
       <c r="W80" t="e">
         <f t="shared" si="29"/>
@@ -8788,113 +8720,30 @@
     </row>
     <row r="81" spans="1:44">
       <c r="A81" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="B81" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="C81" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="D81" t="s">
         <v>102</v>
       </c>
       <c r="E81">
-        <v>-1</v>
-      </c>
-      <c r="U81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V81" t="str">
-        <f t="shared" si="28"/>
-        <v>资产减值损失（损失以“－”号填列）</v>
-      </c>
-      <c r="W81" t="e">
-        <f t="shared" si="29"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X81" t="e">
-        <f>VLOOKUP(W81,科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y81" t="e">
-        <f>VLOOKUP(W81,科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z81" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA81">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AB81">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AE81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF81" t="e">
-        <f t="shared" si="33"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG81">
-        <f t="shared" si="34"/>
-        <v>1000</v>
-      </c>
-      <c r="AH81" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ81" t="e">
-        <f>VLOOKUP(W81,科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK81" t="e">
-        <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM81" t="e">
-        <f t="shared" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AO81">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AP81" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ81" t="e">
-        <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR81" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:44">
       <c r="A82" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B82" t="s">
-        <v>168</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>90</v>
+        <v>135</v>
+      </c>
+      <c r="C82" t="s">
+        <v>72</v>
       </c>
       <c r="D82" t="s">
         <v>102</v>
@@ -8907,7 +8756,7 @@
       </c>
       <c r="V82" t="str">
         <f t="shared" si="28"/>
-        <v>减：营业外支出</v>
+        <v>财务费用</v>
       </c>
       <c r="W82" t="e">
         <f t="shared" si="29"/>
@@ -8988,26 +8837,26 @@
     </row>
     <row r="83" spans="1:44">
       <c r="A83" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B83" t="s">
-        <v>154</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>91</v>
+        <v>180</v>
+      </c>
+      <c r="C83" t="s">
+        <v>73</v>
       </c>
       <c r="D83" t="s">
         <v>102</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U83" t="e">
         <v>#N/A</v>
       </c>
       <c r="V83" t="str">
         <f t="shared" si="28"/>
-        <v>减：所得税费用</v>
+        <v>资产减值损失（损失以“－”号填列）</v>
       </c>
       <c r="W83" t="e">
         <f t="shared" si="29"/>
@@ -9087,12 +8936,27 @@
       </c>
     </row>
     <row r="84" spans="1:44">
+      <c r="A84" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" t="s">
+        <v>168</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" t="s">
+        <v>102</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
       <c r="U84" t="e">
         <v>#N/A</v>
       </c>
       <c r="V84" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>减：营业外支出</v>
       </c>
       <c r="W84" t="e">
         <f t="shared" si="29"/>
@@ -9173,17 +9037,26 @@
     </row>
     <row r="85" spans="1:44">
       <c r="A85" t="s">
-        <v>104</v>
+        <v>75</v>
+      </c>
+      <c r="B85" t="s">
+        <v>154</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D85" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
       </c>
       <c r="U85" t="e">
         <v>#N/A</v>
       </c>
       <c r="V85" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>减：所得税费用</v>
       </c>
       <c r="W85" t="e">
         <f t="shared" si="29"/>
@@ -9263,30 +9136,15 @@
       </c>
     </row>
     <row r="86" spans="1:44">
-      <c r="A86" t="s">
-        <v>56</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D86" t="s">
-        <v>131</v>
-      </c>
-      <c r="E86">
-        <v>-1</v>
-      </c>
       <c r="U86" t="e">
         <v>#N/A</v>
       </c>
       <c r="V86" t="str">
-        <f>TRIM($B86)</f>
-        <v>未分配利润</v>
+        <f t="shared" si="28"/>
+        <v/>
       </c>
       <c r="W86" t="e">
-        <f>_xlfn.IFNA(AE86,AH86)</f>
+        <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
       <c r="X86" t="e">
@@ -9298,30 +9156,30 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z86" t="e">
-        <f>U86&amp;"\"&amp;$C86</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="AA86">
-        <f>IF($P86="借",$R86,-$R86)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AB86">
-        <f>_xlfn.IFNA(IF(AE86="重复明细",0,AO86),AO86)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AE86" t="e">
         <v>#N/A</v>
       </c>
       <c r="AF86" t="e">
-        <f>FIND("\",$C86)</f>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG86">
-        <f>IFERROR(FIND("\",$C86,AF86+1),1000)</f>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="AH86" t="e">
-        <f>MID($C86,AF86+1,AG86-AF86-1)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AI86" t="e">
@@ -9332,55 +9190,49 @@
         <v>#VALUE!</v>
       </c>
       <c r="AK86" t="e">
-        <f>AI86&amp;"/"&amp;AJ86</f>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="AL86" t="e">
         <v>#N/A</v>
       </c>
       <c r="AM86" t="e">
-        <f>ROUND(AA86*AL86,2)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="AN86" t="e">
         <v>#N/A</v>
       </c>
       <c r="AO86">
-        <f>IFERROR(_xlfn.IFNA(AM86,AN86),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AP86" t="e">
-        <f>FIND("]",AO86)</f>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="AQ86" t="e">
-        <f>FIND("#",AO86)</f>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR86" t="e">
-        <f>FIND("#",AO86,AQ86+1)</f>
+        <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="87" spans="1:44">
       <c r="A87" t="s">
-        <v>103</v>
-      </c>
-      <c r="B87" t="s">
-        <v>103</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="D87" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="U87" t="e">
         <v>#N/A</v>
       </c>
       <c r="V87" t="str">
         <f t="shared" si="28"/>
-        <v>本年利润抵消明细</v>
+        <v/>
       </c>
       <c r="W87" t="e">
         <f t="shared" si="29"/>
@@ -9461,140 +9313,351 @@
     </row>
     <row r="88" spans="1:44">
       <c r="A88" t="s">
+        <v>56</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D88" t="s">
+        <v>131</v>
+      </c>
+      <c r="E88">
+        <v>-1</v>
+      </c>
+      <c r="U88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V88" t="str">
+        <f>TRIM($B88)</f>
+        <v>未分配利润</v>
+      </c>
+      <c r="W88" t="e">
+        <f>_xlfn.IFNA(AE88,AH88)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X88" t="e">
+        <f>VLOOKUP(W88,科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y88" t="e">
+        <f>VLOOKUP(W88,科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z88" t="e">
+        <f>U88&amp;"\"&amp;$C88</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA88">
+        <f>IF($P88="借",$R88,-$R88)</f>
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <f>_xlfn.IFNA(IF(AE88="重复明细",0,AO88),AO88)</f>
+        <v>0</v>
+      </c>
+      <c r="AE88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF88" t="e">
+        <f>FIND("\",$C88)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG88">
+        <f>IFERROR(FIND("\",$C88,AF88+1),1000)</f>
+        <v>1000</v>
+      </c>
+      <c r="AH88" t="e">
+        <f>MID($C88,AF88+1,AG88-AF88-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ88" t="e">
+        <f>VLOOKUP(W88,科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK88" t="e">
+        <f>AI88&amp;"/"&amp;AJ88</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM88" t="e">
+        <f>ROUND(AA88*AL88,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO88">
+        <f>IFERROR(_xlfn.IFNA(AM88,AN88),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP88" t="e">
+        <f>FIND("]",AO88)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ88" t="e">
+        <f>FIND("#",AO88)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR88" t="e">
+        <f>FIND("#",AO88,AQ88+1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:44">
+      <c r="A89" t="s">
+        <v>103</v>
+      </c>
+      <c r="B89" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D89" t="s">
+        <v>131</v>
+      </c>
+      <c r="U89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V89" t="str">
+        <f t="shared" si="28"/>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="W89" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X89" t="e">
+        <f>VLOOKUP(W89,科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y89" t="e">
+        <f>VLOOKUP(W89,科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z89" t="e">
+        <f t="shared" si="30"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA89">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AE89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF89" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG89">
+        <f t="shared" si="34"/>
+        <v>1000</v>
+      </c>
+      <c r="AH89" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ89" t="e">
+        <f>VLOOKUP(W89,科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK89" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM89" t="e">
+        <f t="shared" si="37"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO89">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AP89" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ89" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR89" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:44">
+      <c r="A90" t="s">
         <v>105</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B90" t="s">
         <v>235</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C90" t="s">
         <v>105</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D90" t="s">
         <v>101</v>
       </c>
-      <c r="E88">
+      <c r="E90">
         <v>1</v>
       </c>
-      <c r="U88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V88" t="str">
+      <c r="U90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V90" t="str">
         <f t="shared" si="28"/>
         <v>未分配利润</v>
       </c>
-      <c r="W88" t="e">
+      <c r="W90" t="e">
         <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X88" t="e">
-        <f>VLOOKUP(W88,科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y88" t="e">
-        <f>VLOOKUP(W88,科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z88" t="e">
+      <c r="X90" t="e">
+        <f>VLOOKUP(W90,科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y90" t="e">
+        <f>VLOOKUP(W90,科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z90" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AA88">
+      <c r="AA90">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AB88">
+      <c r="AB90">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AE88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF88" t="e">
+      <c r="AE90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF90" t="e">
         <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AG88">
+      <c r="AG90">
         <f t="shared" si="34"/>
         <v>1000</v>
       </c>
-      <c r="AH88" t="e">
+      <c r="AH90" t="e">
         <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ88" t="e">
-        <f>VLOOKUP(W88,科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK88" t="e">
+      <c r="AI90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ90" t="e">
+        <f>VLOOKUP(W90,科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK90" t="e">
         <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
-      <c r="AL88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM88" t="e">
+      <c r="AL90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM90" t="e">
         <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
-      <c r="AN88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AO88">
+      <c r="AN90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO90">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AP88" t="e">
+      <c r="AP90" t="e">
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AQ88" t="e">
+      <c r="AQ90" t="e">
         <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AR88" t="e">
+      <c r="AR90" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="89" spans="1:44">
-      <c r="A89" t="s">
+    <row r="91" spans="1:44">
+      <c r="A91" t="s">
         <v>126</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B91" t="s">
         <v>126</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C91" t="s">
         <v>126</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D91" t="s">
         <v>102</v>
       </c>
-      <c r="E89">
+      <c r="E91">
         <v>-1</v>
       </c>
     </row>
-    <row r="90" spans="1:44">
-      <c r="A90" t="s">
+    <row r="92" spans="1:44">
+      <c r="A92" t="s">
         <v>127</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B92" t="s">
         <v>179</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C92" t="s">
         <v>127</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D92" t="s">
         <v>102</v>
       </c>
-      <c r="E90">
+      <c r="E92">
         <v>-1</v>
       </c>
     </row>
+    <row r="93" spans="1:44">
+      <c r="A93" t="s">
+        <v>236</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G90" xr:uid="{1611A6C3-6C6A-44A7-AA58-C620DCB769FB}"/>
+  <autoFilter ref="A1:G92" xr:uid="{1611A6C3-6C6A-44A7-AA58-C620DCB769FB}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/00框架文件/03MR.xlsx
+++ b/00框架文件/03MR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5E5B97-5A76-4548-B1C9-B95B97B70816}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAF9571-FF40-4376-BC14-BA596CBE0CFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="报表筛选" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">科目!$A$1:$G$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">科目!$A$1:$G$93</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="245">
   <si>
     <t>报表科目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -447,13 +447,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PV</t>
-  </si>
-  <si>
-    <t>年初未分配利润（调整后）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>应收账款坏账准备</t>
   </si>
   <si>
@@ -603,9 +596,6 @@
     <t xml:space="preserve">   资产处置收益（损失以“－”号填列）</t>
   </si>
   <si>
-    <t xml:space="preserve">   资产减值损失（损失以“－”号填列）</t>
-  </si>
-  <si>
     <t xml:space="preserve">    租赁负债</t>
   </si>
   <si>
@@ -775,9 +765,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    未分配利润</t>
-  </si>
-  <si>
     <t>代扣代缴特殊逻辑</t>
   </si>
   <si>
@@ -791,6 +778,31 @@
   </si>
   <si>
     <t>生产成本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   信用减值损失（损失以“－”号填列）</t>
+  </si>
+  <si>
+    <t>减：应收账款坏账准备</t>
+  </si>
+  <si>
+    <t>减：其他应收款坏账准备</t>
+  </si>
+  <si>
+    <t>未分配利润</t>
+  </si>
+  <si>
+    <t>其他收益</t>
+  </si>
+  <si>
+    <t>资产处置收益</t>
+  </si>
+  <si>
+    <t>外币报表折算</t>
+  </si>
+  <si>
+    <t>BS_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -848,13 +860,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1139,10 +1154,10 @@
   <dimension ref="A1:AR93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B67" sqref="B67:E67"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1167,7 +1182,7 @@
         <v>98</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="U1" t="s">
         <v>106</v>
@@ -1241,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
@@ -1341,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -1441,7 +1456,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -1541,7 +1556,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1641,7 +1656,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1741,7 +1756,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -1838,13 +1853,13 @@
     </row>
     <row r="8" spans="1:44">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>238</v>
       </c>
       <c r="D8" t="s">
         <v>99</v>
@@ -1858,10 +1873,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>99</v>
@@ -1958,7 +1973,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
@@ -2058,7 +2073,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
@@ -2158,7 +2173,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -2258,10 +2273,10 @@
         <v>94</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>239</v>
       </c>
       <c r="D13" t="s">
         <v>99</v>
@@ -2358,7 +2373,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
         <v>77</v>
@@ -2458,7 +2473,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s">
         <v>77</v>
@@ -2558,7 +2573,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
         <v>77</v>
@@ -2658,7 +2673,7 @@
         <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
         <v>77</v>
@@ -2675,7 +2690,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
         <v>77</v>
@@ -2775,7 +2790,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
         <v>77</v>
@@ -2875,7 +2890,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C20" t="s">
         <v>77</v>
@@ -2975,7 +2990,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C21" t="s">
         <v>77</v>
@@ -3075,7 +3090,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s">
         <v>77</v>
@@ -3175,7 +3190,7 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C23" t="s">
         <v>77</v>
@@ -3272,10 +3287,10 @@
     </row>
     <row r="24" spans="1:44">
       <c r="A24" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C24" t="s">
         <v>77</v>
@@ -3292,7 +3307,7 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>80</v>
@@ -3592,7 +3607,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>125</v>
@@ -3692,13 +3707,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C29" t="s">
         <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>244</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -3792,7 +3807,7 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C30" t="s">
         <v>24</v>
@@ -3892,7 +3907,7 @@
         <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C31" t="s">
         <v>24</v>
@@ -3909,7 +3924,7 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C32" t="s">
         <v>26</v>
@@ -4009,7 +4024,7 @@
         <v>95</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>95</v>
@@ -4109,7 +4124,7 @@
         <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>82</v>
@@ -4209,7 +4224,7 @@
         <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>81</v>
@@ -4309,7 +4324,7 @@
         <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
@@ -4409,7 +4424,7 @@
         <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C37" t="s">
         <v>30</v>
@@ -4709,7 +4724,7 @@
         <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" t="s">
         <v>33</v>
@@ -4809,7 +4824,7 @@
         <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>33</v>
@@ -4909,7 +4924,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C42" t="s">
         <v>33</v>
@@ -5009,7 +5024,7 @@
         <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C43" t="s">
         <v>36</v>
@@ -5109,7 +5124,7 @@
         <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C44" t="s">
         <v>37</v>
@@ -5209,7 +5224,7 @@
         <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C45" t="s">
         <v>38</v>
@@ -5309,7 +5324,7 @@
         <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
         <v>39</v>
@@ -5409,7 +5424,7 @@
         <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C47" t="s">
         <v>40</v>
@@ -5509,7 +5524,7 @@
         <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C48" t="s">
         <v>41</v>
@@ -5609,10 +5624,10 @@
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="D49" t="s">
         <v>99</v>
@@ -5709,7 +5724,7 @@
         <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C50" t="s">
         <v>43</v>
@@ -5809,7 +5824,7 @@
         <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C51" t="s">
         <v>44</v>
@@ -5909,7 +5924,7 @@
         <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>45</v>
@@ -6009,7 +6024,7 @@
         <v>46</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>46</v>
@@ -6109,7 +6124,7 @@
         <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C54" t="s">
         <v>47</v>
@@ -6306,7 +6321,7 @@
         <v>96</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>96</v>
@@ -6406,7 +6421,7 @@
         <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C57" t="s">
         <v>49</v>
@@ -6506,7 +6521,7 @@
         <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C58" t="s">
         <v>50</v>
@@ -6606,7 +6621,7 @@
         <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C59" t="s">
         <v>51</v>
@@ -6706,7 +6721,7 @@
         <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C60" t="s">
         <v>52</v>
@@ -6806,7 +6821,7 @@
         <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>53</v>
@@ -6906,7 +6921,7 @@
         <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C62" t="s">
         <v>54</v>
@@ -7006,7 +7021,7 @@
         <v>55</v>
       </c>
       <c r="B63" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C63" t="s">
         <v>55</v>
@@ -7106,10 +7121,10 @@
         <v>57</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>132</v>
+        <v>143</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="D64" t="s">
         <v>100</v>
@@ -7206,7 +7221,7 @@
         <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>84</v>
@@ -7306,7 +7321,7 @@
         <v>97</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>97</v>
@@ -7403,10 +7418,10 @@
     </row>
     <row r="67" spans="1:44">
       <c r="A67" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B67" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C67" t="s">
         <v>77</v>
@@ -7423,7 +7438,7 @@
         <v>59</v>
       </c>
       <c r="B68" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>59</v>
@@ -7523,7 +7538,7 @@
         <v>60</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>72</v>
@@ -7623,7 +7638,7 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>61</v>
@@ -7723,7 +7738,7 @@
         <v>62</v>
       </c>
       <c r="B71" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>72</v>
@@ -7823,7 +7838,7 @@
         <v>63</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>88</v>
@@ -7923,7 +7938,7 @@
         <v>64</v>
       </c>
       <c r="B73" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>64</v>
@@ -8023,7 +8038,7 @@
         <v>65</v>
       </c>
       <c r="B74" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>89</v>
@@ -8123,7 +8138,7 @@
         <v>66</v>
       </c>
       <c r="B75" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>85</v>
@@ -8223,7 +8238,7 @@
         <v>67</v>
       </c>
       <c r="B76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>86</v>
@@ -8323,7 +8338,7 @@
         <v>68</v>
       </c>
       <c r="B77" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
@@ -8423,7 +8438,7 @@
         <v>69</v>
       </c>
       <c r="B78" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>72</v>
@@ -8523,7 +8538,7 @@
         <v>70</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>87</v>
@@ -8623,7 +8638,7 @@
         <v>71</v>
       </c>
       <c r="B80" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C80" t="s">
         <v>71</v>
@@ -8723,7 +8738,7 @@
         <v>130</v>
       </c>
       <c r="B81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C81" t="s">
         <v>130</v>
@@ -8740,7 +8755,7 @@
         <v>72</v>
       </c>
       <c r="B82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C82" t="s">
         <v>72</v>
@@ -8840,7 +8855,7 @@
         <v>73</v>
       </c>
       <c r="B83" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="C83" t="s">
         <v>73</v>
@@ -8856,7 +8871,7 @@
       </c>
       <c r="V83" t="str">
         <f t="shared" si="28"/>
-        <v>资产减值损失（损失以“－”号填列）</v>
+        <v>信用减值损失（损失以“－”号填列）</v>
       </c>
       <c r="W83" t="e">
         <f t="shared" si="29"/>
@@ -8940,7 +8955,7 @@
         <v>74</v>
       </c>
       <c r="B84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>90</v>
@@ -9040,7 +9055,7 @@
         <v>75</v>
       </c>
       <c r="B85" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>91</v>
@@ -9316,13 +9331,13 @@
         <v>56</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D88" t="s">
-        <v>131</v>
+        <v>143</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="E88">
         <v>-1</v>
@@ -9418,11 +9433,14 @@
       <c r="B89" t="s">
         <v>103</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D89" t="s">
-        <v>131</v>
+      <c r="C89" t="s">
+        <v>103</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E89">
+        <v>-1</v>
       </c>
       <c r="U89" t="e">
         <v>#N/A</v>
@@ -9513,10 +9531,10 @@
         <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C90" t="s">
-        <v>105</v>
+        <v>243</v>
       </c>
       <c r="D90" t="s">
         <v>101</v>
@@ -9529,7 +9547,7 @@
       </c>
       <c r="V90" t="str">
         <f t="shared" si="28"/>
-        <v>未分配利润</v>
+        <v>外币报表折算</v>
       </c>
       <c r="W90" t="e">
         <f t="shared" si="29"/>
@@ -9616,7 +9634,7 @@
         <v>126</v>
       </c>
       <c r="C91" t="s">
-        <v>126</v>
+        <v>241</v>
       </c>
       <c r="D91" t="s">
         <v>102</v>
@@ -9630,10 +9648,10 @@
         <v>127</v>
       </c>
       <c r="B92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C92" t="s">
-        <v>127</v>
+        <v>242</v>
       </c>
       <c r="D92" t="s">
         <v>102</v>
@@ -9644,20 +9662,20 @@
     </row>
     <row r="93" spans="1:44">
       <c r="A93" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G92" xr:uid="{1611A6C3-6C6A-44A7-AA58-C620DCB769FB}"/>
+  <autoFilter ref="A1:G93" xr:uid="{1611A6C3-6C6A-44A7-AA58-C620DCB769FB}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9680,13 +9698,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -9697,7 +9715,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -9708,13 +9726,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -9725,13 +9743,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -9776,13 +9794,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -9796,7 +9814,7 @@
         <v>76</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>72</v>
@@ -9816,7 +9834,7 @@
         <v>43</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -9833,7 +9851,7 @@
         <v>44</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -9844,13 +9862,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -9861,13 +9879,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -9878,13 +9896,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -9895,13 +9913,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -9912,13 +9930,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -9929,13 +9947,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -9949,10 +9967,10 @@
         <v>26</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -9966,7 +9984,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>90</v>
@@ -9980,13 +9998,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>96</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -9997,7 +10015,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>50</v>
@@ -10011,7 +10029,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>51</v>
@@ -10053,10 +10071,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -10067,10 +10085,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -10081,10 +10099,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -10098,7 +10116,7 @@
         <v>33</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -10109,10 +10127,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -10140,7 +10158,7 @@
         <v>37</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -10154,7 +10172,7 @@
         <v>38</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -10165,10 +10183,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -10187,7 +10205,7 @@
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F34">
         <v>-1</v>

--- a/00框架文件/03MR.xlsx
+++ b/00框架文件/03MR.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAF9571-FF40-4376-BC14-BA596CBE0CFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453154BA-8C07-497B-8368-6936F71AE7C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="246">
   <si>
     <t>报表科目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -803,6 +803,9 @@
   <si>
     <t>BS_H</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造费用</t>
   </si>
 </sst>
 </file>
@@ -1151,13 +1154,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AR93"/>
+  <dimension ref="A1:AR94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9674,6 +9677,23 @@
         <v>234</v>
       </c>
     </row>
+    <row r="94" spans="1:44">
+      <c r="A94" t="s">
+        <v>245</v>
+      </c>
+      <c r="B94" t="s">
+        <v>134</v>
+      </c>
+      <c r="C94" t="s">
+        <v>77</v>
+      </c>
+      <c r="D94" t="s">
+        <v>99</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G93" xr:uid="{1611A6C3-6C6A-44A7-AA58-C620DCB769FB}"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9687,8 +9707,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/00框架文件/03MR.xlsx
+++ b/00框架文件/03MR.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453154BA-8C07-497B-8368-6936F71AE7C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE46C9B2-2431-4107-AC05-D24F2A7B4CD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="报表筛选" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">科目!$A$1:$G$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">科目!$A$1:$G$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="249">
   <si>
     <t>报表科目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -806,6 +806,16 @@
   </si>
   <si>
     <t>制造费用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   资产减值损失（损失以“－”号填列）</t>
+  </si>
+  <si>
+    <t>信用减值损失</t>
+  </si>
+  <si>
+    <t>信用减值损失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1154,13 +1164,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AR94"/>
+  <dimension ref="A1:AR95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D95" sqref="D95"/>
+      <selection pane="bottomRight" activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7556,11 +7566,11 @@
         <v>#N/A</v>
       </c>
       <c r="V69" t="str">
-        <f t="shared" ref="V69:V90" si="28">TRIM($B69)</f>
+        <f t="shared" ref="V69:V91" si="28">TRIM($B69)</f>
         <v>财务费用</v>
       </c>
       <c r="W69" t="e">
-        <f t="shared" ref="W69:W90" si="29">_xlfn.IFNA(AE69,AH69)</f>
+        <f t="shared" ref="W69:W91" si="29">_xlfn.IFNA(AE69,AH69)</f>
         <v>#VALUE!</v>
       </c>
       <c r="X69" t="e">
@@ -7572,30 +7582,30 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z69" t="e">
-        <f t="shared" ref="Z69:Z90" si="30">U69&amp;"\"&amp;$C69</f>
+        <f t="shared" ref="Z69:Z91" si="30">U69&amp;"\"&amp;$C69</f>
         <v>#N/A</v>
       </c>
       <c r="AA69">
-        <f t="shared" ref="AA69:AA90" si="31">IF($P69="借",$R69,-$R69)</f>
+        <f t="shared" ref="AA69:AA91" si="31">IF($P69="借",$R69,-$R69)</f>
         <v>0</v>
       </c>
       <c r="AB69">
-        <f t="shared" ref="AB69:AB90" si="32">_xlfn.IFNA(IF(AE69="重复明细",0,AO69),AO69)</f>
+        <f t="shared" ref="AB69:AB91" si="32">_xlfn.IFNA(IF(AE69="重复明细",0,AO69),AO69)</f>
         <v>0</v>
       </c>
       <c r="AE69" t="e">
         <v>#N/A</v>
       </c>
       <c r="AF69" t="e">
-        <f t="shared" ref="AF69:AF90" si="33">FIND("\",$C69)</f>
+        <f t="shared" ref="AF69:AF91" si="33">FIND("\",$C69)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AG69">
-        <f t="shared" ref="AG69:AG90" si="34">IFERROR(FIND("\",$C69,AF69+1),1000)</f>
+        <f t="shared" ref="AG69:AG91" si="34">IFERROR(FIND("\",$C69,AF69+1),1000)</f>
         <v>1000</v>
       </c>
       <c r="AH69" t="e">
-        <f t="shared" ref="AH69:AH90" si="35">MID($C69,AF69+1,AG69-AF69-1)</f>
+        <f t="shared" ref="AH69:AH91" si="35">MID($C69,AF69+1,AG69-AF69-1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AI69" t="e">
@@ -7606,33 +7616,33 @@
         <v>#VALUE!</v>
       </c>
       <c r="AK69" t="e">
-        <f t="shared" ref="AK69:AK90" si="36">AI69&amp;"/"&amp;AJ69</f>
+        <f t="shared" ref="AK69:AK91" si="36">AI69&amp;"/"&amp;AJ69</f>
         <v>#N/A</v>
       </c>
       <c r="AL69" t="e">
         <v>#N/A</v>
       </c>
       <c r="AM69" t="e">
-        <f t="shared" ref="AM69:AM90" si="37">ROUND(AA69*AL69,2)</f>
+        <f t="shared" ref="AM69:AM91" si="37">ROUND(AA69*AL69,2)</f>
         <v>#N/A</v>
       </c>
       <c r="AN69" t="e">
         <v>#N/A</v>
       </c>
       <c r="AO69">
-        <f t="shared" ref="AO69:AO90" si="38">IFERROR(_xlfn.IFNA(AM69,AN69),0)</f>
+        <f t="shared" ref="AO69:AO91" si="38">IFERROR(_xlfn.IFNA(AM69,AN69),0)</f>
         <v>0</v>
       </c>
       <c r="AP69" t="e">
-        <f t="shared" ref="AP69:AP90" si="39">FIND("]",AO69)</f>
+        <f t="shared" ref="AP69:AP91" si="39">FIND("]",AO69)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AQ69" t="e">
-        <f t="shared" ref="AQ69:AQ90" si="40">FIND("#",AO69)</f>
+        <f t="shared" ref="AQ69:AQ91" si="40">FIND("#",AO69)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AR69" t="e">
-        <f t="shared" ref="AR69:AR90" si="41">FIND("#",AO69,AQ69+1)</f>
+        <f t="shared" ref="AR69:AR91" si="41">FIND("#",AO69,AQ69+1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -8855,13 +8865,13 @@
     </row>
     <row r="83" spans="1:44">
       <c r="A83" t="s">
-        <v>73</v>
+        <v>247</v>
       </c>
       <c r="B83" t="s">
         <v>237</v>
       </c>
       <c r="C83" t="s">
-        <v>73</v>
+        <v>248</v>
       </c>
       <c r="D83" t="s">
         <v>102</v>
@@ -8955,126 +8965,43 @@
     </row>
     <row r="84" spans="1:44">
       <c r="A84" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B84" t="s">
-        <v>166</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>90</v>
+        <v>246</v>
+      </c>
+      <c r="C84" t="s">
+        <v>73</v>
       </c>
       <c r="D84" t="s">
         <v>102</v>
       </c>
       <c r="E84">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:44">
+      <c r="A85" t="s">
+        <v>74</v>
+      </c>
+      <c r="B85" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D85" t="s">
+        <v>102</v>
+      </c>
+      <c r="E85">
         <v>1</v>
       </c>
-      <c r="U84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V84" t="str">
+      <c r="U85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V85" t="str">
         <f t="shared" si="28"/>
         <v>减：营业外支出</v>
-      </c>
-      <c r="W84" t="e">
-        <f t="shared" si="29"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X84" t="e">
-        <f>VLOOKUP(W84,科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y84" t="e">
-        <f>VLOOKUP(W84,科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z84" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA84">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AB84">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AE84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF84" t="e">
-        <f t="shared" si="33"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG84">
-        <f t="shared" si="34"/>
-        <v>1000</v>
-      </c>
-      <c r="AH84" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ84" t="e">
-        <f>VLOOKUP(W84,科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK84" t="e">
-        <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM84" t="e">
-        <f t="shared" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AO84">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AP84" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ84" t="e">
-        <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR84" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="85" spans="1:44">
-      <c r="A85" t="s">
-        <v>75</v>
-      </c>
-      <c r="B85" t="s">
-        <v>152</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D85" t="s">
-        <v>102</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="U85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V85" t="str">
-        <f t="shared" si="28"/>
-        <v>减：所得税费用</v>
       </c>
       <c r="W85" t="e">
         <f t="shared" si="29"/>
@@ -9154,12 +9081,27 @@
       </c>
     </row>
     <row r="86" spans="1:44">
+      <c r="A86" t="s">
+        <v>75</v>
+      </c>
+      <c r="B86" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" t="s">
+        <v>102</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
       <c r="U86" t="e">
         <v>#N/A</v>
       </c>
       <c r="V86" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>减：所得税费用</v>
       </c>
       <c r="W86" t="e">
         <f t="shared" si="29"/>
@@ -9239,12 +9181,6 @@
       </c>
     </row>
     <row r="87" spans="1:44">
-      <c r="A87" t="s">
-        <v>104</v>
-      </c>
-      <c r="D87" t="s">
-        <v>99</v>
-      </c>
       <c r="U87" t="e">
         <v>#N/A</v>
       </c>
@@ -9331,29 +9267,20 @@
     </row>
     <row r="88" spans="1:44">
       <c r="A88" t="s">
-        <v>56</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E88">
-        <v>-1</v>
+        <v>104</v>
+      </c>
+      <c r="D88" t="s">
+        <v>99</v>
       </c>
       <c r="U88" t="e">
         <v>#N/A</v>
       </c>
       <c r="V88" t="str">
-        <f>TRIM($B88)</f>
-        <v>未分配利润</v>
+        <f t="shared" si="28"/>
+        <v/>
       </c>
       <c r="W88" t="e">
-        <f>_xlfn.IFNA(AE88,AH88)</f>
+        <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
       <c r="X88" t="e">
@@ -9365,30 +9292,30 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z88" t="e">
-        <f>U88&amp;"\"&amp;$C88</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="AA88">
-        <f>IF($P88="借",$R88,-$R88)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AB88">
-        <f>_xlfn.IFNA(IF(AE88="重复明细",0,AO88),AO88)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AE88" t="e">
         <v>#N/A</v>
       </c>
       <c r="AF88" t="e">
-        <f>FIND("\",$C88)</f>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG88">
-        <f>IFERROR(FIND("\",$C88,AF88+1),1000)</f>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="AH88" t="e">
-        <f>MID($C88,AF88+1,AG88-AF88-1)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AI88" t="e">
@@ -9399,45 +9326,45 @@
         <v>#VALUE!</v>
       </c>
       <c r="AK88" t="e">
-        <f>AI88&amp;"/"&amp;AJ88</f>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="AL88" t="e">
         <v>#N/A</v>
       </c>
       <c r="AM88" t="e">
-        <f>ROUND(AA88*AL88,2)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="AN88" t="e">
         <v>#N/A</v>
       </c>
       <c r="AO88">
-        <f>IFERROR(_xlfn.IFNA(AM88,AN88),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AP88" t="e">
-        <f>FIND("]",AO88)</f>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="AQ88" t="e">
-        <f>FIND("#",AO88)</f>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR88" t="e">
-        <f>FIND("#",AO88,AQ88+1)</f>
+        <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="89" spans="1:44">
       <c r="A89" t="s">
-        <v>103</v>
-      </c>
-      <c r="B89" t="s">
-        <v>103</v>
-      </c>
-      <c r="C89" t="s">
-        <v>103</v>
+        <v>56</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>102</v>
@@ -9449,108 +9376,108 @@
         <v>#N/A</v>
       </c>
       <c r="V89" t="str">
+        <f>TRIM($B89)</f>
+        <v>未分配利润</v>
+      </c>
+      <c r="W89" t="e">
+        <f>_xlfn.IFNA(AE89,AH89)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X89" t="e">
+        <f>VLOOKUP(W89,科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y89" t="e">
+        <f>VLOOKUP(W89,科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z89" t="e">
+        <f>U89&amp;"\"&amp;$C89</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA89">
+        <f>IF($P89="借",$R89,-$R89)</f>
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <f>_xlfn.IFNA(IF(AE89="重复明细",0,AO89),AO89)</f>
+        <v>0</v>
+      </c>
+      <c r="AE89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF89" t="e">
+        <f>FIND("\",$C89)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG89">
+        <f>IFERROR(FIND("\",$C89,AF89+1),1000)</f>
+        <v>1000</v>
+      </c>
+      <c r="AH89" t="e">
+        <f>MID($C89,AF89+1,AG89-AF89-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ89" t="e">
+        <f>VLOOKUP(W89,科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK89" t="e">
+        <f>AI89&amp;"/"&amp;AJ89</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM89" t="e">
+        <f>ROUND(AA89*AL89,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO89">
+        <f>IFERROR(_xlfn.IFNA(AM89,AN89),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP89" t="e">
+        <f>FIND("]",AO89)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ89" t="e">
+        <f>FIND("#",AO89)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR89" t="e">
+        <f>FIND("#",AO89,AQ89+1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:44">
+      <c r="A90" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90" t="s">
+        <v>103</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E90">
+        <v>-1</v>
+      </c>
+      <c r="U90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V90" t="str">
         <f t="shared" si="28"/>
         <v>本年利润抵消明细</v>
-      </c>
-      <c r="W89" t="e">
-        <f t="shared" si="29"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X89" t="e">
-        <f>VLOOKUP(W89,科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y89" t="e">
-        <f>VLOOKUP(W89,科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z89" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA89">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AB89">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AE89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF89" t="e">
-        <f t="shared" si="33"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG89">
-        <f t="shared" si="34"/>
-        <v>1000</v>
-      </c>
-      <c r="AH89" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ89" t="e">
-        <f>VLOOKUP(W89,科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK89" t="e">
-        <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM89" t="e">
-        <f t="shared" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AO89">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AP89" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ89" t="e">
-        <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR89" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="90" spans="1:44">
-      <c r="A90" t="s">
-        <v>105</v>
-      </c>
-      <c r="B90" t="s">
-        <v>243</v>
-      </c>
-      <c r="C90" t="s">
-        <v>243</v>
-      </c>
-      <c r="D90" t="s">
-        <v>101</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="U90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V90" t="str">
-        <f t="shared" si="28"/>
-        <v>外币报表折算</v>
       </c>
       <c r="W90" t="e">
         <f t="shared" si="29"/>
@@ -9631,30 +9558,113 @@
     </row>
     <row r="91" spans="1:44">
       <c r="A91" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B91" t="s">
-        <v>126</v>
+        <v>243</v>
       </c>
       <c r="C91" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E91">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="U91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V91" t="str">
+        <f t="shared" si="28"/>
+        <v>外币报表折算</v>
+      </c>
+      <c r="W91" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X91" t="e">
+        <f>VLOOKUP(W91,科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y91" t="e">
+        <f>VLOOKUP(W91,科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z91" t="e">
+        <f t="shared" si="30"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA91">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AB91">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AE91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF91" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG91">
+        <f t="shared" si="34"/>
+        <v>1000</v>
+      </c>
+      <c r="AH91" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ91" t="e">
+        <f>VLOOKUP(W91,科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK91" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM91" t="e">
+        <f t="shared" si="37"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO91">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AP91" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ91" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR91" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="92" spans="1:44">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B92" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="C92" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D92" t="s">
         <v>102</v>
@@ -9665,37 +9675,54 @@
     </row>
     <row r="93" spans="1:44">
       <c r="A93" t="s">
-        <v>232</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>234</v>
+        <v>127</v>
+      </c>
+      <c r="B93" t="s">
+        <v>177</v>
+      </c>
+      <c r="C93" t="s">
+        <v>242</v>
+      </c>
+      <c r="D93" t="s">
+        <v>102</v>
+      </c>
+      <c r="E93">
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:44">
       <c r="A94" t="s">
+        <v>232</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="95" spans="1:44">
+      <c r="A95" t="s">
         <v>245</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>134</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C95" t="s">
         <v>77</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D95" t="s">
         <v>99</v>
       </c>
-      <c r="E94">
+      <c r="E95">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G93" xr:uid="{1611A6C3-6C6A-44A7-AA58-C620DCB769FB}"/>
+  <autoFilter ref="A1:G94" xr:uid="{1611A6C3-6C6A-44A7-AA58-C620DCB769FB}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/00框架文件/03MR.xlsx
+++ b/00框架文件/03MR.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE46C9B2-2431-4107-AC05-D24F2A7B4CD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3338B7A-44A3-4780-A5BF-CCB4E31DB955}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="报表筛选" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">科目!$A$1:$G$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">科目!$A$1:$G$96</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="251">
   <si>
     <t>报表科目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -815,6 +815,13 @@
   </si>
   <si>
     <t>信用减值损失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用权资产累计折旧</t>
+  </si>
+  <si>
+    <t>其他应付款（工会经费）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1164,13 +1171,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AR95"/>
+  <dimension ref="A1:AR97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A83" sqref="A83"/>
+      <selection pane="bottomRight" activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1284,11 +1291,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="str">
-        <f t="shared" ref="V2:V37" si="0">TRIM($B2)</f>
+        <f t="shared" ref="V2:V38" si="0">TRIM($B2)</f>
         <v>货币资金</v>
       </c>
       <c r="W2" t="e">
-        <f t="shared" ref="W2:W37" si="1">_xlfn.IFNA(AE2,AH2)</f>
+        <f t="shared" ref="W2:W38" si="1">_xlfn.IFNA(AE2,AH2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="X2" t="e">
@@ -1300,30 +1307,30 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z2" t="e">
-        <f t="shared" ref="Z2:Z37" si="2">U2&amp;"\"&amp;$C2</f>
+        <f t="shared" ref="Z2:Z38" si="2">U2&amp;"\"&amp;$C2</f>
         <v>#N/A</v>
       </c>
       <c r="AA2">
-        <f t="shared" ref="AA2:AA37" si="3">IF($P2="借",$R2,-$R2)</f>
+        <f t="shared" ref="AA2:AA38" si="3">IF($P2="借",$R2,-$R2)</f>
         <v>0</v>
       </c>
       <c r="AB2">
-        <f t="shared" ref="AB2:AB37" si="4">_xlfn.IFNA(IF(AE2="重复明细",0,AO2),AO2)</f>
+        <f t="shared" ref="AB2:AB38" si="4">_xlfn.IFNA(IF(AE2="重复明细",0,AO2),AO2)</f>
         <v>0</v>
       </c>
       <c r="AE2" t="e">
         <v>#N/A</v>
       </c>
       <c r="AF2" t="e">
-        <f t="shared" ref="AF2:AF37" si="5">FIND("\",$C2)</f>
+        <f t="shared" ref="AF2:AF38" si="5">FIND("\",$C2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AG2">
-        <f t="shared" ref="AG2:AG37" si="6">IFERROR(FIND("\",$C2,AF2+1),1000)</f>
+        <f t="shared" ref="AG2:AG38" si="6">IFERROR(FIND("\",$C2,AF2+1),1000)</f>
         <v>1000</v>
       </c>
       <c r="AH2" t="e">
-        <f t="shared" ref="AH2:AH37" si="7">MID($C2,AF2+1,AG2-AF2-1)</f>
+        <f t="shared" ref="AH2:AH38" si="7">MID($C2,AF2+1,AG2-AF2-1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AI2" t="e">
@@ -1334,33 +1341,33 @@
         <v>#VALUE!</v>
       </c>
       <c r="AK2" t="e">
-        <f t="shared" ref="AK2:AK37" si="8">AI2&amp;"/"&amp;AJ2</f>
+        <f t="shared" ref="AK2:AK38" si="8">AI2&amp;"/"&amp;AJ2</f>
         <v>#N/A</v>
       </c>
       <c r="AL2" t="e">
         <v>#N/A</v>
       </c>
       <c r="AM2" t="e">
-        <f t="shared" ref="AM2:AM37" si="9">ROUND(AA2*AL2,2)</f>
+        <f t="shared" ref="AM2:AM38" si="9">ROUND(AA2*AL2,2)</f>
         <v>#N/A</v>
       </c>
       <c r="AN2" t="e">
         <v>#N/A</v>
       </c>
       <c r="AO2">
-        <f t="shared" ref="AO2:AO37" si="10">IFERROR(_xlfn.IFNA(AM2,AN2),0)</f>
+        <f t="shared" ref="AO2:AO38" si="10">IFERROR(_xlfn.IFNA(AM2,AN2),0)</f>
         <v>0</v>
       </c>
       <c r="AP2" t="e">
-        <f t="shared" ref="AP2:AP37" si="11">FIND("]",AO2)</f>
+        <f t="shared" ref="AP2:AP38" si="11">FIND("]",AO2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AQ2" t="e">
-        <f t="shared" ref="AQ2:AQ37" si="12">FIND("#",AO2)</f>
+        <f t="shared" ref="AQ2:AQ38" si="12">FIND("#",AO2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="AR2" t="e">
-        <f t="shared" ref="AR2:AR37" si="13">FIND("#",AO2,AQ2+1)</f>
+        <f t="shared" ref="AR2:AR38" si="13">FIND("#",AO2,AQ2+1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4133,14 +4140,14 @@
       </c>
     </row>
     <row r="34" spans="1:44">
-      <c r="A34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" t="s">
-        <v>139</v>
+      <c r="A34" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
         <v>99</v>
@@ -4148,99 +4155,16 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="U34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V34" t="str">
-        <f t="shared" si="0"/>
-        <v>固定资产</v>
-      </c>
-      <c r="W34" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X34" t="e">
-        <f>VLOOKUP(W34,科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y34" t="e">
-        <f>VLOOKUP(W34,科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z34" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB34">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF34" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG34">
-        <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="AH34" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ34" t="e">
-        <f>VLOOKUP(W34,科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK34" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM34" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AO34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AP34" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ34" t="e">
-        <f t="shared" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR34" t="e">
-        <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="35" spans="1:44">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
         <v>139</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
         <v>99</v>
@@ -4334,13 +4258,13 @@
     </row>
     <row r="36" spans="1:44">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
         <v>139</v>
       </c>
-      <c r="C36" t="s">
-        <v>27</v>
+      <c r="C36" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="D36" t="s">
         <v>99</v>
@@ -4434,13 +4358,13 @@
     </row>
     <row r="37" spans="1:44">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
         <v>99</v>
@@ -4453,7 +4377,7 @@
       </c>
       <c r="V37" t="str">
         <f t="shared" si="0"/>
-        <v>在建工程</v>
+        <v>固定资产</v>
       </c>
       <c r="W37" t="e">
         <f t="shared" si="1"/>
@@ -4534,13 +4458,13 @@
     </row>
     <row r="38" spans="1:44">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D38" t="s">
         <v>99</v>
@@ -4552,11 +4476,11 @@
         <v>#N/A</v>
       </c>
       <c r="V38" t="str">
-        <f t="shared" ref="V38:V68" si="14">TRIM($B38)</f>
-        <v>工程物资</v>
+        <f t="shared" si="0"/>
+        <v>在建工程</v>
       </c>
       <c r="W38" t="e">
-        <f t="shared" ref="W38:W68" si="15">_xlfn.IFNA(AE38,AH38)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="X38" t="e">
@@ -4568,30 +4492,30 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z38" t="e">
-        <f t="shared" ref="Z38:Z68" si="16">U38&amp;"\"&amp;$C38</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AA38">
-        <f t="shared" ref="AA38:AA68" si="17">IF($P38="借",$R38,-$R38)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB38">
-        <f t="shared" ref="AB38:AB68" si="18">_xlfn.IFNA(IF(AE38="重复明细",0,AO38),AO38)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE38" t="e">
         <v>#N/A</v>
       </c>
       <c r="AF38" t="e">
-        <f t="shared" ref="AF38:AF68" si="19">FIND("\",$C38)</f>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG38">
-        <f t="shared" ref="AG38:AG68" si="20">IFERROR(FIND("\",$C38,AF38+1),1000)</f>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="AH38" t="e">
-        <f t="shared" ref="AH38:AH68" si="21">MID($C38,AF38+1,AG38-AF38-1)</f>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="AI38" t="e">
@@ -4602,45 +4526,45 @@
         <v>#VALUE!</v>
       </c>
       <c r="AK38" t="e">
-        <f t="shared" ref="AK38:AK68" si="22">AI38&amp;"/"&amp;AJ38</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="AL38" t="e">
         <v>#N/A</v>
       </c>
       <c r="AM38" t="e">
-        <f t="shared" ref="AM38:AM68" si="23">ROUND(AA38*AL38,2)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="AN38" t="e">
         <v>#N/A</v>
       </c>
       <c r="AO38">
-        <f t="shared" ref="AO38:AO68" si="24">IFERROR(_xlfn.IFNA(AM38,AN38),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AP38" t="e">
-        <f t="shared" ref="AP38:AP68" si="25">FIND("]",AO38)</f>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="AQ38" t="e">
-        <f t="shared" ref="AQ38:AQ68" si="26">FIND("#",AO38)</f>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR38" t="e">
-        <f t="shared" ref="AR38:AR68" si="27">FIND("#",AO38,AQ38+1)</f>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="39" spans="1:44">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
         <v>99</v>
@@ -4652,108 +4576,108 @@
         <v>#N/A</v>
       </c>
       <c r="V39" t="str">
+        <f t="shared" ref="V39:V70" si="14">TRIM($B39)</f>
+        <v>工程物资</v>
+      </c>
+      <c r="W39" t="e">
+        <f t="shared" ref="W39:W70" si="15">_xlfn.IFNA(AE39,AH39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X39" t="e">
+        <f>VLOOKUP(W39,科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y39" t="e">
+        <f>VLOOKUP(W39,科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z39" t="e">
+        <f t="shared" ref="Z39:Z70" si="16">U39&amp;"\"&amp;$C39</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" ref="AA39:AA70" si="17">IF($P39="借",$R39,-$R39)</f>
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" ref="AB39:AB70" si="18">_xlfn.IFNA(IF(AE39="重复明细",0,AO39),AO39)</f>
+        <v>0</v>
+      </c>
+      <c r="AE39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF39" t="e">
+        <f t="shared" ref="AF39:AF70" si="19">FIND("\",$C39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" ref="AG39:AG70" si="20">IFERROR(FIND("\",$C39,AF39+1),1000)</f>
+        <v>1000</v>
+      </c>
+      <c r="AH39" t="e">
+        <f t="shared" ref="AH39:AH70" si="21">MID($C39,AF39+1,AG39-AF39-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ39" t="e">
+        <f>VLOOKUP(W39,科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK39" t="e">
+        <f t="shared" ref="AK39:AK70" si="22">AI39&amp;"/"&amp;AJ39</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM39" t="e">
+        <f t="shared" ref="AM39:AM70" si="23">ROUND(AA39*AL39,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO39">
+        <f t="shared" ref="AO39:AO70" si="24">IFERROR(_xlfn.IFNA(AM39,AN39),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP39" t="e">
+        <f t="shared" ref="AP39:AP70" si="25">FIND("]",AO39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ39" t="e">
+        <f t="shared" ref="AQ39:AQ70" si="26">FIND("#",AO39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR39" t="e">
+        <f t="shared" ref="AR39:AR70" si="27">FIND("#",AO39,AQ39+1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="U40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V40" t="str">
         <f t="shared" si="14"/>
         <v>固定资产清理</v>
-      </c>
-      <c r="W39" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X39" t="e">
-        <f>VLOOKUP(W39,科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y39" t="e">
-        <f>VLOOKUP(W39,科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z39" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA39">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AB39">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AE39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF39" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG39">
-        <f t="shared" si="20"/>
-        <v>1000</v>
-      </c>
-      <c r="AH39" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ39" t="e">
-        <f>VLOOKUP(W39,科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK39" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM39" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AO39">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AP39" t="e">
-        <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ39" t="e">
-        <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR39" t="e">
-        <f t="shared" si="27"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:44">
-      <c r="A40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" t="s">
-        <v>99</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="U40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V40" t="str">
-        <f t="shared" si="14"/>
-        <v>无形资产</v>
       </c>
       <c r="W40" t="e">
         <f t="shared" si="15"/>
@@ -4834,12 +4758,12 @@
     </row>
     <row r="41" spans="1:44">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
         <v>150</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>33</v>
       </c>
       <c r="D41" t="s">
@@ -4934,12 +4858,12 @@
     </row>
     <row r="42" spans="1:44">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s">
         <v>150</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D42" t="s">
@@ -5034,13 +4958,13 @@
     </row>
     <row r="43" spans="1:44">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D43" t="s">
         <v>99</v>
@@ -5053,7 +4977,7 @@
       </c>
       <c r="V43" t="str">
         <f t="shared" si="14"/>
-        <v>商誉</v>
+        <v>无形资产</v>
       </c>
       <c r="W43" t="e">
         <f t="shared" si="15"/>
@@ -5134,13 +5058,13 @@
     </row>
     <row r="44" spans="1:44">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D44" t="s">
         <v>99</v>
@@ -5153,7 +5077,7 @@
       </c>
       <c r="V44" t="str">
         <f t="shared" si="14"/>
-        <v>长期待摊费用</v>
+        <v>商誉</v>
       </c>
       <c r="W44" t="e">
         <f t="shared" si="15"/>
@@ -5234,13 +5158,13 @@
     </row>
     <row r="45" spans="1:44">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s">
         <v>99</v>
@@ -5253,7 +5177,7 @@
       </c>
       <c r="V45" t="str">
         <f t="shared" si="14"/>
-        <v>递延所得税资产</v>
+        <v>长期待摊费用</v>
       </c>
       <c r="W45" t="e">
         <f t="shared" si="15"/>
@@ -5334,26 +5258,26 @@
     </row>
     <row r="46" spans="1:44">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D46" t="s">
         <v>99</v>
       </c>
       <c r="E46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U46" t="e">
         <v>#N/A</v>
       </c>
       <c r="V46" t="str">
         <f t="shared" si="14"/>
-        <v>短期借款</v>
+        <v>递延所得税资产</v>
       </c>
       <c r="W46" t="e">
         <f t="shared" si="15"/>
@@ -5434,13 +5358,13 @@
     </row>
     <row r="47" spans="1:44">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D47" t="s">
         <v>99</v>
@@ -5453,7 +5377,7 @@
       </c>
       <c r="V47" t="str">
         <f t="shared" si="14"/>
-        <v>应付票据</v>
+        <v>短期借款</v>
       </c>
       <c r="W47" t="e">
         <f t="shared" si="15"/>
@@ -5534,13 +5458,13 @@
     </row>
     <row r="48" spans="1:44">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D48" t="s">
         <v>99</v>
@@ -5553,7 +5477,7 @@
       </c>
       <c r="V48" t="str">
         <f t="shared" si="14"/>
-        <v>应付账款</v>
+        <v>应付票据</v>
       </c>
       <c r="W48" t="e">
         <f t="shared" si="15"/>
@@ -5634,13 +5558,13 @@
     </row>
     <row r="49" spans="1:44">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D49" t="s">
         <v>99</v>
@@ -5653,7 +5577,7 @@
       </c>
       <c r="V49" t="str">
         <f t="shared" si="14"/>
-        <v>预收款项</v>
+        <v>应付账款</v>
       </c>
       <c r="W49" t="e">
         <f t="shared" si="15"/>
@@ -5734,13 +5658,13 @@
     </row>
     <row r="50" spans="1:44">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D50" t="s">
         <v>99</v>
@@ -5753,7 +5677,7 @@
       </c>
       <c r="V50" t="str">
         <f t="shared" si="14"/>
-        <v>应付职工薪酬</v>
+        <v>预收款项</v>
       </c>
       <c r="W50" t="e">
         <f t="shared" si="15"/>
@@ -5834,13 +5758,13 @@
     </row>
     <row r="51" spans="1:44">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D51" t="s">
         <v>99</v>
@@ -5853,7 +5777,7 @@
       </c>
       <c r="V51" t="str">
         <f t="shared" si="14"/>
-        <v>应交税费</v>
+        <v>应付职工薪酬</v>
       </c>
       <c r="W51" t="e">
         <f t="shared" si="15"/>
@@ -5934,13 +5858,13 @@
     </row>
     <row r="52" spans="1:44">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>45</v>
+        <v>158</v>
+      </c>
+      <c r="C52" t="s">
+        <v>44</v>
       </c>
       <c r="D52" t="s">
         <v>99</v>
@@ -5953,7 +5877,7 @@
       </c>
       <c r="V52" t="str">
         <f t="shared" si="14"/>
-        <v>其他应付款</v>
+        <v>应交税费</v>
       </c>
       <c r="W52" t="e">
         <f t="shared" si="15"/>
@@ -6034,13 +5958,13 @@
     </row>
     <row r="53" spans="1:44">
       <c r="A53" t="s">
-        <v>46</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>146</v>
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
+        <v>145</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D53" t="s">
         <v>99</v>
@@ -6134,13 +6058,13 @@
     </row>
     <row r="54" spans="1:44">
       <c r="A54" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C54" t="s">
-        <v>47</v>
+      <c r="C54" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="D54" t="s">
         <v>99</v>
@@ -6234,10 +6158,13 @@
     </row>
     <row r="55" spans="1:44">
       <c r="A55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>83</v>
+        <v>47</v>
+      </c>
+      <c r="B55" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" t="s">
+        <v>47</v>
       </c>
       <c r="D55" t="s">
         <v>99</v>
@@ -6250,7 +6177,7 @@
       </c>
       <c r="V55" t="str">
         <f t="shared" si="14"/>
-        <v/>
+        <v>其他应付款</v>
       </c>
       <c r="W55" t="e">
         <f t="shared" si="15"/>
@@ -6330,114 +6257,28 @@
       </c>
     </row>
     <row r="56" spans="1:44">
-      <c r="A56" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="A56" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="1">
         <v>-1</v>
-      </c>
-      <c r="U56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V56" t="str">
-        <f t="shared" si="14"/>
-        <v>租赁负债</v>
-      </c>
-      <c r="W56" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X56" t="e">
-        <f>VLOOKUP(W56,科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y56" t="e">
-        <f>VLOOKUP(W56,科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z56" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA56">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AB56">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AE56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF56" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG56">
-        <f t="shared" si="20"/>
-        <v>1000</v>
-      </c>
-      <c r="AH56" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ56" t="e">
-        <f>VLOOKUP(W56,科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK56" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM56" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AO56">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AP56" t="e">
-        <f t="shared" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ56" t="e">
-        <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR56" t="e">
-        <f t="shared" si="27"/>
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="57" spans="1:44">
       <c r="A57" t="s">
-        <v>49</v>
-      </c>
-      <c r="B57" t="s">
-        <v>173</v>
-      </c>
-      <c r="C57" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D57" t="s">
         <v>99</v>
@@ -6450,7 +6291,7 @@
       </c>
       <c r="V57" t="str">
         <f t="shared" si="14"/>
-        <v>长期借款</v>
+        <v/>
       </c>
       <c r="W57" t="e">
         <f t="shared" si="15"/>
@@ -6530,14 +6371,14 @@
       </c>
     </row>
     <row r="58" spans="1:44">
-      <c r="A58" t="s">
-        <v>50</v>
-      </c>
-      <c r="B58" t="s">
-        <v>174</v>
-      </c>
-      <c r="C58" t="s">
-        <v>50</v>
+      <c r="A58" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="D58" t="s">
         <v>99</v>
@@ -6550,7 +6391,7 @@
       </c>
       <c r="V58" t="str">
         <f t="shared" si="14"/>
-        <v>长期应付款</v>
+        <v>租赁负债</v>
       </c>
       <c r="W58" t="e">
         <f t="shared" si="15"/>
@@ -6631,13 +6472,13 @@
     </row>
     <row r="59" spans="1:44">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C59" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D59" t="s">
         <v>99</v>
@@ -6650,7 +6491,7 @@
       </c>
       <c r="V59" t="str">
         <f t="shared" si="14"/>
-        <v>预计负债</v>
+        <v>长期借款</v>
       </c>
       <c r="W59" t="e">
         <f t="shared" si="15"/>
@@ -6731,13 +6572,13 @@
     </row>
     <row r="60" spans="1:44">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="C60" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D60" t="s">
         <v>99</v>
@@ -6750,7 +6591,7 @@
       </c>
       <c r="V60" t="str">
         <f t="shared" si="14"/>
-        <v>递延所得税负债</v>
+        <v>长期应付款</v>
       </c>
       <c r="W60" t="e">
         <f t="shared" si="15"/>
@@ -6831,16 +6672,16 @@
     </row>
     <row r="61" spans="1:44">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>53</v>
+        <v>168</v>
+      </c>
+      <c r="C61" t="s">
+        <v>51</v>
       </c>
       <c r="D61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E61">
         <v>-1</v>
@@ -6850,7 +6691,7 @@
       </c>
       <c r="V61" t="str">
         <f t="shared" si="14"/>
-        <v>实收资本(或股本)</v>
+        <v>预计负债</v>
       </c>
       <c r="W61" t="e">
         <f t="shared" si="15"/>
@@ -6931,16 +6772,16 @@
     </row>
     <row r="62" spans="1:44">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="C62" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E62">
         <v>-1</v>
@@ -6950,7 +6791,7 @@
       </c>
       <c r="V62" t="str">
         <f t="shared" si="14"/>
-        <v>资本公积</v>
+        <v>递延所得税负债</v>
       </c>
       <c r="W62" t="e">
         <f t="shared" si="15"/>
@@ -7031,13 +6872,13 @@
     </row>
     <row r="63" spans="1:44">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>161</v>
-      </c>
-      <c r="C63" t="s">
-        <v>55</v>
+        <v>149</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D63" t="s">
         <v>100</v>
@@ -7050,7 +6891,7 @@
       </c>
       <c r="V63" t="str">
         <f t="shared" si="14"/>
-        <v>盈余公积</v>
+        <v>实收资本(或股本)</v>
       </c>
       <c r="W63" t="e">
         <f t="shared" si="15"/>
@@ -7131,13 +6972,13 @@
     </row>
     <row r="64" spans="1:44">
       <c r="A64" t="s">
-        <v>57</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>240</v>
+        <v>54</v>
+      </c>
+      <c r="B64" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" t="s">
+        <v>54</v>
       </c>
       <c r="D64" t="s">
         <v>100</v>
@@ -7150,7 +6991,7 @@
       </c>
       <c r="V64" t="str">
         <f t="shared" si="14"/>
-        <v>未分配利润</v>
+        <v>资本公积</v>
       </c>
       <c r="W64" t="e">
         <f t="shared" si="15"/>
@@ -7231,26 +7072,26 @@
     </row>
     <row r="65" spans="1:44">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B65" t="s">
-        <v>141</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>84</v>
+        <v>161</v>
+      </c>
+      <c r="C65" t="s">
+        <v>55</v>
       </c>
       <c r="D65" t="s">
         <v>100</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U65" t="e">
         <v>#N/A</v>
       </c>
       <c r="V65" t="str">
         <f t="shared" si="14"/>
-        <v>减:库存股</v>
+        <v>盈余公积</v>
       </c>
       <c r="W65" t="e">
         <f t="shared" si="15"/>
@@ -7330,14 +7171,14 @@
       </c>
     </row>
     <row r="66" spans="1:44">
-      <c r="A66" s="1" t="s">
-        <v>97</v>
+      <c r="A66" t="s">
+        <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>97</v>
+        <v>143</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="D66" t="s">
         <v>100</v>
@@ -7350,7 +7191,7 @@
       </c>
       <c r="V66" t="str">
         <f t="shared" si="14"/>
-        <v>其他综合收益</v>
+        <v>未分配利润</v>
       </c>
       <c r="W66" t="e">
         <f t="shared" si="15"/>
@@ -7431,33 +7272,116 @@
     </row>
     <row r="67" spans="1:44">
       <c r="A67" t="s">
-        <v>236</v>
+        <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
-      </c>
-      <c r="C67" t="s">
-        <v>77</v>
+        <v>141</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="D67" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
+      <c r="U67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V67" t="str">
+        <f t="shared" si="14"/>
+        <v>减:库存股</v>
+      </c>
+      <c r="W67" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X67" t="e">
+        <f>VLOOKUP(W67,科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y67" t="e">
+        <f>VLOOKUP(W67,科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z67" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA67">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AE67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF67" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG67">
+        <f t="shared" si="20"/>
+        <v>1000</v>
+      </c>
+      <c r="AH67" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ67" t="e">
+        <f>VLOOKUP(W67,科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK67" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM67" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO67">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AP67" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ67" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR67" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="68" spans="1:44">
-      <c r="A68" t="s">
-        <v>59</v>
-      </c>
-      <c r="B68" t="s">
-        <v>163</v>
+      <c r="A68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D68" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E68">
         <v>-1</v>
@@ -7467,7 +7391,7 @@
       </c>
       <c r="V68" t="str">
         <f t="shared" si="14"/>
-        <v>一、营业收入</v>
+        <v>其他综合收益</v>
       </c>
       <c r="W68" t="e">
         <f t="shared" si="15"/>
@@ -7548,113 +7472,30 @@
     </row>
     <row r="69" spans="1:44">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>236</v>
       </c>
       <c r="B69" t="s">
-        <v>133</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>72</v>
+        <v>134</v>
+      </c>
+      <c r="C69" t="s">
+        <v>77</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
-      <c r="U69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V69" t="str">
-        <f t="shared" ref="V69:V91" si="28">TRIM($B69)</f>
-        <v>财务费用</v>
-      </c>
-      <c r="W69" t="e">
-        <f t="shared" ref="W69:W91" si="29">_xlfn.IFNA(AE69,AH69)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X69" t="e">
-        <f>VLOOKUP(W69,科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y69" t="e">
-        <f>VLOOKUP(W69,科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z69" t="e">
-        <f t="shared" ref="Z69:Z91" si="30">U69&amp;"\"&amp;$C69</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA69">
-        <f t="shared" ref="AA69:AA91" si="31">IF($P69="借",$R69,-$R69)</f>
-        <v>0</v>
-      </c>
-      <c r="AB69">
-        <f t="shared" ref="AB69:AB91" si="32">_xlfn.IFNA(IF(AE69="重复明细",0,AO69),AO69)</f>
-        <v>0</v>
-      </c>
-      <c r="AE69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF69" t="e">
-        <f t="shared" ref="AF69:AF91" si="33">FIND("\",$C69)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG69">
-        <f t="shared" ref="AG69:AG91" si="34">IFERROR(FIND("\",$C69,AF69+1),1000)</f>
-        <v>1000</v>
-      </c>
-      <c r="AH69" t="e">
-        <f t="shared" ref="AH69:AH91" si="35">MID($C69,AF69+1,AG69-AF69-1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ69" t="e">
-        <f>VLOOKUP(W69,科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK69" t="e">
-        <f t="shared" ref="AK69:AK91" si="36">AI69&amp;"/"&amp;AJ69</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AL69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM69" t="e">
-        <f t="shared" ref="AM69:AM91" si="37">ROUND(AA69*AL69,2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AO69">
-        <f t="shared" ref="AO69:AO91" si="38">IFERROR(_xlfn.IFNA(AM69,AN69),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AP69" t="e">
-        <f t="shared" ref="AP69:AP91" si="39">FIND("]",AO69)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ69" t="e">
-        <f t="shared" ref="AQ69:AQ91" si="40">FIND("#",AO69)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR69" t="e">
-        <f t="shared" ref="AR69:AR91" si="41">FIND("#",AO69,AQ69+1)</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="70" spans="1:44">
       <c r="A70" t="s">
-        <v>61</v>
-      </c>
-      <c r="B70" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" t="s">
         <v>163</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D70" t="s">
         <v>102</v>
@@ -7666,208 +7507,208 @@
         <v>#N/A</v>
       </c>
       <c r="V70" t="str">
+        <f t="shared" si="14"/>
+        <v>一、营业收入</v>
+      </c>
+      <c r="W70" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X70" t="e">
+        <f>VLOOKUP(W70,科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y70" t="e">
+        <f>VLOOKUP(W70,科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z70" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA70">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AE70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF70" t="e">
+        <f t="shared" si="19"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG70">
+        <f t="shared" si="20"/>
+        <v>1000</v>
+      </c>
+      <c r="AH70" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ70" t="e">
+        <f>VLOOKUP(W70,科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK70" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM70" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO70">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AP70" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ70" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR70" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:44">
+      <c r="A71" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="U71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V71" t="str">
+        <f t="shared" ref="V71:V93" si="28">TRIM($B71)</f>
+        <v>财务费用</v>
+      </c>
+      <c r="W71" t="e">
+        <f t="shared" ref="W71:W93" si="29">_xlfn.IFNA(AE71,AH71)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X71" t="e">
+        <f>VLOOKUP(W71,科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y71" t="e">
+        <f>VLOOKUP(W71,科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z71" t="e">
+        <f t="shared" ref="Z71:Z93" si="30">U71&amp;"\"&amp;$C71</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA71">
+        <f t="shared" ref="AA71:AA93" si="31">IF($P71="借",$R71,-$R71)</f>
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <f t="shared" ref="AB71:AB93" si="32">_xlfn.IFNA(IF(AE71="重复明细",0,AO71),AO71)</f>
+        <v>0</v>
+      </c>
+      <c r="AE71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF71" t="e">
+        <f t="shared" ref="AF71:AF93" si="33">FIND("\",$C71)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG71">
+        <f t="shared" ref="AG71:AG93" si="34">IFERROR(FIND("\",$C71,AF71+1),1000)</f>
+        <v>1000</v>
+      </c>
+      <c r="AH71" t="e">
+        <f t="shared" ref="AH71:AH93" si="35">MID($C71,AF71+1,AG71-AF71-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ71" t="e">
+        <f>VLOOKUP(W71,科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK71" t="e">
+        <f t="shared" ref="AK71:AK93" si="36">AI71&amp;"/"&amp;AJ71</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM71" t="e">
+        <f t="shared" ref="AM71:AM93" si="37">ROUND(AA71*AL71,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO71">
+        <f t="shared" ref="AO71:AO93" si="38">IFERROR(_xlfn.IFNA(AM71,AN71),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP71" t="e">
+        <f t="shared" ref="AP71:AP93" si="39">FIND("]",AO71)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ71" t="e">
+        <f t="shared" ref="AQ71:AQ93" si="40">FIND("#",AO71)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR71" t="e">
+        <f t="shared" ref="AR71:AR93" si="41">FIND("#",AO71,AQ71+1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:44">
+      <c r="A72" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" t="s">
+        <v>102</v>
+      </c>
+      <c r="E72">
+        <v>-1</v>
+      </c>
+      <c r="U72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V72" t="str">
         <f t="shared" si="28"/>
         <v>一、营业收入</v>
-      </c>
-      <c r="W70" t="e">
-        <f t="shared" si="29"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X70" t="e">
-        <f>VLOOKUP(W70,科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y70" t="e">
-        <f>VLOOKUP(W70,科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z70" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA70">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AB70">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AE70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF70" t="e">
-        <f t="shared" si="33"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG70">
-        <f t="shared" si="34"/>
-        <v>1000</v>
-      </c>
-      <c r="AH70" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ70" t="e">
-        <f>VLOOKUP(W70,科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK70" t="e">
-        <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM70" t="e">
-        <f t="shared" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AO70">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AP70" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ70" t="e">
-        <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR70" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="71" spans="1:44">
-      <c r="A71" t="s">
-        <v>62</v>
-      </c>
-      <c r="B71" t="s">
-        <v>133</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D71" t="s">
-        <v>102</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="U71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V71" t="str">
-        <f t="shared" si="28"/>
-        <v>财务费用</v>
-      </c>
-      <c r="W71" t="e">
-        <f t="shared" si="29"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X71" t="e">
-        <f>VLOOKUP(W71,科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y71" t="e">
-        <f>VLOOKUP(W71,科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z71" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA71">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AB71">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AE71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF71" t="e">
-        <f t="shared" si="33"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG71">
-        <f t="shared" si="34"/>
-        <v>1000</v>
-      </c>
-      <c r="AH71" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ71" t="e">
-        <f>VLOOKUP(W71,科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK71" t="e">
-        <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM71" t="e">
-        <f t="shared" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AO71">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AP71" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ71" t="e">
-        <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR71" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="72" spans="1:44">
-      <c r="A72" t="s">
-        <v>63</v>
-      </c>
-      <c r="B72" t="s">
-        <v>138</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D72" t="s">
-        <v>102</v>
-      </c>
-      <c r="E72">
-        <v>-1</v>
-      </c>
-      <c r="U72" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V72" t="str">
-        <f t="shared" si="28"/>
-        <v>公允价值变动收益（损失以“－”号填列）</v>
       </c>
       <c r="W72" t="e">
         <f t="shared" si="29"/>
@@ -7948,26 +7789,26 @@
     </row>
     <row r="73" spans="1:44">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B73" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D73" t="s">
         <v>102</v>
       </c>
       <c r="E73">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U73" t="e">
         <v>#N/A</v>
       </c>
       <c r="V73" t="str">
         <f t="shared" si="28"/>
-        <v>投资收益（损失以“－”号填列）</v>
+        <v>财务费用</v>
       </c>
       <c r="W73" t="e">
         <f t="shared" si="29"/>
@@ -8048,13 +7889,13 @@
     </row>
     <row r="74" spans="1:44">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B74" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D74" t="s">
         <v>102</v>
@@ -8067,7 +7908,7 @@
       </c>
       <c r="V74" t="str">
         <f t="shared" si="28"/>
-        <v>加: 营业外收入</v>
+        <v>公允价值变动收益（损失以“－”号填列）</v>
       </c>
       <c r="W74" t="e">
         <f t="shared" si="29"/>
@@ -8148,26 +7989,26 @@
     </row>
     <row r="75" spans="1:44">
       <c r="A75" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B75" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D75" t="s">
         <v>102</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U75" t="e">
         <v>#N/A</v>
       </c>
       <c r="V75" t="str">
         <f t="shared" si="28"/>
-        <v>减：营业成本</v>
+        <v>投资收益（损失以“－”号填列）</v>
       </c>
       <c r="W75" t="e">
         <f t="shared" si="29"/>
@@ -8248,26 +8089,26 @@
     </row>
     <row r="76" spans="1:44">
       <c r="A76" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B76" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D76" t="s">
         <v>102</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U76" t="e">
         <v>#N/A</v>
       </c>
       <c r="V76" t="str">
         <f t="shared" si="28"/>
-        <v>减：营业成本</v>
+        <v>加: 营业外收入</v>
       </c>
       <c r="W76" t="e">
         <f t="shared" si="29"/>
@@ -8348,13 +8189,13 @@
     </row>
     <row r="77" spans="1:44">
       <c r="A77" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B77" t="s">
-        <v>164</v>
-      </c>
-      <c r="C77" t="s">
-        <v>68</v>
+        <v>162</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="D77" t="s">
         <v>102</v>
@@ -8367,7 +8208,7 @@
       </c>
       <c r="V77" t="str">
         <f t="shared" si="28"/>
-        <v>税金及附加</v>
+        <v>减：营业成本</v>
       </c>
       <c r="W77" t="e">
         <f t="shared" si="29"/>
@@ -8448,13 +8289,13 @@
     </row>
     <row r="78" spans="1:44">
       <c r="A78" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B78" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D78" t="s">
         <v>102</v>
@@ -8467,7 +8308,7 @@
       </c>
       <c r="V78" t="str">
         <f t="shared" si="28"/>
-        <v>财务费用</v>
+        <v>减：营业成本</v>
       </c>
       <c r="W78" t="e">
         <f t="shared" si="29"/>
@@ -8548,13 +8389,13 @@
     </row>
     <row r="79" spans="1:44">
       <c r="A79" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B79" t="s">
-        <v>153</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>87</v>
+        <v>164</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
       </c>
       <c r="D79" t="s">
         <v>102</v>
@@ -8567,7 +8408,7 @@
       </c>
       <c r="V79" t="str">
         <f t="shared" si="28"/>
-        <v>销售费用</v>
+        <v>税金及附加</v>
       </c>
       <c r="W79" t="e">
         <f t="shared" si="29"/>
@@ -8648,13 +8489,13 @@
     </row>
     <row r="80" spans="1:44">
       <c r="A80" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B80" t="s">
-        <v>140</v>
-      </c>
-      <c r="C80" t="s">
-        <v>71</v>
+        <v>133</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="D80" t="s">
         <v>102</v>
@@ -8667,7 +8508,7 @@
       </c>
       <c r="V80" t="str">
         <f t="shared" si="28"/>
-        <v>管理费用</v>
+        <v>财务费用</v>
       </c>
       <c r="W80" t="e">
         <f t="shared" si="29"/>
@@ -8748,13 +8589,13 @@
     </row>
     <row r="81" spans="1:44">
       <c r="A81" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="B81" t="s">
-        <v>154</v>
-      </c>
-      <c r="C81" t="s">
-        <v>130</v>
+        <v>153</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D81" t="s">
         <v>102</v>
@@ -8762,16 +8603,99 @@
       <c r="E81">
         <v>1</v>
       </c>
+      <c r="U81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V81" t="str">
+        <f t="shared" si="28"/>
+        <v>销售费用</v>
+      </c>
+      <c r="W81" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X81" t="e">
+        <f>VLOOKUP(W81,科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y81" t="e">
+        <f>VLOOKUP(W81,科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z81" t="e">
+        <f t="shared" si="30"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA81">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AE81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF81" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG81">
+        <f t="shared" si="34"/>
+        <v>1000</v>
+      </c>
+      <c r="AH81" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ81" t="e">
+        <f>VLOOKUP(W81,科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK81" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM81" t="e">
+        <f t="shared" si="37"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO81">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AP81" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ81" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR81" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="82" spans="1:44">
       <c r="A82" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B82" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C82" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D82" t="s">
         <v>102</v>
@@ -8784,7 +8708,7 @@
       </c>
       <c r="V82" t="str">
         <f t="shared" si="28"/>
-        <v>财务费用</v>
+        <v>管理费用</v>
       </c>
       <c r="W82" t="e">
         <f t="shared" si="29"/>
@@ -8865,143 +8789,143 @@
     </row>
     <row r="83" spans="1:44">
       <c r="A83" t="s">
-        <v>247</v>
+        <v>130</v>
       </c>
       <c r="B83" t="s">
-        <v>237</v>
+        <v>154</v>
       </c>
       <c r="C83" t="s">
-        <v>248</v>
+        <v>130</v>
       </c>
       <c r="D83" t="s">
         <v>102</v>
       </c>
       <c r="E83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:44">
+      <c r="A84" t="s">
+        <v>72</v>
+      </c>
+      <c r="B84" t="s">
+        <v>133</v>
+      </c>
+      <c r="C84" t="s">
+        <v>72</v>
+      </c>
+      <c r="D84" t="s">
+        <v>102</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="U84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V84" t="str">
+        <f t="shared" si="28"/>
+        <v>财务费用</v>
+      </c>
+      <c r="W84" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X84" t="e">
+        <f>VLOOKUP(W84,科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y84" t="e">
+        <f>VLOOKUP(W84,科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z84" t="e">
+        <f t="shared" si="30"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA84">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AE84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF84" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG84">
+        <f t="shared" si="34"/>
+        <v>1000</v>
+      </c>
+      <c r="AH84" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ84" t="e">
+        <f>VLOOKUP(W84,科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK84" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM84" t="e">
+        <f t="shared" si="37"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO84">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AP84" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ84" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR84" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:44">
+      <c r="A85" t="s">
+        <v>247</v>
+      </c>
+      <c r="B85" t="s">
+        <v>237</v>
+      </c>
+      <c r="C85" t="s">
+        <v>248</v>
+      </c>
+      <c r="D85" t="s">
+        <v>102</v>
+      </c>
+      <c r="E85">
         <v>-1</v>
       </c>
-      <c r="U83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V83" t="str">
+      <c r="U85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V85" t="str">
         <f t="shared" si="28"/>
         <v>信用减值损失（损失以“－”号填列）</v>
-      </c>
-      <c r="W83" t="e">
-        <f t="shared" si="29"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X83" t="e">
-        <f>VLOOKUP(W83,科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y83" t="e">
-        <f>VLOOKUP(W83,科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z83" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA83">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AB83">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AE83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF83" t="e">
-        <f t="shared" si="33"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG83">
-        <f t="shared" si="34"/>
-        <v>1000</v>
-      </c>
-      <c r="AH83" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ83" t="e">
-        <f>VLOOKUP(W83,科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK83" t="e">
-        <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM83" t="e">
-        <f t="shared" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AO83">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AP83" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ83" t="e">
-        <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR83" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="84" spans="1:44">
-      <c r="A84" t="s">
-        <v>73</v>
-      </c>
-      <c r="B84" t="s">
-        <v>246</v>
-      </c>
-      <c r="C84" t="s">
-        <v>73</v>
-      </c>
-      <c r="D84" t="s">
-        <v>102</v>
-      </c>
-      <c r="E84">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:44">
-      <c r="A85" t="s">
-        <v>74</v>
-      </c>
-      <c r="B85" t="s">
-        <v>166</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D85" t="s">
-        <v>102</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="U85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V85" t="str">
-        <f t="shared" si="28"/>
-        <v>减：营业外支出</v>
       </c>
       <c r="W85" t="e">
         <f t="shared" si="29"/>
@@ -9082,111 +9006,43 @@
     </row>
     <row r="86" spans="1:44">
       <c r="A86" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B86" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>91</v>
+        <v>246</v>
+      </c>
+      <c r="C86" t="s">
+        <v>73</v>
       </c>
       <c r="D86" t="s">
         <v>102</v>
       </c>
       <c r="E86">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:44">
+      <c r="A87" t="s">
+        <v>74</v>
+      </c>
+      <c r="B87" t="s">
+        <v>166</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" t="s">
+        <v>102</v>
+      </c>
+      <c r="E87">
         <v>1</v>
       </c>
-      <c r="U86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V86" t="str">
-        <f t="shared" si="28"/>
-        <v>减：所得税费用</v>
-      </c>
-      <c r="W86" t="e">
-        <f t="shared" si="29"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X86" t="e">
-        <f>VLOOKUP(W86,科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y86" t="e">
-        <f>VLOOKUP(W86,科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z86" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA86">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AB86">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AE86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF86" t="e">
-        <f t="shared" si="33"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG86">
-        <f t="shared" si="34"/>
-        <v>1000</v>
-      </c>
-      <c r="AH86" t="e">
-        <f t="shared" si="35"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ86" t="e">
-        <f>VLOOKUP(W86,科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK86" t="e">
-        <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM86" t="e">
-        <f t="shared" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AO86">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AP86" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ86" t="e">
-        <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AR86" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="87" spans="1:44">
       <c r="U87" t="e">
         <v>#N/A</v>
       </c>
       <c r="V87" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>减：营业外支出</v>
       </c>
       <c r="W87" t="e">
         <f t="shared" si="29"/>
@@ -9267,17 +9123,26 @@
     </row>
     <row r="88" spans="1:44">
       <c r="A88" t="s">
-        <v>104</v>
+        <v>75</v>
+      </c>
+      <c r="B88" t="s">
+        <v>152</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D88" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
       </c>
       <c r="U88" t="e">
         <v>#N/A</v>
       </c>
       <c r="V88" t="str">
         <f t="shared" si="28"/>
-        <v/>
+        <v>减：所得税费用</v>
       </c>
       <c r="W88" t="e">
         <f t="shared" si="29"/>
@@ -9357,30 +9222,15 @@
       </c>
     </row>
     <row r="89" spans="1:44">
-      <c r="A89" t="s">
-        <v>56</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E89">
-        <v>-1</v>
-      </c>
       <c r="U89" t="e">
         <v>#N/A</v>
       </c>
       <c r="V89" t="str">
-        <f>TRIM($B89)</f>
-        <v>未分配利润</v>
+        <f t="shared" si="28"/>
+        <v/>
       </c>
       <c r="W89" t="e">
-        <f>_xlfn.IFNA(AE89,AH89)</f>
+        <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
       <c r="X89" t="e">
@@ -9392,30 +9242,30 @@
         <v>#VALUE!</v>
       </c>
       <c r="Z89" t="e">
-        <f>U89&amp;"\"&amp;$C89</f>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="AA89">
-        <f>IF($P89="借",$R89,-$R89)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AB89">
-        <f>_xlfn.IFNA(IF(AE89="重复明细",0,AO89),AO89)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AE89" t="e">
         <v>#N/A</v>
       </c>
       <c r="AF89" t="e">
-        <f>FIND("\",$C89)</f>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="AG89">
-        <f>IFERROR(FIND("\",$C89,AF89+1),1000)</f>
+        <f t="shared" si="34"/>
         <v>1000</v>
       </c>
       <c r="AH89" t="e">
-        <f>MID($C89,AF89+1,AG89-AF89-1)</f>
+        <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
       <c r="AI89" t="e">
@@ -9426,58 +9276,49 @@
         <v>#VALUE!</v>
       </c>
       <c r="AK89" t="e">
-        <f>AI89&amp;"/"&amp;AJ89</f>
+        <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
       <c r="AL89" t="e">
         <v>#N/A</v>
       </c>
       <c r="AM89" t="e">
-        <f>ROUND(AA89*AL89,2)</f>
+        <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
       <c r="AN89" t="e">
         <v>#N/A</v>
       </c>
       <c r="AO89">
-        <f>IFERROR(_xlfn.IFNA(AM89,AN89),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AP89" t="e">
-        <f>FIND("]",AO89)</f>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="AQ89" t="e">
-        <f>FIND("#",AO89)</f>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="AR89" t="e">
-        <f>FIND("#",AO89,AQ89+1)</f>
+        <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="90" spans="1:44">
       <c r="A90" t="s">
-        <v>103</v>
-      </c>
-      <c r="B90" t="s">
-        <v>103</v>
-      </c>
-      <c r="C90" t="s">
-        <v>103</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E90">
-        <v>-1</v>
+        <v>104</v>
+      </c>
+      <c r="D90" t="s">
+        <v>99</v>
       </c>
       <c r="U90" t="e">
         <v>#N/A</v>
       </c>
       <c r="V90" t="str">
         <f t="shared" si="28"/>
-        <v>本年利润抵消明细</v>
+        <v/>
       </c>
       <c r="W90" t="e">
         <f t="shared" si="29"/>
@@ -9558,171 +9399,371 @@
     </row>
     <row r="91" spans="1:44">
       <c r="A91" t="s">
+        <v>56</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E91">
+        <v>-1</v>
+      </c>
+      <c r="U91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V91" t="str">
+        <f>TRIM($B91)</f>
+        <v>未分配利润</v>
+      </c>
+      <c r="W91" t="e">
+        <f>_xlfn.IFNA(AE91,AH91)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X91" t="e">
+        <f>VLOOKUP(W91,科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y91" t="e">
+        <f>VLOOKUP(W91,科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z91" t="e">
+        <f>U91&amp;"\"&amp;$C91</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA91">
+        <f>IF($P91="借",$R91,-$R91)</f>
+        <v>0</v>
+      </c>
+      <c r="AB91">
+        <f>_xlfn.IFNA(IF(AE91="重复明细",0,AO91),AO91)</f>
+        <v>0</v>
+      </c>
+      <c r="AE91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF91" t="e">
+        <f>FIND("\",$C91)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG91">
+        <f>IFERROR(FIND("\",$C91,AF91+1),1000)</f>
+        <v>1000</v>
+      </c>
+      <c r="AH91" t="e">
+        <f>MID($C91,AF91+1,AG91-AF91-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ91" t="e">
+        <f>VLOOKUP(W91,科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK91" t="e">
+        <f>AI91&amp;"/"&amp;AJ91</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM91" t="e">
+        <f>ROUND(AA91*AL91,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AN91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO91">
+        <f>IFERROR(_xlfn.IFNA(AM91,AN91),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP91" t="e">
+        <f>FIND("]",AO91)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ91" t="e">
+        <f>FIND("#",AO91)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR91" t="e">
+        <f>FIND("#",AO91,AQ91+1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:44">
+      <c r="A92" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" t="s">
+        <v>103</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E92">
+        <v>-1</v>
+      </c>
+      <c r="U92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V92" t="str">
+        <f t="shared" si="28"/>
+        <v>本年利润抵消明细</v>
+      </c>
+      <c r="W92" t="e">
+        <f t="shared" si="29"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X92" t="e">
+        <f>VLOOKUP(W92,科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y92" t="e">
+        <f>VLOOKUP(W92,科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z92" t="e">
+        <f t="shared" si="30"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA92">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AB92">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AE92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF92" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG92">
+        <f t="shared" si="34"/>
+        <v>1000</v>
+      </c>
+      <c r="AH92" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ92" t="e">
+        <f>VLOOKUP(W92,科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK92" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AL92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM92" t="e">
+        <f t="shared" si="37"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AN92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO92">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AP92" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ92" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AR92" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:44">
+      <c r="A93" t="s">
         <v>105</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B93" t="s">
         <v>243</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C93" t="s">
         <v>243</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D93" t="s">
         <v>101</v>
       </c>
-      <c r="E91">
+      <c r="E93">
         <v>1</v>
       </c>
-      <c r="U91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V91" t="str">
+      <c r="U93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V93" t="str">
         <f t="shared" si="28"/>
         <v>外币报表折算</v>
       </c>
-      <c r="W91" t="e">
+      <c r="W93" t="e">
         <f t="shared" si="29"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X91" t="e">
-        <f>VLOOKUP(W91,科目!$A:$C,2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y91" t="e">
-        <f>VLOOKUP(W91,科目!$A:$C,3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z91" t="e">
+      <c r="X93" t="e">
+        <f>VLOOKUP(W93,科目!$A:$C,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y93" t="e">
+        <f>VLOOKUP(W93,科目!$A:$C,3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z93" t="e">
         <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
-      <c r="AA91">
+      <c r="AA93">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AB91">
+      <c r="AB93">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AE91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AF91" t="e">
+      <c r="AE93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF93" t="e">
         <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AG91">
+      <c r="AG93">
         <f t="shared" si="34"/>
         <v>1000</v>
       </c>
-      <c r="AH91" t="e">
+      <c r="AH93" t="e">
         <f t="shared" si="35"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AI91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ91" t="e">
-        <f>VLOOKUP(W91,科目!$A:$D,4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK91" t="e">
+      <c r="AI93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AJ93" t="e">
+        <f>VLOOKUP(W93,科目!$A:$D,4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AK93" t="e">
         <f t="shared" si="36"/>
         <v>#N/A</v>
       </c>
-      <c r="AL91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM91" t="e">
+      <c r="AL93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AM93" t="e">
         <f t="shared" si="37"/>
         <v>#N/A</v>
       </c>
-      <c r="AN91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AO91">
+      <c r="AN93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AO93">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AP91" t="e">
+      <c r="AP93" t="e">
         <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AQ91" t="e">
+      <c r="AQ93" t="e">
         <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AR91" t="e">
+      <c r="AR93" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="92" spans="1:44">
-      <c r="A92" t="s">
-        <v>126</v>
-      </c>
-      <c r="B92" t="s">
-        <v>126</v>
-      </c>
-      <c r="C92" t="s">
-        <v>241</v>
-      </c>
-      <c r="D92" t="s">
-        <v>102</v>
-      </c>
-      <c r="E92">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:44">
-      <c r="A93" t="s">
-        <v>127</v>
-      </c>
-      <c r="B93" t="s">
-        <v>177</v>
-      </c>
-      <c r="C93" t="s">
-        <v>242</v>
-      </c>
-      <c r="D93" t="s">
-        <v>102</v>
-      </c>
-      <c r="E93">
-        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:44">
       <c r="A94" t="s">
-        <v>232</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>234</v>
+        <v>126</v>
+      </c>
+      <c r="B94" t="s">
+        <v>126</v>
+      </c>
+      <c r="C94" t="s">
+        <v>241</v>
+      </c>
+      <c r="D94" t="s">
+        <v>102</v>
+      </c>
+      <c r="E94">
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:44">
       <c r="A95" t="s">
+        <v>127</v>
+      </c>
+      <c r="B95" t="s">
+        <v>177</v>
+      </c>
+      <c r="C95" t="s">
+        <v>242</v>
+      </c>
+      <c r="D95" t="s">
+        <v>102</v>
+      </c>
+      <c r="E95">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:44">
+      <c r="A96" t="s">
+        <v>232</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
         <v>245</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B97" t="s">
         <v>134</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C97" t="s">
         <v>77</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D97" t="s">
         <v>99</v>
       </c>
-      <c r="E95">
+      <c r="E97">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G94" xr:uid="{1611A6C3-6C6A-44A7-AA58-C620DCB769FB}"/>
+  <autoFilter ref="A1:G96" xr:uid="{1611A6C3-6C6A-44A7-AA58-C620DCB769FB}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/00框架文件/03MR.xlsx
+++ b/00框架文件/03MR.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3338B7A-44A3-4780-A5BF-CCB4E31DB955}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED737C4-FA22-4162-B1D8-41CCC5DC9B62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="科目" sheetId="1" r:id="rId1"/>
-    <sheet name="报表筛选" sheetId="2" r:id="rId2"/>
+    <sheet name="FScheck" sheetId="4" r:id="rId1"/>
+    <sheet name="科目" sheetId="1" r:id="rId2"/>
+    <sheet name="报表筛选" sheetId="2" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">科目!$A$1:$G$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">科目!$A$1:$G$96</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="267">
   <si>
     <t>报表科目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -823,12 +827,63 @@
   <si>
     <t>其他应付款（工会经费）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司简称</t>
+  </si>
+  <si>
+    <t>报表科目名称</t>
+  </si>
+  <si>
+    <t>报表导出金额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    存货</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    长期股权投资</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    固定资产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    无形资产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    未分配利润</t>
+  </si>
+  <si>
+    <t>01 生科</t>
+  </si>
+  <si>
+    <t>02 其胜</t>
+  </si>
+  <si>
+    <t>03 建华</t>
+  </si>
+  <si>
+    <t>04 利康瑞</t>
+  </si>
+  <si>
+    <t>05 控股(HK)</t>
+  </si>
+  <si>
+    <t>报表借正贷负</t>
+  </si>
+  <si>
+    <t>TB原币借正贷负</t>
+  </si>
+  <si>
+    <t>差异金额</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -880,7 +935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -890,6 +945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -905,6 +961,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="CombinedTB"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1169,11 +1238,3317 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C38F82-B68C-4503-A90E-63EBCAF1E133}">
+  <dimension ref="A1:F143"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139:C143"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="6" width="20.625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1513539115.46</v>
+      </c>
+      <c r="D2" s="7">
+        <f>VLOOKUP(B2,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A2,[1]CombinedTB!D:D,FScheck!B2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F2" s="7" t="e">
+        <f t="shared" ref="F2:F33" si="0">C2*D2-E2</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="7">
+        <v>88724105.239999995</v>
+      </c>
+      <c r="D3" s="7">
+        <f>VLOOKUP(B3,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A3,[1]CombinedTB!D:D,FScheck!B3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F3" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="7">
+        <v>5763066.7400000002</v>
+      </c>
+      <c r="D4" s="7">
+        <f>VLOOKUP(B4,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A4,[1]CombinedTB!D:D,FScheck!B4)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F4" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="7">
+        <v>61798671.240000002</v>
+      </c>
+      <c r="D5" s="7">
+        <f>VLOOKUP(B5,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A5,[1]CombinedTB!D:D,FScheck!B5)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F5" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="7">
+        <v>15273840.720000001</v>
+      </c>
+      <c r="D6" s="7">
+        <f>VLOOKUP(B6,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A6,[1]CombinedTB!D:D,FScheck!B6)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F6" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1108112156.72</v>
+      </c>
+      <c r="D7" s="7">
+        <f>VLOOKUP(B7,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A7,[1]CombinedTB!D:D,FScheck!B7)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F7" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="7">
+        <v>51690420.289999999</v>
+      </c>
+      <c r="D8" s="7">
+        <f>VLOOKUP(B8,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A8,[1]CombinedTB!D:D,FScheck!B8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F8" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1607379066.1400001</v>
+      </c>
+      <c r="D9" s="7">
+        <f>VLOOKUP(B9,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A9,[1]CombinedTB!D:D,FScheck!B9)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F9" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="7">
+        <v>45864000</v>
+      </c>
+      <c r="D10" s="7">
+        <f>VLOOKUP(B10,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A10,[1]CombinedTB!D:D,FScheck!B10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F10" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" s="7">
+        <v>168096698.53</v>
+      </c>
+      <c r="D11" s="7">
+        <f>VLOOKUP(B11,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A11,[1]CombinedTB!D:D,FScheck!B11)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F11" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="7">
+        <v>315555772.00999999</v>
+      </c>
+      <c r="D12" s="7">
+        <f>VLOOKUP(B12,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A12,[1]CombinedTB!D:D,FScheck!B12)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F12" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="7">
+        <v>123635648.92</v>
+      </c>
+      <c r="D13" s="7">
+        <f>VLOOKUP(B13,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A13,[1]CombinedTB!D:D,FScheck!B13)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F13" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2315784.87</v>
+      </c>
+      <c r="D14" s="7">
+        <f>VLOOKUP(B14,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A14,[1]CombinedTB!D:D,FScheck!B14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F14" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="7">
+        <v>4691834.13</v>
+      </c>
+      <c r="D15" s="7">
+        <f>VLOOKUP(B15,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A15,[1]CombinedTB!D:D,FScheck!B15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F15" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="7">
+        <v>13417295.380000001</v>
+      </c>
+      <c r="D16" s="7">
+        <f>VLOOKUP(B16,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E16" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A16,[1]CombinedTB!D:D,FScheck!B16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F16" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="7">
+        <v>7290955.2000000002</v>
+      </c>
+      <c r="D17" s="7">
+        <f>VLOOKUP(B17,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E17" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A17,[1]CombinedTB!D:D,FScheck!B17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F17" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>259</v>
+      </c>
+      <c r="B18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2634675.0699999998</v>
+      </c>
+      <c r="D18" s="7">
+        <f>VLOOKUP(B18,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E18" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A18,[1]CombinedTB!D:D,FScheck!B18)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F18" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="7">
+        <v>6994147.3399999999</v>
+      </c>
+      <c r="D19" s="7">
+        <f>VLOOKUP(B19,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E19" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A19,[1]CombinedTB!D:D,FScheck!B19)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F19" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>259</v>
+      </c>
+      <c r="B20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="7">
+        <v>845263018.33000004</v>
+      </c>
+      <c r="D20" s="7">
+        <f>VLOOKUP(B20,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E20" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A20,[1]CombinedTB!D:D,FScheck!B20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F20" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>259</v>
+      </c>
+      <c r="B21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="7">
+        <v>177206600</v>
+      </c>
+      <c r="D21" s="7">
+        <f>VLOOKUP(B21,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E21" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A21,[1]CombinedTB!D:D,FScheck!B21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F21" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="7">
+        <v>3248866362.1199999</v>
+      </c>
+      <c r="D22" s="7">
+        <f>VLOOKUP(B22,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E22" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A22,[1]CombinedTB!D:D,FScheck!B22)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F22" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>259</v>
+      </c>
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="7">
+        <v>146801743.84999999</v>
+      </c>
+      <c r="D23" s="7">
+        <f>VLOOKUP(B23,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A23,[1]CombinedTB!D:D,FScheck!B23)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F23" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>259</v>
+      </c>
+      <c r="B24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="7">
+        <v>-5201532.08</v>
+      </c>
+      <c r="D24" s="7">
+        <f>VLOOKUP(B24,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E24" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A24,[1]CombinedTB!D:D,FScheck!B24)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F24" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>259</v>
+      </c>
+      <c r="B25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="7">
+        <v>88922650</v>
+      </c>
+      <c r="D25" s="7">
+        <f>VLOOKUP(B25,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E25" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A25,[1]CombinedTB!D:D,FScheck!B25)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F25" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>259</v>
+      </c>
+      <c r="B26" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="7">
+        <v>873847753.5</v>
+      </c>
+      <c r="D26" s="7">
+        <f>VLOOKUP(B26,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E26" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A26,[1]CombinedTB!D:D,FScheck!B26)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F26" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>259</v>
+      </c>
+      <c r="B27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="7">
+        <v>95992059.930000007</v>
+      </c>
+      <c r="D27" s="7">
+        <f>VLOOKUP(B27,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E27" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A27,[1]CombinedTB!D:D,FScheck!B27)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F27" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>259</v>
+      </c>
+      <c r="B28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="7">
+        <v>18025717.829999998</v>
+      </c>
+      <c r="D28" s="7">
+        <f>VLOOKUP(B28,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E28" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A28,[1]CombinedTB!D:D,FScheck!B28)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F28" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>259</v>
+      </c>
+      <c r="B29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1287509.74</v>
+      </c>
+      <c r="D29" s="7">
+        <f>VLOOKUP(B29,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E29" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A29,[1]CombinedTB!D:D,FScheck!B29)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F29" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>259</v>
+      </c>
+      <c r="B30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="7">
+        <v>54216389.68</v>
+      </c>
+      <c r="D30" s="7">
+        <f>VLOOKUP(B30,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A30,[1]CombinedTB!D:D,FScheck!B30)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F30" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>259</v>
+      </c>
+      <c r="B31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="7">
+        <v>16224170.08</v>
+      </c>
+      <c r="D31" s="7">
+        <f>VLOOKUP(B31,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A31,[1]CombinedTB!D:D,FScheck!B31)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F31" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>259</v>
+      </c>
+      <c r="B32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="7">
+        <v>14115466.92</v>
+      </c>
+      <c r="D32" s="7">
+        <f>VLOOKUP(B32,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E32" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A32,[1]CombinedTB!D:D,FScheck!B32)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F32" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>259</v>
+      </c>
+      <c r="B33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="7">
+        <v>-14175387.470000001</v>
+      </c>
+      <c r="D33" s="7">
+        <f>VLOOKUP(B33,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E33" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A33,[1]CombinedTB!D:D,FScheck!B33)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F33" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>259</v>
+      </c>
+      <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="7">
+        <v>479464.51</v>
+      </c>
+      <c r="D34" s="7">
+        <f>VLOOKUP(B34,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E34" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A34,[1]CombinedTB!D:D,FScheck!B34)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F34" s="7" t="e">
+        <f t="shared" ref="F34:F65" si="1">C34*D34-E34</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>259</v>
+      </c>
+      <c r="B35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="7">
+        <v>3479.32</v>
+      </c>
+      <c r="D35" s="7">
+        <f>VLOOKUP(B35,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E35" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A35,[1]CombinedTB!D:D,FScheck!B35)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F35" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>260</v>
+      </c>
+      <c r="B36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="7">
+        <v>420991548.07999998</v>
+      </c>
+      <c r="D36" s="7">
+        <f>VLOOKUP(B36,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E36" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A36,[1]CombinedTB!D:D,FScheck!B36)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F36" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>260</v>
+      </c>
+      <c r="B37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="7">
+        <v>151603618.41999999</v>
+      </c>
+      <c r="D37" s="7">
+        <f>VLOOKUP(B37,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E37" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A37,[1]CombinedTB!D:D,FScheck!B37)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F37" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>260</v>
+      </c>
+      <c r="B38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="7">
+        <v>122373066.69</v>
+      </c>
+      <c r="D38" s="7">
+        <f>VLOOKUP(B38,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E38" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A38,[1]CombinedTB!D:D,FScheck!B38)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F38" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>260</v>
+      </c>
+      <c r="B39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="7">
+        <v>9802566.6099999994</v>
+      </c>
+      <c r="D39" s="7">
+        <f>VLOOKUP(B39,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E39" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A39,[1]CombinedTB!D:D,FScheck!B39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F39" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>260</v>
+      </c>
+      <c r="B40" t="s">
+        <v>233</v>
+      </c>
+      <c r="C40" s="7">
+        <v>649612000.88</v>
+      </c>
+      <c r="D40" s="7">
+        <f>VLOOKUP(B40,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E40" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A40,[1]CombinedTB!D:D,FScheck!B40)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F40" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>260</v>
+      </c>
+      <c r="B41" t="s">
+        <v>254</v>
+      </c>
+      <c r="C41" s="7">
+        <v>76722254.379999995</v>
+      </c>
+      <c r="D41" s="7">
+        <f>VLOOKUP(B41,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E41" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A41,[1]CombinedTB!D:D,FScheck!B41)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F41" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>260</v>
+      </c>
+      <c r="B42" t="s">
+        <v>256</v>
+      </c>
+      <c r="C42" s="7">
+        <v>35125676.82</v>
+      </c>
+      <c r="D42" s="7">
+        <f>VLOOKUP(B42,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E42" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A42,[1]CombinedTB!D:D,FScheck!B42)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F42" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>260</v>
+      </c>
+      <c r="B43" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="7">
+        <v>2049906.26</v>
+      </c>
+      <c r="D43" s="7">
+        <f>VLOOKUP(B43,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E43" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A43,[1]CombinedTB!D:D,FScheck!B43)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F43" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>260</v>
+      </c>
+      <c r="B44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="7">
+        <v>3754818.37</v>
+      </c>
+      <c r="D44" s="7">
+        <f>VLOOKUP(B44,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E44" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A44,[1]CombinedTB!D:D,FScheck!B44)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F44" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>260</v>
+      </c>
+      <c r="B45" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="7">
+        <v>261866.52</v>
+      </c>
+      <c r="D45" s="7">
+        <f>VLOOKUP(B45,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E45" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A45,[1]CombinedTB!D:D,FScheck!B45)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F45" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>260</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="7">
+        <v>4203867.17</v>
+      </c>
+      <c r="D46" s="7">
+        <f>VLOOKUP(B46,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E46" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A46,[1]CombinedTB!D:D,FScheck!B46)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F46" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>260</v>
+      </c>
+      <c r="B47" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="7">
+        <v>10458678.310000001</v>
+      </c>
+      <c r="D47" s="7">
+        <f>VLOOKUP(B47,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E47" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A47,[1]CombinedTB!D:D,FScheck!B47)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F47" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>260</v>
+      </c>
+      <c r="B48" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="7">
+        <v>14098043.720000001</v>
+      </c>
+      <c r="D48" s="7">
+        <f>VLOOKUP(B48,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E48" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A48,[1]CombinedTB!D:D,FScheck!B48)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F48" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>260</v>
+      </c>
+      <c r="B49" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" s="7">
+        <v>9000000</v>
+      </c>
+      <c r="D49" s="7">
+        <f>VLOOKUP(B49,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E49" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A49,[1]CombinedTB!D:D,FScheck!B49)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F49" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>260</v>
+      </c>
+      <c r="B50" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" s="7">
+        <v>6393939.4800000004</v>
+      </c>
+      <c r="D50" s="7">
+        <f>VLOOKUP(B50,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E50" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A50,[1]CombinedTB!D:D,FScheck!B50)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>260</v>
+      </c>
+      <c r="B51" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="7">
+        <v>216334732.38</v>
+      </c>
+      <c r="D51" s="7">
+        <f>VLOOKUP(B51,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E51" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A51,[1]CombinedTB!D:D,FScheck!B51)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F51" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>260</v>
+      </c>
+      <c r="B52" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="7">
+        <v>3972813.45</v>
+      </c>
+      <c r="D52" s="7">
+        <f>VLOOKUP(B52,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E52" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A52,[1]CombinedTB!D:D,FScheck!B52)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F52" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>260</v>
+      </c>
+      <c r="B53" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="7">
+        <v>240542.76</v>
+      </c>
+      <c r="D53" s="7">
+        <f>VLOOKUP(B53,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E53" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A53,[1]CombinedTB!D:D,FScheck!B53)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F53" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>260</v>
+      </c>
+      <c r="B54" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="7">
+        <v>160000000</v>
+      </c>
+      <c r="D54" s="7">
+        <f>VLOOKUP(B54,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E54" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A54,[1]CombinedTB!D:D,FScheck!B54)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F54" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>260</v>
+      </c>
+      <c r="B55" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" s="7">
+        <v>1363075.66</v>
+      </c>
+      <c r="D55" s="7">
+        <f>VLOOKUP(B55,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E55" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A55,[1]CombinedTB!D:D,FScheck!B55)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F55" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>260</v>
+      </c>
+      <c r="B56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" s="7">
+        <v>80000000</v>
+      </c>
+      <c r="D56" s="7">
+        <f>VLOOKUP(B56,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E56" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A56,[1]CombinedTB!D:D,FScheck!B56)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F56" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>260</v>
+      </c>
+      <c r="B57" t="s">
+        <v>258</v>
+      </c>
+      <c r="C57" s="7">
+        <v>974639364.44000006</v>
+      </c>
+      <c r="D57" s="7">
+        <f>VLOOKUP(B57,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E57" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A57,[1]CombinedTB!D:D,FScheck!B57)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F57" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>260</v>
+      </c>
+      <c r="B58" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58" s="7">
+        <v>102183026.40000001</v>
+      </c>
+      <c r="D58" s="7">
+        <f>VLOOKUP(B58,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E58" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A58,[1]CombinedTB!D:D,FScheck!B58)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F58" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>260</v>
+      </c>
+      <c r="B59" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" s="7">
+        <v>19981819.800000001</v>
+      </c>
+      <c r="D59" s="7">
+        <f>VLOOKUP(B59,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E59" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A59,[1]CombinedTB!D:D,FScheck!B59)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F59" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>260</v>
+      </c>
+      <c r="B60" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" s="7">
+        <v>368346.47</v>
+      </c>
+      <c r="D60" s="7">
+        <f>VLOOKUP(B60,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E60" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A60,[1]CombinedTB!D:D,FScheck!B60)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F60" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>260</v>
+      </c>
+      <c r="B61" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="7">
+        <v>49447194.340000004</v>
+      </c>
+      <c r="D61" s="7">
+        <f>VLOOKUP(B61,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E61" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A61,[1]CombinedTB!D:D,FScheck!B61)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F61" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>260</v>
+      </c>
+      <c r="B62" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="7">
+        <v>2931837.7</v>
+      </c>
+      <c r="D62" s="7">
+        <f>VLOOKUP(B62,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E62" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A62,[1]CombinedTB!D:D,FScheck!B62)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F62" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>260</v>
+      </c>
+      <c r="B63" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" s="7">
+        <v>8308087.6600000001</v>
+      </c>
+      <c r="D63" s="7">
+        <f>VLOOKUP(B63,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E63" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A63,[1]CombinedTB!D:D,FScheck!B63)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F63" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>260</v>
+      </c>
+      <c r="B64" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="7">
+        <v>-3705407.35</v>
+      </c>
+      <c r="D64" s="7">
+        <f>VLOOKUP(B64,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E64" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A64,[1]CombinedTB!D:D,FScheck!B64)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F64" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>260</v>
+      </c>
+      <c r="B65" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="7">
+        <v>3716.7</v>
+      </c>
+      <c r="D65" s="7">
+        <f>VLOOKUP(B65,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E65" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A65,[1]CombinedTB!D:D,FScheck!B65)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F65" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>260</v>
+      </c>
+      <c r="B66" t="s">
+        <v>177</v>
+      </c>
+      <c r="C66" s="7">
+        <v>-543.62</v>
+      </c>
+      <c r="D66" s="7">
+        <f>VLOOKUP(B66,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E66" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A66,[1]CombinedTB!D:D,FScheck!B66)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F66" s="7" t="e">
+        <f t="shared" ref="F66:F97" si="2">C66*D66-E66</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>260</v>
+      </c>
+      <c r="B67" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="7">
+        <v>-221797.57</v>
+      </c>
+      <c r="D67" s="7">
+        <f>VLOOKUP(B67,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E67" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A67,[1]CombinedTB!D:D,FScheck!B67)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F67" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>260</v>
+      </c>
+      <c r="B68" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" s="7">
+        <v>50000</v>
+      </c>
+      <c r="D68" s="7">
+        <f>VLOOKUP(B68,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E68" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A68,[1]CombinedTB!D:D,FScheck!B68)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F68" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>260</v>
+      </c>
+      <c r="B69" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" s="7">
+        <v>3687378.5</v>
+      </c>
+      <c r="D69" s="7">
+        <f>VLOOKUP(B69,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E69" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A69,[1]CombinedTB!D:D,FScheck!B69)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F69" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>261</v>
+      </c>
+      <c r="B70" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" s="7">
+        <v>3436554.98</v>
+      </c>
+      <c r="D70" s="7">
+        <f>VLOOKUP(B70,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E70" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A70,[1]CombinedTB!D:D,FScheck!B70)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F70" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>261</v>
+      </c>
+      <c r="B71" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" s="7">
+        <v>812577.2</v>
+      </c>
+      <c r="D71" s="7">
+        <f>VLOOKUP(B71,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E71" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A71,[1]CombinedTB!D:D,FScheck!B71)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F71" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>261</v>
+      </c>
+      <c r="B72" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" s="7">
+        <v>1656687.11</v>
+      </c>
+      <c r="D72" s="7">
+        <f>VLOOKUP(B72,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E72" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A72,[1]CombinedTB!D:D,FScheck!B72)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F72" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>261</v>
+      </c>
+      <c r="B73" t="s">
+        <v>233</v>
+      </c>
+      <c r="C73" s="7">
+        <v>18115439.77</v>
+      </c>
+      <c r="D73" s="7">
+        <f>VLOOKUP(B73,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E73" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A73,[1]CombinedTB!D:D,FScheck!B73)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F73" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>261</v>
+      </c>
+      <c r="B74" t="s">
+        <v>254</v>
+      </c>
+      <c r="C74" s="7">
+        <v>12722963.310000001</v>
+      </c>
+      <c r="D74" s="7">
+        <f>VLOOKUP(B74,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E74" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A74,[1]CombinedTB!D:D,FScheck!B74)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F74" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>261</v>
+      </c>
+      <c r="B75" t="s">
+        <v>255</v>
+      </c>
+      <c r="C75" s="7">
+        <v>3102.32</v>
+      </c>
+      <c r="D75" s="7">
+        <f>VLOOKUP(B75,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E75" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A75,[1]CombinedTB!D:D,FScheck!B75)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F75" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>261</v>
+      </c>
+      <c r="B76" t="s">
+        <v>256</v>
+      </c>
+      <c r="C76" s="7">
+        <v>100331713.51000001</v>
+      </c>
+      <c r="D76" s="7">
+        <f>VLOOKUP(B76,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E76" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A76,[1]CombinedTB!D:D,FScheck!B76)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F76" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>261</v>
+      </c>
+      <c r="B77" t="s">
+        <v>170</v>
+      </c>
+      <c r="C77" s="7">
+        <v>25696453.530000001</v>
+      </c>
+      <c r="D77" s="7">
+        <f>VLOOKUP(B77,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E77" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A77,[1]CombinedTB!D:D,FScheck!B77)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F77" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>261</v>
+      </c>
+      <c r="B78" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" s="7">
+        <v>1962298.99</v>
+      </c>
+      <c r="D78" s="7">
+        <f>VLOOKUP(B78,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E78" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A78,[1]CombinedTB!D:D,FScheck!B78)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F78" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B79" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" s="7">
+        <v>513757.4</v>
+      </c>
+      <c r="D79" s="7">
+        <f>VLOOKUP(B79,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E79" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A79,[1]CombinedTB!D:D,FScheck!B79)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F79" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>261</v>
+      </c>
+      <c r="B80" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" s="7">
+        <v>3005332.21</v>
+      </c>
+      <c r="D80" s="7">
+        <f>VLOOKUP(B80,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E80" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A80,[1]CombinedTB!D:D,FScheck!B80)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F80" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>261</v>
+      </c>
+      <c r="B81" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81" s="7">
+        <v>1402960</v>
+      </c>
+      <c r="D81" s="7">
+        <f>VLOOKUP(B81,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E81" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A81,[1]CombinedTB!D:D,FScheck!B81)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F81" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>261</v>
+      </c>
+      <c r="B82" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="7">
+        <v>-493284.4</v>
+      </c>
+      <c r="D82" s="7">
+        <f>VLOOKUP(B82,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E82" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A82,[1]CombinedTB!D:D,FScheck!B82)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F82" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>261</v>
+      </c>
+      <c r="B83" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" s="7">
+        <v>277994.27</v>
+      </c>
+      <c r="D83" s="7">
+        <f>VLOOKUP(B83,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E83" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A83,[1]CombinedTB!D:D,FScheck!B83)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F83" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>261</v>
+      </c>
+      <c r="B84" t="s">
+        <v>145</v>
+      </c>
+      <c r="C84" s="7">
+        <v>34503006.759999998</v>
+      </c>
+      <c r="D84" s="7">
+        <f>VLOOKUP(B84,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E84" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A84,[1]CombinedTB!D:D,FScheck!B84)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F84" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>261</v>
+      </c>
+      <c r="B85" t="s">
+        <v>178</v>
+      </c>
+      <c r="C85" s="7">
+        <v>1829389.06</v>
+      </c>
+      <c r="D85" s="7">
+        <f>VLOOKUP(B85,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E85" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A85,[1]CombinedTB!D:D,FScheck!B85)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F85" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>261</v>
+      </c>
+      <c r="B86" t="s">
+        <v>149</v>
+      </c>
+      <c r="C86" s="7">
+        <v>107495211.70999999</v>
+      </c>
+      <c r="D86" s="7">
+        <f>VLOOKUP(B86,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E86" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A86,[1]CombinedTB!D:D,FScheck!B86)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F86" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>261</v>
+      </c>
+      <c r="B87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" s="7">
+        <v>305921.33</v>
+      </c>
+      <c r="D87" s="7">
+        <f>VLOOKUP(B87,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E87" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A87,[1]CombinedTB!D:D,FScheck!B87)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F87" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>261</v>
+      </c>
+      <c r="B88" t="s">
+        <v>161</v>
+      </c>
+      <c r="C88" s="7">
+        <v>7944583.6200000001</v>
+      </c>
+      <c r="D88" s="7">
+        <f>VLOOKUP(B88,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E88" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A88,[1]CombinedTB!D:D,FScheck!B88)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F88" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>261</v>
+      </c>
+      <c r="B89" t="s">
+        <v>258</v>
+      </c>
+      <c r="C89" s="7">
+        <v>8980433.5600000005</v>
+      </c>
+      <c r="D89" s="7">
+        <f>VLOOKUP(B89,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E89" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A89,[1]CombinedTB!D:D,FScheck!B89)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F89" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>261</v>
+      </c>
+      <c r="B90" t="s">
+        <v>184</v>
+      </c>
+      <c r="C90" s="7">
+        <v>6103755.4800000004</v>
+      </c>
+      <c r="D90" s="7">
+        <f>VLOOKUP(B90,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E90" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A90,[1]CombinedTB!D:D,FScheck!B90)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F90" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>261</v>
+      </c>
+      <c r="B91" t="s">
+        <v>162</v>
+      </c>
+      <c r="C91" s="7">
+        <v>2477381.2799999998</v>
+      </c>
+      <c r="D91" s="7">
+        <f>VLOOKUP(B91,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E91" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A91,[1]CombinedTB!D:D,FScheck!B91)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F91" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>261</v>
+      </c>
+      <c r="B92" t="s">
+        <v>164</v>
+      </c>
+      <c r="C92" s="7">
+        <v>4954.1000000000004</v>
+      </c>
+      <c r="D92" s="7">
+        <f>VLOOKUP(B92,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E92" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A92,[1]CombinedTB!D:D,FScheck!B92)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F92" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>261</v>
+      </c>
+      <c r="B93" t="s">
+        <v>153</v>
+      </c>
+      <c r="C93" s="7">
+        <v>1251770.56</v>
+      </c>
+      <c r="D93" s="7">
+        <f>VLOOKUP(B93,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E93" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A93,[1]CombinedTB!D:D,FScheck!B93)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F93" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>261</v>
+      </c>
+      <c r="B94" t="s">
+        <v>140</v>
+      </c>
+      <c r="C94" s="7">
+        <v>362794.37</v>
+      </c>
+      <c r="D94" s="7">
+        <f>VLOOKUP(B94,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E94" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A94,[1]CombinedTB!D:D,FScheck!B94)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F94" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>261</v>
+      </c>
+      <c r="B95" t="s">
+        <v>154</v>
+      </c>
+      <c r="C95" s="7">
+        <v>2265641.29</v>
+      </c>
+      <c r="D95" s="7">
+        <f>VLOOKUP(B95,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E95" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A95,[1]CombinedTB!D:D,FScheck!B95)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F95" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>261</v>
+      </c>
+      <c r="B96" t="s">
+        <v>133</v>
+      </c>
+      <c r="C96" s="7">
+        <v>-279.48</v>
+      </c>
+      <c r="D96" s="7">
+        <f>VLOOKUP(B96,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E96" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A96,[1]CombinedTB!D:D,FScheck!B96)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F96" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>261</v>
+      </c>
+      <c r="B97" t="s">
+        <v>126</v>
+      </c>
+      <c r="C97" s="7">
+        <v>1853.2</v>
+      </c>
+      <c r="D97" s="7">
+        <f>VLOOKUP(B97,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E97" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A97,[1]CombinedTB!D:D,FScheck!B97)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F97" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>261</v>
+      </c>
+      <c r="B98" t="s">
+        <v>177</v>
+      </c>
+      <c r="C98" s="7">
+        <v>-257523.27</v>
+      </c>
+      <c r="D98" s="7">
+        <f>VLOOKUP(B98,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E98" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A98,[1]CombinedTB!D:D,FScheck!B98)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F98" s="7" t="e">
+        <f t="shared" ref="F98:F129" si="3">C98*D98-E98</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>262</v>
+      </c>
+      <c r="B99" t="s">
+        <v>132</v>
+      </c>
+      <c r="C99" s="7">
+        <v>104866650.48</v>
+      </c>
+      <c r="D99" s="7">
+        <f>VLOOKUP(B99,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E99" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A99,[1]CombinedTB!D:D,FScheck!B99)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F99" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>262</v>
+      </c>
+      <c r="B100" t="s">
+        <v>142</v>
+      </c>
+      <c r="C100" s="7">
+        <v>50000000</v>
+      </c>
+      <c r="D100" s="7">
+        <f>VLOOKUP(B100,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E100" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A100,[1]CombinedTB!D:D,FScheck!B100)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F100" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>262</v>
+      </c>
+      <c r="B101" t="s">
+        <v>160</v>
+      </c>
+      <c r="C101" s="7">
+        <v>17822418.850000001</v>
+      </c>
+      <c r="D101" s="7">
+        <f>VLOOKUP(B101,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E101" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A101,[1]CombinedTB!D:D,FScheck!B101)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F101" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>262</v>
+      </c>
+      <c r="B102" t="s">
+        <v>167</v>
+      </c>
+      <c r="C102" s="7">
+        <v>4458075.2</v>
+      </c>
+      <c r="D102" s="7">
+        <f>VLOOKUP(B102,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E102" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A102,[1]CombinedTB!D:D,FScheck!B102)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F102" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>262</v>
+      </c>
+      <c r="B103" t="s">
+        <v>233</v>
+      </c>
+      <c r="C103" s="7">
+        <v>9337951.6500000004</v>
+      </c>
+      <c r="D103" s="7">
+        <f>VLOOKUP(B103,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E103" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A103,[1]CombinedTB!D:D,FScheck!B103)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F103" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>262</v>
+      </c>
+      <c r="B104" t="s">
+        <v>254</v>
+      </c>
+      <c r="C104" s="7">
+        <v>56140179.490000002</v>
+      </c>
+      <c r="D104" s="7">
+        <f>VLOOKUP(B104,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E104" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A104,[1]CombinedTB!D:D,FScheck!B104)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F104" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>262</v>
+      </c>
+      <c r="B105" t="s">
+        <v>256</v>
+      </c>
+      <c r="C105" s="7">
+        <v>242307405.24000001</v>
+      </c>
+      <c r="D105" s="7">
+        <f>VLOOKUP(B105,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E105" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A105,[1]CombinedTB!D:D,FScheck!B105)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F105" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>262</v>
+      </c>
+      <c r="B106" t="s">
+        <v>170</v>
+      </c>
+      <c r="C106" s="7">
+        <v>2960631.87</v>
+      </c>
+      <c r="D106" s="7">
+        <f>VLOOKUP(B106,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E106" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A106,[1]CombinedTB!D:D,FScheck!B106)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F106" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>262</v>
+      </c>
+      <c r="B107" t="s">
+        <v>257</v>
+      </c>
+      <c r="C107" s="7">
+        <v>15413534.029999999</v>
+      </c>
+      <c r="D107" s="7">
+        <f>VLOOKUP(B107,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E107" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A107,[1]CombinedTB!D:D,FScheck!B107)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F107" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>262</v>
+      </c>
+      <c r="B108" t="s">
+        <v>156</v>
+      </c>
+      <c r="C108" s="7">
+        <v>3544311.98</v>
+      </c>
+      <c r="D108" s="7">
+        <f>VLOOKUP(B108,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E108" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A108,[1]CombinedTB!D:D,FScheck!B108)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F108" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>262</v>
+      </c>
+      <c r="B109" t="s">
+        <v>169</v>
+      </c>
+      <c r="C109" s="7">
+        <v>80279</v>
+      </c>
+      <c r="D109" s="7">
+        <f>VLOOKUP(B109,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E109" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A109,[1]CombinedTB!D:D,FScheck!B109)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F109" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>262</v>
+      </c>
+      <c r="B110" t="s">
+        <v>157</v>
+      </c>
+      <c r="C110" s="7">
+        <v>75723.89</v>
+      </c>
+      <c r="D110" s="7">
+        <f>VLOOKUP(B110,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E110" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A110,[1]CombinedTB!D:D,FScheck!B110)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F110" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>262</v>
+      </c>
+      <c r="B111" t="s">
+        <v>158</v>
+      </c>
+      <c r="C111" s="7">
+        <v>207658.34</v>
+      </c>
+      <c r="D111" s="7">
+        <f>VLOOKUP(B111,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E111" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A111,[1]CombinedTB!D:D,FScheck!B111)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F111" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>262</v>
+      </c>
+      <c r="B112" t="s">
+        <v>145</v>
+      </c>
+      <c r="C112" s="7">
+        <v>354198057.57999998</v>
+      </c>
+      <c r="D112" s="7">
+        <f>VLOOKUP(B112,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E112" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A112,[1]CombinedTB!D:D,FScheck!B112)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F112" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>262</v>
+      </c>
+      <c r="B113" t="s">
+        <v>149</v>
+      </c>
+      <c r="C113" s="7">
+        <v>150000000</v>
+      </c>
+      <c r="D113" s="7">
+        <f>VLOOKUP(B113,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E113" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A113,[1]CombinedTB!D:D,FScheck!B113)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F113" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>262</v>
+      </c>
+      <c r="B114" t="s">
+        <v>161</v>
+      </c>
+      <c r="C114" s="7">
+        <v>1556.68</v>
+      </c>
+      <c r="D114" s="7">
+        <f>VLOOKUP(B114,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E114" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A114,[1]CombinedTB!D:D,FScheck!B114)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F114" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>262</v>
+      </c>
+      <c r="B115" t="s">
+        <v>258</v>
+      </c>
+      <c r="C115" s="7">
+        <v>-4800740.66</v>
+      </c>
+      <c r="D115" s="7">
+        <f>VLOOKUP(B115,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E115" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A115,[1]CombinedTB!D:D,FScheck!B115)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F115" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>262</v>
+      </c>
+      <c r="B116" t="s">
+        <v>184</v>
+      </c>
+      <c r="C116" s="7">
+        <v>13637868.220000001</v>
+      </c>
+      <c r="D116" s="7">
+        <f>VLOOKUP(B116,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E116" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A116,[1]CombinedTB!D:D,FScheck!B116)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F116" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>262</v>
+      </c>
+      <c r="B117" t="s">
+        <v>162</v>
+      </c>
+      <c r="C117" s="7">
+        <v>7415017.6500000004</v>
+      </c>
+      <c r="D117" s="7">
+        <f>VLOOKUP(B117,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E117" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A117,[1]CombinedTB!D:D,FScheck!B117)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F117" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>262</v>
+      </c>
+      <c r="B118" t="s">
+        <v>164</v>
+      </c>
+      <c r="C118" s="7">
+        <v>271398.40000000002</v>
+      </c>
+      <c r="D118" s="7">
+        <f>VLOOKUP(B118,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E118" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A118,[1]CombinedTB!D:D,FScheck!B118)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F118" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>262</v>
+      </c>
+      <c r="B119" t="s">
+        <v>153</v>
+      </c>
+      <c r="C119" s="7">
+        <v>155469.17000000001</v>
+      </c>
+      <c r="D119" s="7">
+        <f>VLOOKUP(B119,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E119" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A119,[1]CombinedTB!D:D,FScheck!B119)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F119" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>262</v>
+      </c>
+      <c r="B120" t="s">
+        <v>140</v>
+      </c>
+      <c r="C120" s="7">
+        <v>5771402.4699999997</v>
+      </c>
+      <c r="D120" s="7">
+        <f>VLOOKUP(B120,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E120" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A120,[1]CombinedTB!D:D,FScheck!B120)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F120" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>262</v>
+      </c>
+      <c r="B121" t="s">
+        <v>154</v>
+      </c>
+      <c r="C121" s="7">
+        <v>3840433.86</v>
+      </c>
+      <c r="D121" s="7">
+        <f>VLOOKUP(B121,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E121" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A121,[1]CombinedTB!D:D,FScheck!B121)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F121" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>262</v>
+      </c>
+      <c r="B122" t="s">
+        <v>133</v>
+      </c>
+      <c r="C122" s="7">
+        <v>-275744.08</v>
+      </c>
+      <c r="D122" s="7">
+        <f>VLOOKUP(B122,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E122" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A122,[1]CombinedTB!D:D,FScheck!B122)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F122" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>262</v>
+      </c>
+      <c r="B123" t="s">
+        <v>126</v>
+      </c>
+      <c r="C123" s="7">
+        <v>4474.8</v>
+      </c>
+      <c r="D123" s="7">
+        <f>VLOOKUP(B123,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E123" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A123,[1]CombinedTB!D:D,FScheck!B123)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F123" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>262</v>
+      </c>
+      <c r="B124" t="s">
+        <v>177</v>
+      </c>
+      <c r="C124" s="7">
+        <v>300</v>
+      </c>
+      <c r="D124" s="7">
+        <f>VLOOKUP(B124,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E124" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A124,[1]CombinedTB!D:D,FScheck!B124)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F124" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>263</v>
+      </c>
+      <c r="B125" t="s">
+        <v>132</v>
+      </c>
+      <c r="C125" s="7">
+        <v>56335396.740000002</v>
+      </c>
+      <c r="D125" s="7">
+        <f>VLOOKUP(B125,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E125" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A125,[1]CombinedTB!D:D,FScheck!B125)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F125" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>263</v>
+      </c>
+      <c r="B126" t="s">
+        <v>160</v>
+      </c>
+      <c r="C126" s="7">
+        <v>83243760.709999993</v>
+      </c>
+      <c r="D126" s="7">
+        <f>VLOOKUP(B126,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E126" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A126,[1]CombinedTB!D:D,FScheck!B126)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F126" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>263</v>
+      </c>
+      <c r="B127" t="s">
+        <v>167</v>
+      </c>
+      <c r="C127" s="7">
+        <v>1565517.32</v>
+      </c>
+      <c r="D127" s="7">
+        <f>VLOOKUP(B127,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E127" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A127,[1]CombinedTB!D:D,FScheck!B127)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F127" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>263</v>
+      </c>
+      <c r="B128" t="s">
+        <v>233</v>
+      </c>
+      <c r="C128" s="7">
+        <v>110273492.06999999</v>
+      </c>
+      <c r="D128" s="7">
+        <f>VLOOKUP(B128,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E128" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A128,[1]CombinedTB!D:D,FScheck!B128)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F128" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>263</v>
+      </c>
+      <c r="B129" t="s">
+        <v>255</v>
+      </c>
+      <c r="C129" s="7">
+        <v>75200820</v>
+      </c>
+      <c r="D129" s="7">
+        <f>VLOOKUP(B129,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E129" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A129,[1]CombinedTB!D:D,FScheck!B129)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F129" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>263</v>
+      </c>
+      <c r="B130" t="s">
+        <v>151</v>
+      </c>
+      <c r="C130" s="7">
+        <v>1124450.8999999999</v>
+      </c>
+      <c r="D130" s="7">
+        <f>VLOOKUP(B130,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E130" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A130,[1]CombinedTB!D:D,FScheck!B130)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F130" s="7" t="e">
+        <f t="shared" ref="F130:F161" si="4">C130*D130-E130</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>263</v>
+      </c>
+      <c r="B131" t="s">
+        <v>171</v>
+      </c>
+      <c r="C131" s="7">
+        <v>91798.2</v>
+      </c>
+      <c r="D131" s="7">
+        <f>VLOOKUP(B131,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E131" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A131,[1]CombinedTB!D:D,FScheck!B131)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F131" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>263</v>
+      </c>
+      <c r="B132" t="s">
+        <v>156</v>
+      </c>
+      <c r="C132" s="7">
+        <v>5199088.41</v>
+      </c>
+      <c r="D132" s="7">
+        <f>VLOOKUP(B132,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E132" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A132,[1]CombinedTB!D:D,FScheck!B132)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F132" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>263</v>
+      </c>
+      <c r="B133" t="s">
+        <v>158</v>
+      </c>
+      <c r="C133" s="7">
+        <v>-9087.35</v>
+      </c>
+      <c r="D133" s="7">
+        <f>VLOOKUP(B133,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E133" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A133,[1]CombinedTB!D:D,FScheck!B133)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F133" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>263</v>
+      </c>
+      <c r="B134" t="s">
+        <v>145</v>
+      </c>
+      <c r="C134" s="7">
+        <v>13131431.9</v>
+      </c>
+      <c r="D134" s="7">
+        <f>VLOOKUP(B134,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E134" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A134,[1]CombinedTB!D:D,FScheck!B134)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F134" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>263</v>
+      </c>
+      <c r="B135" t="s">
+        <v>178</v>
+      </c>
+      <c r="C135" s="7">
+        <v>1029016.77</v>
+      </c>
+      <c r="D135" s="7">
+        <f>VLOOKUP(B135,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E135" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A135,[1]CombinedTB!D:D,FScheck!B135)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F135" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>263</v>
+      </c>
+      <c r="B136" t="s">
+        <v>135</v>
+      </c>
+      <c r="C136" s="7">
+        <v>8930867.7200000007</v>
+      </c>
+      <c r="D136" s="7">
+        <f>VLOOKUP(B136,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E136" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A136,[1]CombinedTB!D:D,FScheck!B136)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F136" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>263</v>
+      </c>
+      <c r="B137" t="s">
+        <v>148</v>
+      </c>
+      <c r="C137" s="7">
+        <v>-3299966.45</v>
+      </c>
+      <c r="D137" s="7">
+        <f>VLOOKUP(B137,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E137" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A137,[1]CombinedTB!D:D,FScheck!B137)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F137" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>263</v>
+      </c>
+      <c r="B138" t="s">
+        <v>258</v>
+      </c>
+      <c r="C138" s="7">
+        <v>302483318.69999999</v>
+      </c>
+      <c r="D138" s="7">
+        <f>VLOOKUP(B138,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E138" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A138,[1]CombinedTB!D:D,FScheck!B138)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F138" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>263</v>
+      </c>
+      <c r="B139" t="s">
+        <v>184</v>
+      </c>
+      <c r="C139" s="7">
+        <v>16141439.439999999</v>
+      </c>
+      <c r="D139" s="7">
+        <f>VLOOKUP(B139,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E139" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A139,[1]CombinedTB!D:D,FScheck!B139)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F139" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>263</v>
+      </c>
+      <c r="B140" t="s">
+        <v>162</v>
+      </c>
+      <c r="C140" s="7">
+        <v>12724212.939999999</v>
+      </c>
+      <c r="D140" s="7">
+        <f>VLOOKUP(B140,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E140" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A140,[1]CombinedTB!D:D,FScheck!B140)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F140" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>263</v>
+      </c>
+      <c r="B141" t="s">
+        <v>140</v>
+      </c>
+      <c r="C141" s="7">
+        <v>929865.55</v>
+      </c>
+      <c r="D141" s="7">
+        <f>VLOOKUP(B141,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E141" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A141,[1]CombinedTB!D:D,FScheck!B141)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F141" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>263</v>
+      </c>
+      <c r="B142" t="s">
+        <v>133</v>
+      </c>
+      <c r="C142" s="7">
+        <v>-344476.53</v>
+      </c>
+      <c r="D142" s="7">
+        <f>VLOOKUP(B142,科目!$B:$E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E142" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A142,[1]CombinedTB!D:D,FScheck!B142)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F142" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>263</v>
+      </c>
+      <c r="B143" t="s">
+        <v>180</v>
+      </c>
+      <c r="C143" s="7">
+        <v>561734.14</v>
+      </c>
+      <c r="D143" s="7">
+        <f>VLOOKUP(B143,科目!$B:$E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="E143" s="7" t="e">
+        <f>SUMIFS([1]CombinedTB!G:G,[1]CombinedTB!A:A,FScheck!A143,[1]CombinedTB!D:D,FScheck!B143)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F143" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AR97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -9770,7 +13145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223F10AC-1346-4694-B4F4-56288D977667}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F34"/>
